--- a/mosip_master/xlsx/dynamic_field.xlsx
+++ b/mosip_master/xlsx/dynamic_field.xlsx
@@ -1,19 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mahesh.Binayak\Downloads\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="6720" tabRatio="500"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Sheet1!$A$1:$I$67</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$I$67</definedName>
   </definedNames>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <calcPr calcId="0" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
@@ -23,42 +27,42 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="471" uniqueCount="80">
-  <si>
-    <t xml:space="preserve">id</t>
-  </si>
-  <si>
-    <t xml:space="preserve">name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">description</t>
-  </si>
-  <si>
-    <t xml:space="preserve">data_type</t>
-  </si>
-  <si>
-    <t xml:space="preserve">value_json</t>
-  </si>
-  <si>
-    <t xml:space="preserve">lang_code</t>
-  </si>
-  <si>
-    <t xml:space="preserve">is_active</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cr_by</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cr_dtimes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bloodType</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Blood Type</t>
-  </si>
-  <si>
-    <t xml:space="preserve">string</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="702" uniqueCount="102">
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>description</t>
+  </si>
+  <si>
+    <t>data_type</t>
+  </si>
+  <si>
+    <t>value_json</t>
+  </si>
+  <si>
+    <t>lang_code</t>
+  </si>
+  <si>
+    <t>is_active</t>
+  </si>
+  <si>
+    <t>cr_by</t>
+  </si>
+  <si>
+    <t>cr_dtimes</t>
+  </si>
+  <si>
+    <t>bloodType</t>
+  </si>
+  <si>
+    <t>Blood Type</t>
+  </si>
+  <si>
+    <t>string</t>
   </si>
   <si>
     <t xml:space="preserve">
@@ -68,13 +72,13 @@
 	}</t>
   </si>
   <si>
-    <t xml:space="preserve">eng</t>
-  </si>
-  <si>
-    <t xml:space="preserve">superadmin</t>
-  </si>
-  <si>
-    <t xml:space="preserve">now()</t>
+    <t>eng</t>
+  </si>
+  <si>
+    <t>superadmin</t>
+  </si>
+  <si>
+    <t>now()</t>
   </si>
   <si>
     <t xml:space="preserve">
@@ -168,10 +172,10 @@
 	}</t>
   </si>
   <si>
-    <t xml:space="preserve">maritalStatus</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Marital Status</t>
+    <t>maritalStatus</t>
+  </si>
+  <si>
+    <t>Marital Status</t>
   </si>
   <si>
     <t xml:space="preserve">
@@ -223,10 +227,10 @@
 	}</t>
   </si>
   <si>
-    <t xml:space="preserve">registrationType</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Registration Type</t>
+    <t>registrationType</t>
+  </si>
+  <si>
+    <t>Registration Type</t>
   </si>
   <si>
     <t xml:space="preserve">
@@ -243,10 +247,10 @@
 	}</t>
   </si>
   <si>
-    <t xml:space="preserve">modeOfClaim</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mode of Claim</t>
+    <t>modeOfClaim</t>
+  </si>
+  <si>
+    <t>Mode of Claim</t>
   </si>
   <si>
     <t xml:space="preserve">
@@ -270,10 +274,10 @@
 	}</t>
   </si>
   <si>
-    <t xml:space="preserve">gender</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gender</t>
+    <t>gender</t>
+  </si>
+  <si>
+    <t>Gender</t>
   </si>
   <si>
     <t xml:space="preserve">
@@ -297,7 +301,7 @@
 	}</t>
   </si>
   <si>
-    <t xml:space="preserve">residenceStatus</t>
+    <t>residenceStatus</t>
   </si>
   <si>
     <t xml:space="preserve">
@@ -314,22 +318,22 @@
 	}</t>
   </si>
   <si>
-    <t xml:space="preserve">preferredLang</t>
-  </si>
-  <si>
-    <t xml:space="preserve">user preferred Language</t>
-  </si>
-  <si>
-    <t xml:space="preserve">{"value":"English","code":"eng"}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">{"value":"français","code":"fra"}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Langue préférée de l'utilisateur</t>
-  </si>
-  <si>
-    <t xml:space="preserve">fra</t>
+    <t>preferredLang</t>
+  </si>
+  <si>
+    <t>user preferred Language</t>
+  </si>
+  <si>
+    <t>{"value":"English","code":"eng"}</t>
+  </si>
+  <si>
+    <t>{"value":"français","code":"fra"}</t>
+  </si>
+  <si>
+    <t>Langue préférée de l'utilisateur</t>
+  </si>
+  <si>
+    <t>fra</t>
   </si>
   <si>
     <t xml:space="preserve">
@@ -463,17 +467,158 @@
 		"code": "NFR",
 		"value": "Non-étranger"
 	}</t>
+  </si>
+  <si>
+    <t>يفضل المستخدم اللغة</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+	{
+		"code": "113",
+		"value": "لا اعرف"
+	}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+	{
+		"code": "114",
+		"value": "لايمكن تطبيقه"
+	}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+	{
+		"code": "101",
+		"value": "أعزب"
+	}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+	{
+		"code": "102",
+		"value": "متزوج"
+	}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+	{
+		"code": "103",
+		"value": "الأرامل"
+	}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+	{
+		"code": "104",
+		"value": "مطلق"
+	}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+	{
+		"code": "105",
+		"value": "مطلق من الناحية القانونية"
+	}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+	{
+		"code": "106",
+		"value": "ملغاة"
+	}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+	{
+		"code": "107",
+		"value": "مبطل"
+	}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+	{
+		"code": "Document-based",
+		"value": "مستند إلى المستند"
+	}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+	{
+		"code": "Introducer-based",
+		"value": "المعرف القائم"
+	}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+	{
+		"code": "101",
+		"value": "يلتقط"
+	}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+	{
+		"code": "102",
+		"value": "التسليم إلى العنوان الدائم"
+	}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+	{
+		"code": "103",
+		"value": "التسليم إلى العنوان الحالي"
+	}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+	{
+		"code": "MLE",
+		"value": "ذكر"
+	}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+	{
+		"code": "FLE",
+		"value": "أنثى"
+	}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+	{
+		"code": "OTH",
+		"value": "آحرون"
+	}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+	{
+		"code": "FR",
+		"value": "أجنبي"
+	}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+	{
+		"code": "NFR",
+		"value": "غير أجنبي"
+	}</t>
+  </si>
+  <si>
+    <t>{"value":"arabic","code":"ara"}</t>
+  </si>
+  <si>
+    <t>ara</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="General"/>
-    <numFmt numFmtId="165" formatCode="&quot;TRUE&quot;;&quot;TRUE&quot;;&quot;FALSE&quot;"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="&quot;TRUE&quot;;&quot;TRUE&quot;;&quot;FALSE&quot;"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -482,25 +627,9 @@
       <charset val="1"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <b val="true"/>
+      <b/>
       <sz val="11"/>
       <name val="Cambria"/>
-      <family val="0"/>
       <charset val="1"/>
     </font>
   </fonts>
@@ -513,100 +642,338 @@
     </fill>
   </fills>
   <borders count="2">
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="20">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="4">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="6">
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships"/>
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4472C4"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:I67"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I100"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A64" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G65" activeCellId="0" sqref="G65"/>
+    <sheetView tabSelected="1" topLeftCell="A104" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F67" sqref="F67"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5234375" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="12.5"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="23.01"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="17.7"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="21.6"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="32.51"/>
+    <col min="1" max="1" width="12.42578125" customWidth="1"/>
+    <col min="2" max="2" width="23" customWidth="1"/>
+    <col min="3" max="3" width="17.7109375" customWidth="1"/>
+    <col min="4" max="4" width="21.5703125" customWidth="1"/>
+    <col min="5" max="5" width="37.7109375" customWidth="1"/>
+    <col min="6" max="6" width="33.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -635,907 +1002,907 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="55.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="n">
+    <row r="2" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+      <c r="A2">
         <v>10001</v>
       </c>
-      <c r="B2" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="C2" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="D2" s="0" t="s">
+      <c r="B2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" t="s">
         <v>11</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="F2" s="0" t="s">
+      <c r="F2" t="s">
         <v>13</v>
       </c>
       <c r="G2" s="3" t="b">
         <v>1</v>
       </c>
-      <c r="H2" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="I2" s="0" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="55.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="n">
+      <c r="H2" t="s">
+        <v>14</v>
+      </c>
+      <c r="I2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+      <c r="A3">
         <v>10002</v>
       </c>
-      <c r="B3" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" s="0" t="s">
+      <c r="B3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" t="s">
         <v>11</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F3" s="0" t="s">
+      <c r="F3" t="s">
         <v>13</v>
       </c>
       <c r="G3" s="3" t="b">
         <v>1</v>
       </c>
-      <c r="H3" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="I3" s="0" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="55.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="n">
+      <c r="H3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+      <c r="A4">
         <v>10003</v>
       </c>
-      <c r="B4" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="D4" s="0" t="s">
+      <c r="B4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" t="s">
         <v>11</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F4" s="0" t="s">
+      <c r="F4" t="s">
         <v>13</v>
       </c>
       <c r="G4" s="3" t="b">
         <v>1</v>
       </c>
-      <c r="H4" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="I4" s="0" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="55.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="n">
+      <c r="H4" t="s">
+        <v>14</v>
+      </c>
+      <c r="I4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+      <c r="A5">
         <v>10004</v>
       </c>
-      <c r="B5" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="D5" s="0" t="s">
+      <c r="B5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" t="s">
         <v>11</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="F5" s="0" t="s">
+      <c r="F5" t="s">
         <v>13</v>
       </c>
       <c r="G5" s="3" t="b">
         <v>1</v>
       </c>
-      <c r="H5" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="I5" s="0" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="55.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="n">
+      <c r="H5" t="s">
+        <v>14</v>
+      </c>
+      <c r="I5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+      <c r="A6">
         <v>10005</v>
       </c>
-      <c r="B6" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="C6" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="D6" s="0" t="s">
+      <c r="B6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" t="s">
         <v>11</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="F6" s="0" t="s">
+      <c r="F6" t="s">
         <v>13</v>
       </c>
       <c r="G6" s="3" t="b">
         <v>1</v>
       </c>
-      <c r="H6" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="I6" s="0" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="55.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="n">
+      <c r="H6" t="s">
+        <v>14</v>
+      </c>
+      <c r="I6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+      <c r="A7">
         <v>10006</v>
       </c>
-      <c r="B7" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="C7" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="D7" s="0" t="s">
+      <c r="B7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" t="s">
         <v>11</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="F7" s="0" t="s">
+      <c r="F7" t="s">
         <v>13</v>
       </c>
       <c r="G7" s="3" t="b">
         <v>1</v>
       </c>
-      <c r="H7" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="I7" s="0" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="55.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="n">
+      <c r="H7" t="s">
+        <v>14</v>
+      </c>
+      <c r="I7" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+      <c r="A8">
         <v>10007</v>
       </c>
-      <c r="B8" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="C8" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="D8" s="0" t="s">
+      <c r="B8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D8" t="s">
         <v>11</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="F8" s="0" t="s">
+      <c r="F8" t="s">
         <v>13</v>
       </c>
       <c r="G8" s="3" t="b">
         <v>1</v>
       </c>
-      <c r="H8" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="I8" s="0" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="55.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="n">
+      <c r="H8" t="s">
+        <v>14</v>
+      </c>
+      <c r="I8" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+      <c r="A9">
         <v>10008</v>
       </c>
-      <c r="B9" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="C9" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="D9" s="0" t="s">
+      <c r="B9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" t="s">
+        <v>10</v>
+      </c>
+      <c r="D9" t="s">
         <v>11</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="F9" s="0" t="s">
+      <c r="F9" t="s">
         <v>13</v>
       </c>
       <c r="G9" s="3" t="b">
         <v>1</v>
       </c>
-      <c r="H9" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="I9" s="0" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="55.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="n">
+      <c r="H9" t="s">
+        <v>14</v>
+      </c>
+      <c r="I9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+      <c r="A10">
         <v>10009</v>
       </c>
-      <c r="B10" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="C10" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="D10" s="0" t="s">
+      <c r="B10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" t="s">
+        <v>10</v>
+      </c>
+      <c r="D10" t="s">
         <v>11</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="F10" s="0" t="s">
+      <c r="F10" t="s">
         <v>13</v>
       </c>
       <c r="G10" s="3" t="b">
         <v>1</v>
       </c>
-      <c r="H10" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="I10" s="0" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="55.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="0" t="n">
+      <c r="H10" t="s">
+        <v>14</v>
+      </c>
+      <c r="I10" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+      <c r="A11">
         <v>10010</v>
       </c>
-      <c r="B11" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="C11" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="D11" s="0" t="s">
+      <c r="B11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" t="s">
+        <v>10</v>
+      </c>
+      <c r="D11" t="s">
         <v>11</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="F11" s="0" t="s">
+      <c r="F11" t="s">
         <v>13</v>
       </c>
       <c r="G11" s="3" t="b">
         <v>1</v>
       </c>
-      <c r="H11" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="I11" s="0" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="55.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="0" t="n">
+      <c r="H11" t="s">
+        <v>14</v>
+      </c>
+      <c r="I11" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+      <c r="A12">
         <v>10011</v>
       </c>
-      <c r="B12" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="C12" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="D12" s="0" t="s">
+      <c r="B12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" t="s">
+        <v>10</v>
+      </c>
+      <c r="D12" t="s">
         <v>11</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="F12" s="0" t="s">
+      <c r="F12" t="s">
         <v>13</v>
       </c>
       <c r="G12" s="3" t="b">
         <v>1</v>
       </c>
-      <c r="H12" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="I12" s="0" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="55.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="0" t="n">
+      <c r="H12" t="s">
+        <v>14</v>
+      </c>
+      <c r="I12" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+      <c r="A13">
         <v>10012</v>
       </c>
-      <c r="B13" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="C13" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="D13" s="0" t="s">
+      <c r="B13" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13" t="s">
+        <v>10</v>
+      </c>
+      <c r="D13" t="s">
         <v>11</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="F13" s="0" t="s">
+      <c r="F13" t="s">
         <v>13</v>
       </c>
       <c r="G13" s="3" t="b">
         <v>1</v>
       </c>
-      <c r="H13" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="I13" s="0" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="55.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="0" t="n">
+      <c r="H13" t="s">
+        <v>14</v>
+      </c>
+      <c r="I13" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+      <c r="A14">
         <v>10013</v>
       </c>
-      <c r="B14" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="C14" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="D14" s="0" t="s">
+      <c r="B14" t="s">
+        <v>9</v>
+      </c>
+      <c r="C14" t="s">
+        <v>10</v>
+      </c>
+      <c r="D14" t="s">
         <v>11</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="F14" s="0" t="s">
+      <c r="F14" t="s">
         <v>13</v>
       </c>
       <c r="G14" s="3" t="b">
         <v>1</v>
       </c>
-      <c r="H14" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="I14" s="0" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="55.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="0" t="n">
+      <c r="H14" t="s">
+        <v>14</v>
+      </c>
+      <c r="I14" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+      <c r="A15">
         <v>10014</v>
       </c>
-      <c r="B15" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="C15" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="D15" s="0" t="s">
+      <c r="B15" t="s">
+        <v>9</v>
+      </c>
+      <c r="C15" t="s">
+        <v>10</v>
+      </c>
+      <c r="D15" t="s">
         <v>11</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="F15" s="0" t="s">
+      <c r="F15" t="s">
         <v>13</v>
       </c>
       <c r="G15" s="3" t="b">
         <v>1</v>
       </c>
-      <c r="H15" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="I15" s="0" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="55.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="0" t="n">
+      <c r="H15" t="s">
+        <v>14</v>
+      </c>
+      <c r="I15" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+      <c r="A16">
         <v>10015</v>
       </c>
-      <c r="B16" s="0" t="s">
+      <c r="B16" t="s">
         <v>29</v>
       </c>
-      <c r="C16" s="0" t="s">
+      <c r="C16" t="s">
         <v>30</v>
       </c>
-      <c r="D16" s="0" t="s">
+      <c r="D16" t="s">
         <v>11</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="F16" s="0" t="s">
+      <c r="F16" t="s">
         <v>13</v>
       </c>
       <c r="G16" s="3" t="b">
         <v>1</v>
       </c>
-      <c r="H16" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="I16" s="0" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="55.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="0" t="n">
+      <c r="H16" t="s">
+        <v>14</v>
+      </c>
+      <c r="I16" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+      <c r="A17">
         <v>10016</v>
       </c>
-      <c r="B17" s="0" t="s">
+      <c r="B17" t="s">
         <v>29</v>
       </c>
-      <c r="C17" s="0" t="s">
+      <c r="C17" t="s">
         <v>30</v>
       </c>
-      <c r="D17" s="0" t="s">
+      <c r="D17" t="s">
         <v>11</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="F17" s="0" t="s">
+      <c r="F17" t="s">
         <v>13</v>
       </c>
       <c r="G17" s="3" t="b">
         <v>1</v>
       </c>
-      <c r="H17" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="I17" s="0" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="55.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="0" t="n">
+      <c r="H17" t="s">
+        <v>14</v>
+      </c>
+      <c r="I17" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+      <c r="A18">
         <v>10017</v>
       </c>
-      <c r="B18" s="0" t="s">
+      <c r="B18" t="s">
         <v>29</v>
       </c>
-      <c r="C18" s="0" t="s">
+      <c r="C18" t="s">
         <v>30</v>
       </c>
-      <c r="D18" s="0" t="s">
+      <c r="D18" t="s">
         <v>11</v>
       </c>
       <c r="E18" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="F18" s="0" t="s">
+      <c r="F18" t="s">
         <v>13</v>
       </c>
       <c r="G18" s="3" t="b">
         <v>1</v>
       </c>
-      <c r="H18" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="I18" s="0" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="19" customFormat="false" ht="55.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="0" t="n">
+      <c r="H18" t="s">
+        <v>14</v>
+      </c>
+      <c r="I18" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+      <c r="A19">
         <v>10018</v>
       </c>
-      <c r="B19" s="0" t="s">
+      <c r="B19" t="s">
         <v>29</v>
       </c>
-      <c r="C19" s="0" t="s">
+      <c r="C19" t="s">
         <v>30</v>
       </c>
-      <c r="D19" s="0" t="s">
+      <c r="D19" t="s">
         <v>11</v>
       </c>
       <c r="E19" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="F19" s="0" t="s">
+      <c r="F19" t="s">
         <v>13</v>
       </c>
       <c r="G19" s="3" t="b">
         <v>1</v>
       </c>
-      <c r="H19" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="I19" s="0" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="20" customFormat="false" ht="55.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="0" t="n">
+      <c r="H19" t="s">
+        <v>14</v>
+      </c>
+      <c r="I19" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+      <c r="A20">
         <v>10019</v>
       </c>
-      <c r="B20" s="0" t="s">
+      <c r="B20" t="s">
         <v>29</v>
       </c>
-      <c r="C20" s="0" t="s">
+      <c r="C20" t="s">
         <v>30</v>
       </c>
-      <c r="D20" s="0" t="s">
+      <c r="D20" t="s">
         <v>11</v>
       </c>
       <c r="E20" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="F20" s="0" t="s">
+      <c r="F20" t="s">
         <v>13</v>
       </c>
       <c r="G20" s="3" t="b">
         <v>1</v>
       </c>
-      <c r="H20" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="I20" s="0" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="21" customFormat="false" ht="55.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="0" t="n">
+      <c r="H20" t="s">
+        <v>14</v>
+      </c>
+      <c r="I20" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+      <c r="A21">
         <v>10020</v>
       </c>
-      <c r="B21" s="0" t="s">
+      <c r="B21" t="s">
         <v>29</v>
       </c>
-      <c r="C21" s="0" t="s">
+      <c r="C21" t="s">
         <v>30</v>
       </c>
-      <c r="D21" s="0" t="s">
+      <c r="D21" t="s">
         <v>11</v>
       </c>
       <c r="E21" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="F21" s="0" t="s">
+      <c r="F21" t="s">
         <v>13</v>
       </c>
       <c r="G21" s="3" t="b">
         <v>1</v>
       </c>
-      <c r="H21" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="I21" s="0" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="22" customFormat="false" ht="55.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="0" t="n">
+      <c r="H21" t="s">
+        <v>14</v>
+      </c>
+      <c r="I21" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+      <c r="A22">
         <v>10021</v>
       </c>
-      <c r="B22" s="0" t="s">
+      <c r="B22" t="s">
         <v>29</v>
       </c>
-      <c r="C22" s="0" t="s">
+      <c r="C22" t="s">
         <v>30</v>
       </c>
-      <c r="D22" s="0" t="s">
+      <c r="D22" t="s">
         <v>11</v>
       </c>
       <c r="E22" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="F22" s="0" t="s">
+      <c r="F22" t="s">
         <v>13</v>
       </c>
       <c r="G22" s="3" t="b">
         <v>1</v>
       </c>
-      <c r="H22" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="I22" s="0" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="23" customFormat="false" ht="55.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="0" t="n">
+      <c r="H22" t="s">
+        <v>14</v>
+      </c>
+      <c r="I22" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" ht="105" x14ac:dyDescent="0.25">
+      <c r="A23">
         <v>10022</v>
       </c>
-      <c r="B23" s="0" t="s">
+      <c r="B23" t="s">
         <v>38</v>
       </c>
-      <c r="C23" s="0" t="s">
+      <c r="C23" t="s">
         <v>39</v>
       </c>
-      <c r="D23" s="0" t="s">
+      <c r="D23" t="s">
         <v>11</v>
       </c>
       <c r="E23" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="F23" s="0" t="s">
+      <c r="F23" t="s">
         <v>13</v>
       </c>
       <c r="G23" s="3" t="b">
         <v>1</v>
       </c>
-      <c r="H23" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="I23" s="0" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="24" customFormat="false" ht="55.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="0" t="n">
+      <c r="H23" t="s">
+        <v>14</v>
+      </c>
+      <c r="I23" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+      <c r="A24">
         <v>10023</v>
       </c>
-      <c r="B24" s="0" t="s">
+      <c r="B24" t="s">
         <v>38</v>
       </c>
-      <c r="C24" s="0" t="s">
+      <c r="C24" t="s">
         <v>39</v>
       </c>
-      <c r="D24" s="0" t="s">
+      <c r="D24" t="s">
         <v>11</v>
       </c>
       <c r="E24" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="F24" s="0" t="s">
+      <c r="F24" t="s">
         <v>13</v>
       </c>
       <c r="G24" s="3" t="b">
         <v>1</v>
       </c>
-      <c r="H24" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="I24" s="0" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="25" customFormat="false" ht="55.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="0" t="n">
+      <c r="H24" t="s">
+        <v>14</v>
+      </c>
+      <c r="I24" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+      <c r="A25">
         <v>10024</v>
       </c>
-      <c r="B25" s="0" t="s">
+      <c r="B25" t="s">
         <v>42</v>
       </c>
-      <c r="C25" s="0" t="s">
+      <c r="C25" t="s">
         <v>43</v>
       </c>
-      <c r="D25" s="0" t="s">
+      <c r="D25" t="s">
         <v>11</v>
       </c>
       <c r="E25" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="F25" s="0" t="s">
+      <c r="F25" t="s">
         <v>13</v>
       </c>
       <c r="G25" s="3" t="b">
         <v>1</v>
       </c>
-      <c r="H25" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="I25" s="0" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="26" customFormat="false" ht="66.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="0" t="n">
+      <c r="H25" t="s">
+        <v>14</v>
+      </c>
+      <c r="I25" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" ht="90" x14ac:dyDescent="0.25">
+      <c r="A26">
         <v>10025</v>
       </c>
-      <c r="B26" s="0" t="s">
+      <c r="B26" t="s">
         <v>42</v>
       </c>
-      <c r="C26" s="0" t="s">
+      <c r="C26" t="s">
         <v>43</v>
       </c>
-      <c r="D26" s="0" t="s">
+      <c r="D26" t="s">
         <v>11</v>
       </c>
       <c r="E26" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="F26" s="0" t="s">
+      <c r="F26" t="s">
         <v>13</v>
       </c>
       <c r="G26" s="3" t="b">
         <v>1</v>
       </c>
-      <c r="H26" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="I26" s="0" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="27" customFormat="false" ht="66.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="0" t="n">
+      <c r="H26" t="s">
+        <v>14</v>
+      </c>
+      <c r="I26" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" ht="90" x14ac:dyDescent="0.25">
+      <c r="A27">
         <v>10026</v>
       </c>
-      <c r="B27" s="0" t="s">
+      <c r="B27" t="s">
         <v>42</v>
       </c>
-      <c r="C27" s="0" t="s">
+      <c r="C27" t="s">
         <v>43</v>
       </c>
-      <c r="D27" s="0" t="s">
+      <c r="D27" t="s">
         <v>11</v>
       </c>
       <c r="E27" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="F27" s="0" t="s">
+      <c r="F27" t="s">
         <v>13</v>
       </c>
       <c r="G27" s="3" t="b">
         <v>1</v>
       </c>
-      <c r="H27" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="I27" s="0" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="28" customFormat="false" ht="55.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="0" t="n">
+      <c r="H27" t="s">
+        <v>14</v>
+      </c>
+      <c r="I27" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+      <c r="A28">
         <v>10027</v>
       </c>
-      <c r="B28" s="0" t="s">
+      <c r="B28" t="s">
         <v>47</v>
       </c>
-      <c r="C28" s="0" t="s">
+      <c r="C28" t="s">
         <v>48</v>
       </c>
-      <c r="D28" s="0" t="s">
+      <c r="D28" t="s">
         <v>11</v>
       </c>
       <c r="E28" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="F28" s="0" t="s">
+      <c r="F28" t="s">
         <v>13</v>
       </c>
       <c r="G28" s="3" t="b">
         <v>1</v>
       </c>
-      <c r="H28" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="I28" s="0" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="29" customFormat="false" ht="55.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="0" t="n">
+      <c r="H28" t="s">
+        <v>14</v>
+      </c>
+      <c r="I28" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+      <c r="A29">
         <v>10028</v>
       </c>
-      <c r="B29" s="0" t="s">
+      <c r="B29" t="s">
         <v>47</v>
       </c>
-      <c r="C29" s="0" t="s">
+      <c r="C29" t="s">
         <v>48</v>
       </c>
-      <c r="D29" s="0" t="s">
+      <c r="D29" t="s">
         <v>11</v>
       </c>
       <c r="E29" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="F29" s="0" t="s">
+      <c r="F29" t="s">
         <v>13</v>
       </c>
       <c r="G29" s="3" t="b">
         <v>1</v>
       </c>
-      <c r="H29" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="I29" s="0" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="30" customFormat="false" ht="55.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="0" t="n">
+      <c r="H29" t="s">
+        <v>14</v>
+      </c>
+      <c r="I29" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+      <c r="A30">
         <v>10029</v>
       </c>
-      <c r="B30" s="0" t="s">
+      <c r="B30" t="s">
         <v>47</v>
       </c>
-      <c r="C30" s="0" t="s">
+      <c r="C30" t="s">
         <v>48</v>
       </c>
-      <c r="D30" s="0" t="s">
+      <c r="D30" t="s">
         <v>11</v>
       </c>
       <c r="E30" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="F30" s="0" t="s">
+      <c r="F30" t="s">
         <v>13</v>
       </c>
       <c r="G30" s="3" t="b">
         <v>1</v>
       </c>
-      <c r="H30" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="I30" s="0" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="31" customFormat="false" ht="55.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="0" t="n">
+      <c r="H30" t="s">
+        <v>14</v>
+      </c>
+      <c r="I30" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+      <c r="A31">
         <v>10030</v>
       </c>
-      <c r="B31" s="0" t="s">
+      <c r="B31" t="s">
         <v>52</v>
       </c>
-      <c r="C31" s="0" t="s">
+      <c r="C31" t="s">
         <v>52</v>
       </c>
-      <c r="D31" s="0" t="s">
+      <c r="D31" t="s">
         <v>11</v>
       </c>
       <c r="E31" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="F31" s="0" t="s">
+      <c r="F31" t="s">
         <v>13</v>
       </c>
       <c r="G31" s="3" t="b">
         <v>1</v>
       </c>
-      <c r="H31" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="I31" s="0" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="32" customFormat="false" ht="55.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="0" t="n">
+      <c r="H31" t="s">
+        <v>14</v>
+      </c>
+      <c r="I31" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+      <c r="A32">
         <v>10031</v>
       </c>
-      <c r="B32" s="0" t="s">
+      <c r="B32" t="s">
         <v>52</v>
       </c>
-      <c r="C32" s="0" t="s">
+      <c r="C32" t="s">
         <v>52</v>
       </c>
-      <c r="D32" s="0" t="s">
+      <c r="D32" t="s">
         <v>11</v>
       </c>
       <c r="E32" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="F32" s="0" t="s">
+      <c r="F32" t="s">
         <v>13</v>
       </c>
       <c r="G32" s="3" t="b">
         <v>1</v>
       </c>
-      <c r="H32" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="I32" s="0" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="33" customFormat="false" ht="22.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="2" t="n">
+      <c r="H32" t="s">
+        <v>14</v>
+      </c>
+      <c r="I32" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A33" s="2">
         <v>10310</v>
       </c>
       <c r="B33" s="2" t="s">
@@ -1563,8 +1930,8 @@
         <v>15</v>
       </c>
     </row>
-    <row r="34" customFormat="false" ht="22.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="2" t="n">
+    <row r="34" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A34" s="2">
         <v>10313</v>
       </c>
       <c r="B34" s="2" t="s">
@@ -1592,8 +1959,8 @@
         <v>15</v>
       </c>
     </row>
-    <row r="35" customFormat="false" ht="22.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="2" t="n">
+    <row r="35" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A35" s="2">
         <v>10317</v>
       </c>
       <c r="B35" s="2" t="s">
@@ -1621,8 +1988,8 @@
         <v>15</v>
       </c>
     </row>
-    <row r="36" customFormat="false" ht="22.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="2" t="n">
+    <row r="36" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A36" s="2">
         <v>10319</v>
       </c>
       <c r="B36" s="2" t="s">
@@ -1650,914 +2017,1865 @@
         <v>15</v>
       </c>
     </row>
-    <row r="37" customFormat="false" ht="55.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="0" t="n">
+    <row r="37" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+      <c r="A37">
         <v>10063</v>
       </c>
-      <c r="B37" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="C37" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="D37" s="0" t="s">
+      <c r="B37" t="s">
+        <v>9</v>
+      </c>
+      <c r="C37" t="s">
+        <v>10</v>
+      </c>
+      <c r="D37" t="s">
         <v>11</v>
       </c>
       <c r="E37" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="F37" s="0" t="s">
+      <c r="F37" t="s">
         <v>60</v>
       </c>
       <c r="G37" s="3" t="b">
         <v>1</v>
       </c>
-      <c r="H37" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="I37" s="0" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="38" customFormat="false" ht="55.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="0" t="n">
+      <c r="H37" t="s">
+        <v>14</v>
+      </c>
+      <c r="I37" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+      <c r="A38">
         <v>10064</v>
       </c>
-      <c r="B38" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="C38" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="D38" s="0" t="s">
+      <c r="B38" t="s">
+        <v>9</v>
+      </c>
+      <c r="C38" t="s">
+        <v>10</v>
+      </c>
+      <c r="D38" t="s">
         <v>11</v>
       </c>
       <c r="E38" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F38" s="0" t="s">
+      <c r="F38" t="s">
         <v>60</v>
       </c>
       <c r="G38" s="3" t="b">
         <v>1</v>
       </c>
-      <c r="H38" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="I38" s="0" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="39" customFormat="false" ht="55.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="0" t="n">
+      <c r="H38" t="s">
+        <v>14</v>
+      </c>
+      <c r="I38" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+      <c r="A39">
         <v>10065</v>
       </c>
-      <c r="B39" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="C39" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="D39" s="0" t="s">
+      <c r="B39" t="s">
+        <v>9</v>
+      </c>
+      <c r="C39" t="s">
+        <v>10</v>
+      </c>
+      <c r="D39" t="s">
         <v>11</v>
       </c>
       <c r="E39" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F39" s="0" t="s">
+      <c r="F39" t="s">
         <v>60</v>
       </c>
       <c r="G39" s="3" t="b">
         <v>1</v>
       </c>
-      <c r="H39" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="I39" s="0" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="40" customFormat="false" ht="55.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="0" t="n">
+      <c r="H39" t="s">
+        <v>14</v>
+      </c>
+      <c r="I39" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+      <c r="A40">
         <v>10066</v>
       </c>
-      <c r="B40" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="C40" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="D40" s="0" t="s">
+      <c r="B40" t="s">
+        <v>9</v>
+      </c>
+      <c r="C40" t="s">
+        <v>10</v>
+      </c>
+      <c r="D40" t="s">
         <v>11</v>
       </c>
       <c r="E40" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="F40" s="0" t="s">
+      <c r="F40" t="s">
         <v>60</v>
       </c>
       <c r="G40" s="3" t="b">
         <v>1</v>
       </c>
-      <c r="H40" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="I40" s="0" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="41" customFormat="false" ht="55.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="0" t="n">
+      <c r="H40" t="s">
+        <v>14</v>
+      </c>
+      <c r="I40" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+      <c r="A41">
         <v>10067</v>
       </c>
-      <c r="B41" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="C41" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="D41" s="0" t="s">
+      <c r="B41" t="s">
+        <v>9</v>
+      </c>
+      <c r="C41" t="s">
+        <v>10</v>
+      </c>
+      <c r="D41" t="s">
         <v>11</v>
       </c>
       <c r="E41" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="F41" s="0" t="s">
+      <c r="F41" t="s">
         <v>60</v>
       </c>
       <c r="G41" s="3" t="b">
         <v>1</v>
       </c>
-      <c r="H41" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="I41" s="0" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="42" customFormat="false" ht="55.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="0" t="n">
+      <c r="H41" t="s">
+        <v>14</v>
+      </c>
+      <c r="I41" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+      <c r="A42">
         <v>10068</v>
       </c>
-      <c r="B42" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="C42" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="D42" s="0" t="s">
+      <c r="B42" t="s">
+        <v>9</v>
+      </c>
+      <c r="C42" t="s">
+        <v>10</v>
+      </c>
+      <c r="D42" t="s">
         <v>11</v>
       </c>
       <c r="E42" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="F42" s="0" t="s">
+      <c r="F42" t="s">
         <v>60</v>
       </c>
       <c r="G42" s="3" t="b">
         <v>1</v>
       </c>
-      <c r="H42" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="I42" s="0" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="43" customFormat="false" ht="55.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="0" t="n">
+      <c r="H42" t="s">
+        <v>14</v>
+      </c>
+      <c r="I42" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+      <c r="A43">
         <v>10069</v>
       </c>
-      <c r="B43" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="C43" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="D43" s="0" t="s">
+      <c r="B43" t="s">
+        <v>9</v>
+      </c>
+      <c r="C43" t="s">
+        <v>10</v>
+      </c>
+      <c r="D43" t="s">
         <v>11</v>
       </c>
       <c r="E43" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="F43" s="0" t="s">
+      <c r="F43" t="s">
         <v>60</v>
       </c>
       <c r="G43" s="3" t="b">
         <v>1</v>
       </c>
-      <c r="H43" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="I43" s="0" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="44" customFormat="false" ht="55.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="0" t="n">
+      <c r="H43" t="s">
+        <v>14</v>
+      </c>
+      <c r="I43" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+      <c r="A44">
         <v>10070</v>
       </c>
-      <c r="B44" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="C44" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="D44" s="0" t="s">
+      <c r="B44" t="s">
+        <v>9</v>
+      </c>
+      <c r="C44" t="s">
+        <v>10</v>
+      </c>
+      <c r="D44" t="s">
         <v>11</v>
       </c>
       <c r="E44" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="F44" s="0" t="s">
+      <c r="F44" t="s">
         <v>60</v>
       </c>
       <c r="G44" s="3" t="b">
         <v>1</v>
       </c>
-      <c r="H44" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="I44" s="0" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="45" customFormat="false" ht="55.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="0" t="n">
+      <c r="H44" t="s">
+        <v>14</v>
+      </c>
+      <c r="I44" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+      <c r="A45">
         <v>10071</v>
       </c>
-      <c r="B45" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="C45" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="D45" s="0" t="s">
+      <c r="B45" t="s">
+        <v>9</v>
+      </c>
+      <c r="C45" t="s">
+        <v>10</v>
+      </c>
+      <c r="D45" t="s">
         <v>11</v>
       </c>
       <c r="E45" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="F45" s="0" t="s">
+      <c r="F45" t="s">
         <v>60</v>
       </c>
       <c r="G45" s="3" t="b">
         <v>1</v>
       </c>
-      <c r="H45" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="I45" s="0" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="46" customFormat="false" ht="55.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="0" t="n">
+      <c r="H45" t="s">
+        <v>14</v>
+      </c>
+      <c r="I45" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+      <c r="A46">
         <v>10072</v>
       </c>
-      <c r="B46" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="C46" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="D46" s="0" t="s">
+      <c r="B46" t="s">
+        <v>9</v>
+      </c>
+      <c r="C46" t="s">
+        <v>10</v>
+      </c>
+      <c r="D46" t="s">
         <v>11</v>
       </c>
       <c r="E46" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="F46" s="0" t="s">
+      <c r="F46" t="s">
         <v>60</v>
       </c>
       <c r="G46" s="3" t="b">
         <v>1</v>
       </c>
-      <c r="H46" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="I46" s="0" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="47" customFormat="false" ht="55.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="0" t="n">
+      <c r="H46" t="s">
+        <v>14</v>
+      </c>
+      <c r="I46" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+      <c r="A47">
         <v>10073</v>
       </c>
-      <c r="B47" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="C47" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="D47" s="0" t="s">
+      <c r="B47" t="s">
+        <v>9</v>
+      </c>
+      <c r="C47" t="s">
+        <v>10</v>
+      </c>
+      <c r="D47" t="s">
         <v>11</v>
       </c>
       <c r="E47" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="F47" s="0" t="s">
+      <c r="F47" t="s">
         <v>60</v>
       </c>
       <c r="G47" s="3" t="b">
         <v>1</v>
       </c>
-      <c r="H47" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="I47" s="0" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="48" customFormat="false" ht="55.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="0" t="n">
+      <c r="H47" t="s">
+        <v>14</v>
+      </c>
+      <c r="I47" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+      <c r="A48">
         <v>10074</v>
       </c>
-      <c r="B48" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="C48" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="D48" s="0" t="s">
+      <c r="B48" t="s">
+        <v>9</v>
+      </c>
+      <c r="C48" t="s">
+        <v>10</v>
+      </c>
+      <c r="D48" t="s">
         <v>11</v>
       </c>
       <c r="E48" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="F48" s="0" t="s">
+      <c r="F48" t="s">
         <v>60</v>
       </c>
       <c r="G48" s="3" t="b">
         <v>1</v>
       </c>
-      <c r="H48" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="I48" s="0" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="49" customFormat="false" ht="55.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="0" t="n">
+      <c r="H48" t="s">
+        <v>14</v>
+      </c>
+      <c r="I48" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+      <c r="A49">
         <v>10075</v>
       </c>
-      <c r="B49" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="C49" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="D49" s="0" t="s">
+      <c r="B49" t="s">
+        <v>9</v>
+      </c>
+      <c r="C49" t="s">
+        <v>10</v>
+      </c>
+      <c r="D49" t="s">
         <v>11</v>
       </c>
       <c r="E49" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="F49" s="0" t="s">
+      <c r="F49" t="s">
         <v>60</v>
       </c>
       <c r="G49" s="3" t="b">
         <v>1</v>
       </c>
-      <c r="H49" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="I49" s="0" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="50" customFormat="false" ht="66.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="0" t="n">
+      <c r="H49" t="s">
+        <v>14</v>
+      </c>
+      <c r="I49" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+      <c r="A50">
         <v>10076</v>
       </c>
-      <c r="B50" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="C50" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="D50" s="0" t="s">
+      <c r="B50" t="s">
+        <v>9</v>
+      </c>
+      <c r="C50" t="s">
+        <v>10</v>
+      </c>
+      <c r="D50" t="s">
         <v>11</v>
       </c>
       <c r="E50" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="F50" s="0" t="s">
+      <c r="F50" t="s">
         <v>60</v>
       </c>
       <c r="G50" s="3" t="b">
         <v>1</v>
       </c>
-      <c r="H50" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="I50" s="0" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="51" customFormat="false" ht="55.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="0" t="n">
+      <c r="H50" t="s">
+        <v>14</v>
+      </c>
+      <c r="I50" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+      <c r="A51">
         <v>10077</v>
       </c>
-      <c r="B51" s="0" t="s">
+      <c r="B51" t="s">
         <v>29</v>
       </c>
-      <c r="C51" s="0" t="s">
+      <c r="C51" t="s">
         <v>30</v>
       </c>
-      <c r="D51" s="0" t="s">
+      <c r="D51" t="s">
         <v>11</v>
       </c>
       <c r="E51" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="F51" s="0" t="s">
+      <c r="F51" t="s">
         <v>60</v>
       </c>
       <c r="G51" s="3" t="b">
         <v>1</v>
       </c>
-      <c r="H51" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="I51" s="0" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="52" customFormat="false" ht="55.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="0" t="n">
+      <c r="H51" t="s">
+        <v>14</v>
+      </c>
+      <c r="I51" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+      <c r="A52">
         <v>10078</v>
       </c>
-      <c r="B52" s="0" t="s">
+      <c r="B52" t="s">
         <v>29</v>
       </c>
-      <c r="C52" s="0" t="s">
+      <c r="C52" t="s">
         <v>30</v>
       </c>
-      <c r="D52" s="0" t="s">
+      <c r="D52" t="s">
         <v>11</v>
       </c>
       <c r="E52" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="F52" s="0" t="s">
+      <c r="F52" t="s">
         <v>60</v>
       </c>
       <c r="G52" s="3" t="b">
         <v>1</v>
       </c>
-      <c r="H52" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="I52" s="0" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="53" customFormat="false" ht="55.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="0" t="n">
+      <c r="H52" t="s">
+        <v>14</v>
+      </c>
+      <c r="I52" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+      <c r="A53">
         <v>10079</v>
       </c>
-      <c r="B53" s="0" t="s">
+      <c r="B53" t="s">
         <v>29</v>
       </c>
-      <c r="C53" s="0" t="s">
+      <c r="C53" t="s">
         <v>30</v>
       </c>
-      <c r="D53" s="0" t="s">
+      <c r="D53" t="s">
         <v>11</v>
       </c>
       <c r="E53" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="F53" s="0" t="s">
+      <c r="F53" t="s">
         <v>60</v>
       </c>
       <c r="G53" s="3" t="b">
         <v>1</v>
       </c>
-      <c r="H53" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="I53" s="0" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="54" customFormat="false" ht="55.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="0" t="n">
+      <c r="H53" t="s">
+        <v>14</v>
+      </c>
+      <c r="I53" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+      <c r="A54">
         <v>10080</v>
       </c>
-      <c r="B54" s="0" t="s">
+      <c r="B54" t="s">
         <v>29</v>
       </c>
-      <c r="C54" s="0" t="s">
+      <c r="C54" t="s">
         <v>30</v>
       </c>
-      <c r="D54" s="0" t="s">
+      <c r="D54" t="s">
         <v>11</v>
       </c>
       <c r="E54" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="F54" s="0" t="s">
+      <c r="F54" t="s">
         <v>60</v>
       </c>
       <c r="G54" s="3" t="b">
         <v>1</v>
       </c>
-      <c r="H54" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="I54" s="0" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="55" customFormat="false" ht="66.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="0" t="n">
+      <c r="H54" t="s">
+        <v>14</v>
+      </c>
+      <c r="I54" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+      <c r="A55">
         <v>10081</v>
       </c>
-      <c r="B55" s="0" t="s">
+      <c r="B55" t="s">
         <v>29</v>
       </c>
-      <c r="C55" s="0" t="s">
+      <c r="C55" t="s">
         <v>30</v>
       </c>
-      <c r="D55" s="0" t="s">
+      <c r="D55" t="s">
         <v>11</v>
       </c>
       <c r="E55" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="F55" s="0" t="s">
+      <c r="F55" t="s">
         <v>60</v>
       </c>
       <c r="G55" s="3" t="b">
         <v>1</v>
       </c>
-      <c r="H55" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="I55" s="0" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="56" customFormat="false" ht="55.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="0" t="n">
+      <c r="H55" t="s">
+        <v>14</v>
+      </c>
+      <c r="I55" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+      <c r="A56">
         <v>10082</v>
       </c>
-      <c r="B56" s="0" t="s">
+      <c r="B56" t="s">
         <v>29</v>
       </c>
-      <c r="C56" s="0" t="s">
+      <c r="C56" t="s">
         <v>30</v>
       </c>
-      <c r="D56" s="0" t="s">
+      <c r="D56" t="s">
         <v>11</v>
       </c>
       <c r="E56" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="F56" s="0" t="s">
+      <c r="F56" t="s">
         <v>60</v>
       </c>
       <c r="G56" s="3" t="b">
         <v>1</v>
       </c>
-      <c r="H56" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="I56" s="0" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="57" customFormat="false" ht="55.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="0" t="n">
+      <c r="H56" t="s">
+        <v>14</v>
+      </c>
+      <c r="I56" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+      <c r="A57">
         <v>10083</v>
       </c>
-      <c r="B57" s="0" t="s">
+      <c r="B57" t="s">
         <v>29</v>
       </c>
-      <c r="C57" s="0" t="s">
+      <c r="C57" t="s">
         <v>30</v>
       </c>
-      <c r="D57" s="0" t="s">
+      <c r="D57" t="s">
         <v>11</v>
       </c>
       <c r="E57" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="F57" s="0" t="s">
+      <c r="F57" t="s">
         <v>60</v>
       </c>
       <c r="G57" s="3" t="b">
         <v>1</v>
       </c>
-      <c r="H57" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="I57" s="0" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="58" customFormat="false" ht="66.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="0" t="n">
+      <c r="H57" t="s">
+        <v>14</v>
+      </c>
+      <c r="I57" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+      <c r="A58">
         <v>10084</v>
       </c>
-      <c r="B58" s="0" t="s">
+      <c r="B58" t="s">
         <v>38</v>
       </c>
-      <c r="C58" s="0" t="s">
+      <c r="C58" t="s">
         <v>39</v>
       </c>
-      <c r="D58" s="0" t="s">
+      <c r="D58" t="s">
         <v>11</v>
       </c>
       <c r="E58" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="F58" s="0" t="s">
+      <c r="F58" t="s">
         <v>60</v>
       </c>
       <c r="G58" s="3" t="b">
         <v>1</v>
       </c>
-      <c r="H58" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="I58" s="0" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="59" customFormat="false" ht="66.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="0" t="n">
+      <c r="H58" t="s">
+        <v>14</v>
+      </c>
+      <c r="I58" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+      <c r="A59">
         <v>10085</v>
       </c>
-      <c r="B59" s="0" t="s">
+      <c r="B59" t="s">
         <v>38</v>
       </c>
-      <c r="C59" s="0" t="s">
+      <c r="C59" t="s">
         <v>39</v>
       </c>
-      <c r="D59" s="0" t="s">
+      <c r="D59" t="s">
         <v>11</v>
       </c>
       <c r="E59" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="F59" s="0" t="s">
+      <c r="F59" t="s">
         <v>60</v>
       </c>
       <c r="G59" s="3" t="b">
         <v>1</v>
       </c>
-      <c r="H59" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="I59" s="0" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="60" customFormat="false" ht="55.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="0" t="n">
+      <c r="H59" t="s">
+        <v>14</v>
+      </c>
+      <c r="I59" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+      <c r="A60">
         <v>10086</v>
       </c>
-      <c r="B60" s="0" t="s">
+      <c r="B60" t="s">
         <v>42</v>
       </c>
-      <c r="C60" s="0" t="s">
+      <c r="C60" t="s">
         <v>43</v>
       </c>
-      <c r="D60" s="0" t="s">
+      <c r="D60" t="s">
         <v>11</v>
       </c>
       <c r="E60" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="F60" s="0" t="s">
+      <c r="F60" t="s">
         <v>60</v>
       </c>
       <c r="G60" s="3" t="b">
         <v>1</v>
       </c>
-      <c r="H60" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="I60" s="0" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="61" customFormat="false" ht="66.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="0" t="n">
+      <c r="H60" t="s">
+        <v>14</v>
+      </c>
+      <c r="I60" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" ht="90" x14ac:dyDescent="0.25">
+      <c r="A61">
         <v>10087</v>
       </c>
-      <c r="B61" s="0" t="s">
+      <c r="B61" t="s">
         <v>42</v>
       </c>
-      <c r="C61" s="0" t="s">
+      <c r="C61" t="s">
         <v>43</v>
       </c>
-      <c r="D61" s="0" t="s">
+      <c r="D61" t="s">
         <v>11</v>
       </c>
       <c r="E61" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="F61" s="0" t="s">
+      <c r="F61" t="s">
         <v>60</v>
       </c>
       <c r="G61" s="3" t="b">
         <v>1</v>
       </c>
-      <c r="H61" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="I61" s="0" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="62" customFormat="false" ht="66.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="0" t="n">
+      <c r="H61" t="s">
+        <v>14</v>
+      </c>
+      <c r="I61" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" ht="90" x14ac:dyDescent="0.25">
+      <c r="A62">
         <v>10088</v>
       </c>
-      <c r="B62" s="0" t="s">
+      <c r="B62" t="s">
         <v>42</v>
       </c>
-      <c r="C62" s="0" t="s">
+      <c r="C62" t="s">
         <v>43</v>
       </c>
-      <c r="D62" s="0" t="s">
+      <c r="D62" t="s">
         <v>11</v>
       </c>
       <c r="E62" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="F62" s="0" t="s">
+      <c r="F62" t="s">
         <v>60</v>
       </c>
       <c r="G62" s="3" t="b">
         <v>1</v>
       </c>
-      <c r="H62" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="I62" s="0" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="63" customFormat="false" ht="55.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A63" s="0" t="n">
+      <c r="H62" t="s">
+        <v>14</v>
+      </c>
+      <c r="I62" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+      <c r="A63">
         <v>10089</v>
       </c>
-      <c r="B63" s="0" t="s">
+      <c r="B63" t="s">
         <v>47</v>
       </c>
-      <c r="C63" s="0" t="s">
+      <c r="C63" t="s">
         <v>48</v>
       </c>
-      <c r="D63" s="0" t="s">
+      <c r="D63" t="s">
         <v>11</v>
       </c>
       <c r="E63" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="F63" s="0" t="s">
+      <c r="F63" t="s">
         <v>60</v>
       </c>
       <c r="G63" s="3" t="b">
         <v>1</v>
       </c>
-      <c r="H63" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="I63" s="0" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="64" customFormat="false" ht="55.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A64" s="0" t="n">
+      <c r="H63" t="s">
+        <v>14</v>
+      </c>
+      <c r="I63" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+      <c r="A64">
         <v>10090</v>
       </c>
-      <c r="B64" s="0" t="s">
+      <c r="B64" t="s">
         <v>47</v>
       </c>
-      <c r="C64" s="0" t="s">
+      <c r="C64" t="s">
         <v>48</v>
       </c>
-      <c r="D64" s="0" t="s">
+      <c r="D64" t="s">
         <v>11</v>
       </c>
       <c r="E64" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="F64" s="0" t="s">
+      <c r="F64" t="s">
         <v>60</v>
       </c>
       <c r="G64" s="3" t="b">
         <v>1</v>
       </c>
-      <c r="H64" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="I64" s="0" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="65" customFormat="false" ht="55.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A65" s="0" t="n">
+      <c r="H64" t="s">
+        <v>14</v>
+      </c>
+      <c r="I64" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+      <c r="A65">
         <v>10091</v>
       </c>
-      <c r="B65" s="0" t="s">
+      <c r="B65" t="s">
         <v>47</v>
       </c>
-      <c r="C65" s="0" t="s">
+      <c r="C65" t="s">
         <v>48</v>
       </c>
-      <c r="D65" s="0" t="s">
+      <c r="D65" t="s">
         <v>11</v>
       </c>
       <c r="E65" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="F65" s="0" t="s">
+      <c r="F65" t="s">
         <v>60</v>
       </c>
       <c r="G65" s="3" t="b">
         <v>1</v>
       </c>
-      <c r="H65" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="I65" s="0" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="66" customFormat="false" ht="55.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A66" s="0" t="n">
+      <c r="H65" t="s">
+        <v>14</v>
+      </c>
+      <c r="I65" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+      <c r="A66">
         <v>10092</v>
       </c>
-      <c r="B66" s="0" t="s">
+      <c r="B66" t="s">
         <v>52</v>
       </c>
-      <c r="C66" s="0" t="s">
+      <c r="C66" t="s">
         <v>52</v>
       </c>
-      <c r="D66" s="0" t="s">
+      <c r="D66" t="s">
         <v>11</v>
       </c>
       <c r="E66" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="F66" s="0" t="s">
+      <c r="F66" t="s">
         <v>60</v>
       </c>
       <c r="G66" s="3" t="b">
         <v>1</v>
       </c>
-      <c r="H66" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="I66" s="0" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="67" customFormat="false" ht="55.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A67" s="0" t="n">
+      <c r="H66" t="s">
+        <v>14</v>
+      </c>
+      <c r="I66" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+      <c r="A67">
         <v>10093</v>
       </c>
-      <c r="B67" s="0" t="s">
+      <c r="B67" t="s">
         <v>52</v>
       </c>
-      <c r="C67" s="0" t="s">
+      <c r="C67" t="s">
         <v>52</v>
       </c>
-      <c r="D67" s="0" t="s">
+      <c r="D67" t="s">
         <v>11</v>
       </c>
       <c r="E67" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="F67" s="0" t="s">
+      <c r="F67" t="s">
         <v>60</v>
       </c>
       <c r="G67" s="3" t="b">
         <v>1</v>
       </c>
-      <c r="H67" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="I67" s="0" t="s">
+      <c r="H67" t="s">
+        <v>14</v>
+      </c>
+      <c r="I67" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+      <c r="A68">
+        <v>10094</v>
+      </c>
+      <c r="B68" t="s">
+        <v>9</v>
+      </c>
+      <c r="C68" t="s">
+        <v>10</v>
+      </c>
+      <c r="D68" t="s">
+        <v>11</v>
+      </c>
+      <c r="E68" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F68" t="s">
+        <v>101</v>
+      </c>
+      <c r="G68" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="H68" t="s">
+        <v>14</v>
+      </c>
+      <c r="I68" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+      <c r="A69">
+        <v>10095</v>
+      </c>
+      <c r="B69" t="s">
+        <v>9</v>
+      </c>
+      <c r="C69" t="s">
+        <v>10</v>
+      </c>
+      <c r="D69" t="s">
+        <v>11</v>
+      </c>
+      <c r="E69" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F69" t="s">
+        <v>101</v>
+      </c>
+      <c r="G69" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="H69" t="s">
+        <v>14</v>
+      </c>
+      <c r="I69" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+      <c r="A70">
+        <v>10096</v>
+      </c>
+      <c r="B70" t="s">
+        <v>9</v>
+      </c>
+      <c r="C70" t="s">
+        <v>10</v>
+      </c>
+      <c r="D70" t="s">
+        <v>11</v>
+      </c>
+      <c r="E70" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F70" t="s">
+        <v>101</v>
+      </c>
+      <c r="G70" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="H70" t="s">
+        <v>14</v>
+      </c>
+      <c r="I70" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+      <c r="A71">
+        <v>10097</v>
+      </c>
+      <c r="B71" t="s">
+        <v>9</v>
+      </c>
+      <c r="C71" t="s">
+        <v>10</v>
+      </c>
+      <c r="D71" t="s">
+        <v>11</v>
+      </c>
+      <c r="E71" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F71" t="s">
+        <v>101</v>
+      </c>
+      <c r="G71" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="H71" t="s">
+        <v>14</v>
+      </c>
+      <c r="I71" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+      <c r="A72">
+        <v>10098</v>
+      </c>
+      <c r="B72" t="s">
+        <v>9</v>
+      </c>
+      <c r="C72" t="s">
+        <v>10</v>
+      </c>
+      <c r="D72" t="s">
+        <v>11</v>
+      </c>
+      <c r="E72" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F72" t="s">
+        <v>101</v>
+      </c>
+      <c r="G72" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="H72" t="s">
+        <v>14</v>
+      </c>
+      <c r="I72" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+      <c r="A73">
+        <v>10099</v>
+      </c>
+      <c r="B73" t="s">
+        <v>9</v>
+      </c>
+      <c r="C73" t="s">
+        <v>10</v>
+      </c>
+      <c r="D73" t="s">
+        <v>11</v>
+      </c>
+      <c r="E73" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F73" t="s">
+        <v>101</v>
+      </c>
+      <c r="G73" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="H73" t="s">
+        <v>14</v>
+      </c>
+      <c r="I73" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+      <c r="A74">
+        <v>10100</v>
+      </c>
+      <c r="B74" t="s">
+        <v>9</v>
+      </c>
+      <c r="C74" t="s">
+        <v>10</v>
+      </c>
+      <c r="D74" t="s">
+        <v>11</v>
+      </c>
+      <c r="E74" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F74" t="s">
+        <v>101</v>
+      </c>
+      <c r="G74" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="H74" t="s">
+        <v>14</v>
+      </c>
+      <c r="I74" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+      <c r="A75">
+        <v>10101</v>
+      </c>
+      <c r="B75" t="s">
+        <v>9</v>
+      </c>
+      <c r="C75" t="s">
+        <v>10</v>
+      </c>
+      <c r="D75" t="s">
+        <v>11</v>
+      </c>
+      <c r="E75" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F75" t="s">
+        <v>101</v>
+      </c>
+      <c r="G75" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="H75" t="s">
+        <v>14</v>
+      </c>
+      <c r="I75" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+      <c r="A76">
+        <v>10102</v>
+      </c>
+      <c r="B76" t="s">
+        <v>9</v>
+      </c>
+      <c r="C76" t="s">
+        <v>10</v>
+      </c>
+      <c r="D76" t="s">
+        <v>11</v>
+      </c>
+      <c r="E76" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F76" t="s">
+        <v>101</v>
+      </c>
+      <c r="G76" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="H76" t="s">
+        <v>14</v>
+      </c>
+      <c r="I76" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+      <c r="A77">
+        <v>10103</v>
+      </c>
+      <c r="B77" t="s">
+        <v>9</v>
+      </c>
+      <c r="C77" t="s">
+        <v>10</v>
+      </c>
+      <c r="D77" t="s">
+        <v>11</v>
+      </c>
+      <c r="E77" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F77" t="s">
+        <v>101</v>
+      </c>
+      <c r="G77" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="H77" t="s">
+        <v>14</v>
+      </c>
+      <c r="I77" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+      <c r="A78">
+        <v>10104</v>
+      </c>
+      <c r="B78" t="s">
+        <v>9</v>
+      </c>
+      <c r="C78" t="s">
+        <v>10</v>
+      </c>
+      <c r="D78" t="s">
+        <v>11</v>
+      </c>
+      <c r="E78" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F78" t="s">
+        <v>101</v>
+      </c>
+      <c r="G78" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="H78" t="s">
+        <v>14</v>
+      </c>
+      <c r="I78" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+      <c r="A79">
+        <v>10105</v>
+      </c>
+      <c r="B79" t="s">
+        <v>9</v>
+      </c>
+      <c r="C79" t="s">
+        <v>10</v>
+      </c>
+      <c r="D79" t="s">
+        <v>11</v>
+      </c>
+      <c r="E79" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F79" t="s">
+        <v>101</v>
+      </c>
+      <c r="G79" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="H79" t="s">
+        <v>14</v>
+      </c>
+      <c r="I79" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+      <c r="A80">
+        <v>10106</v>
+      </c>
+      <c r="B80" t="s">
+        <v>9</v>
+      </c>
+      <c r="C80" t="s">
+        <v>10</v>
+      </c>
+      <c r="D80" t="s">
+        <v>11</v>
+      </c>
+      <c r="E80" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="F80" t="s">
+        <v>101</v>
+      </c>
+      <c r="G80" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="H80" t="s">
+        <v>14</v>
+      </c>
+      <c r="I80" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+      <c r="A81">
+        <v>10107</v>
+      </c>
+      <c r="B81" t="s">
+        <v>9</v>
+      </c>
+      <c r="C81" t="s">
+        <v>10</v>
+      </c>
+      <c r="D81" t="s">
+        <v>11</v>
+      </c>
+      <c r="E81" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="F81" t="s">
+        <v>101</v>
+      </c>
+      <c r="G81" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="H81" t="s">
+        <v>14</v>
+      </c>
+      <c r="I81" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+      <c r="A82">
+        <v>10108</v>
+      </c>
+      <c r="B82" t="s">
+        <v>29</v>
+      </c>
+      <c r="C82" t="s">
+        <v>30</v>
+      </c>
+      <c r="D82" t="s">
+        <v>11</v>
+      </c>
+      <c r="E82" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="F82" t="s">
+        <v>101</v>
+      </c>
+      <c r="G82" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="H82" t="s">
+        <v>14</v>
+      </c>
+      <c r="I82" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+      <c r="A83">
+        <v>10109</v>
+      </c>
+      <c r="B83" t="s">
+        <v>29</v>
+      </c>
+      <c r="C83" t="s">
+        <v>30</v>
+      </c>
+      <c r="D83" t="s">
+        <v>11</v>
+      </c>
+      <c r="E83" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="F83" t="s">
+        <v>101</v>
+      </c>
+      <c r="G83" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="H83" t="s">
+        <v>14</v>
+      </c>
+      <c r="I83" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+      <c r="A84">
+        <v>10110</v>
+      </c>
+      <c r="B84" t="s">
+        <v>29</v>
+      </c>
+      <c r="C84" t="s">
+        <v>30</v>
+      </c>
+      <c r="D84" t="s">
+        <v>11</v>
+      </c>
+      <c r="E84" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="F84" t="s">
+        <v>101</v>
+      </c>
+      <c r="G84" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="H84" t="s">
+        <v>14</v>
+      </c>
+      <c r="I84" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+      <c r="A85">
+        <v>10111</v>
+      </c>
+      <c r="B85" t="s">
+        <v>29</v>
+      </c>
+      <c r="C85" t="s">
+        <v>30</v>
+      </c>
+      <c r="D85" t="s">
+        <v>11</v>
+      </c>
+      <c r="E85" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="F85" t="s">
+        <v>101</v>
+      </c>
+      <c r="G85" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="H85" t="s">
+        <v>14</v>
+      </c>
+      <c r="I85" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+      <c r="A86">
+        <v>10112</v>
+      </c>
+      <c r="B86" t="s">
+        <v>29</v>
+      </c>
+      <c r="C86" t="s">
+        <v>30</v>
+      </c>
+      <c r="D86" t="s">
+        <v>11</v>
+      </c>
+      <c r="E86" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="F86" t="s">
+        <v>101</v>
+      </c>
+      <c r="G86" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="H86" t="s">
+        <v>14</v>
+      </c>
+      <c r="I86" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+      <c r="A87">
+        <v>10113</v>
+      </c>
+      <c r="B87" t="s">
+        <v>29</v>
+      </c>
+      <c r="C87" t="s">
+        <v>30</v>
+      </c>
+      <c r="D87" t="s">
+        <v>11</v>
+      </c>
+      <c r="E87" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="F87" t="s">
+        <v>101</v>
+      </c>
+      <c r="G87" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="H87" t="s">
+        <v>14</v>
+      </c>
+      <c r="I87" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+      <c r="A88">
+        <v>10114</v>
+      </c>
+      <c r="B88" t="s">
+        <v>29</v>
+      </c>
+      <c r="C88" t="s">
+        <v>30</v>
+      </c>
+      <c r="D88" t="s">
+        <v>11</v>
+      </c>
+      <c r="E88" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="F88" t="s">
+        <v>101</v>
+      </c>
+      <c r="G88" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="H88" t="s">
+        <v>14</v>
+      </c>
+      <c r="I88" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+      <c r="A89">
+        <v>10115</v>
+      </c>
+      <c r="B89" t="s">
+        <v>38</v>
+      </c>
+      <c r="C89" t="s">
+        <v>39</v>
+      </c>
+      <c r="D89" t="s">
+        <v>11</v>
+      </c>
+      <c r="E89" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="F89" t="s">
+        <v>101</v>
+      </c>
+      <c r="G89" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="H89" t="s">
+        <v>14</v>
+      </c>
+      <c r="I89" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+      <c r="A90">
+        <v>10116</v>
+      </c>
+      <c r="B90" t="s">
+        <v>38</v>
+      </c>
+      <c r="C90" t="s">
+        <v>39</v>
+      </c>
+      <c r="D90" t="s">
+        <v>11</v>
+      </c>
+      <c r="E90" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="F90" t="s">
+        <v>101</v>
+      </c>
+      <c r="G90" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="H90" t="s">
+        <v>14</v>
+      </c>
+      <c r="I90" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+      <c r="A91">
+        <v>10117</v>
+      </c>
+      <c r="B91" t="s">
+        <v>42</v>
+      </c>
+      <c r="C91" t="s">
+        <v>43</v>
+      </c>
+      <c r="D91" t="s">
+        <v>11</v>
+      </c>
+      <c r="E91" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="F91" t="s">
+        <v>101</v>
+      </c>
+      <c r="G91" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="H91" t="s">
+        <v>14</v>
+      </c>
+      <c r="I91" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+      <c r="A92">
+        <v>10118</v>
+      </c>
+      <c r="B92" t="s">
+        <v>42</v>
+      </c>
+      <c r="C92" t="s">
+        <v>43</v>
+      </c>
+      <c r="D92" t="s">
+        <v>11</v>
+      </c>
+      <c r="E92" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="F92" t="s">
+        <v>101</v>
+      </c>
+      <c r="G92" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="H92" t="s">
+        <v>14</v>
+      </c>
+      <c r="I92" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+      <c r="A93">
+        <v>10119</v>
+      </c>
+      <c r="B93" t="s">
+        <v>42</v>
+      </c>
+      <c r="C93" t="s">
+        <v>43</v>
+      </c>
+      <c r="D93" t="s">
+        <v>11</v>
+      </c>
+      <c r="E93" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="F93" t="s">
+        <v>101</v>
+      </c>
+      <c r="G93" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="H93" t="s">
+        <v>14</v>
+      </c>
+      <c r="I93" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+      <c r="A94">
+        <v>10120</v>
+      </c>
+      <c r="B94" t="s">
+        <v>47</v>
+      </c>
+      <c r="C94" t="s">
+        <v>48</v>
+      </c>
+      <c r="D94" t="s">
+        <v>11</v>
+      </c>
+      <c r="E94" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="F94" t="s">
+        <v>101</v>
+      </c>
+      <c r="G94" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="H94" t="s">
+        <v>14</v>
+      </c>
+      <c r="I94" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+      <c r="A95">
+        <v>10121</v>
+      </c>
+      <c r="B95" t="s">
+        <v>47</v>
+      </c>
+      <c r="C95" t="s">
+        <v>48</v>
+      </c>
+      <c r="D95" t="s">
+        <v>11</v>
+      </c>
+      <c r="E95" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="F95" t="s">
+        <v>101</v>
+      </c>
+      <c r="G95" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="H95" t="s">
+        <v>14</v>
+      </c>
+      <c r="I95" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+      <c r="A96">
+        <v>10122</v>
+      </c>
+      <c r="B96" t="s">
+        <v>47</v>
+      </c>
+      <c r="C96" t="s">
+        <v>48</v>
+      </c>
+      <c r="D96" t="s">
+        <v>11</v>
+      </c>
+      <c r="E96" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="F96" t="s">
+        <v>101</v>
+      </c>
+      <c r="G96" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="H96" t="s">
+        <v>14</v>
+      </c>
+      <c r="I96" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+      <c r="A97">
+        <v>10123</v>
+      </c>
+      <c r="B97" t="s">
+        <v>52</v>
+      </c>
+      <c r="C97" t="s">
+        <v>52</v>
+      </c>
+      <c r="D97" t="s">
+        <v>11</v>
+      </c>
+      <c r="E97" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="F97" t="s">
+        <v>101</v>
+      </c>
+      <c r="G97" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="H97" t="s">
+        <v>14</v>
+      </c>
+      <c r="I97" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+      <c r="A98">
+        <v>10124</v>
+      </c>
+      <c r="B98" t="s">
+        <v>52</v>
+      </c>
+      <c r="C98" t="s">
+        <v>52</v>
+      </c>
+      <c r="D98" t="s">
+        <v>11</v>
+      </c>
+      <c r="E98" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="F98" t="s">
+        <v>101</v>
+      </c>
+      <c r="G98" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="H98" t="s">
+        <v>14</v>
+      </c>
+      <c r="I98" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A99">
+        <v>10125</v>
+      </c>
+      <c r="B99" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C99" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="D99" t="s">
+        <v>11</v>
+      </c>
+      <c r="E99" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="F99" t="s">
+        <v>101</v>
+      </c>
+      <c r="G99" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="H99" t="s">
+        <v>14</v>
+      </c>
+      <c r="I99" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A100">
+        <v>10126</v>
+      </c>
+      <c r="B100" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C100" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="D100" t="s">
+        <v>11</v>
+      </c>
+      <c r="E100" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="F100" t="s">
+        <v>101</v>
+      </c>
+      <c r="G100" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="H100" t="s">
+        <v>14</v>
+      </c>
+      <c r="I100" t="s">
         <v>15</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:I67"/>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
--- a/mosip_master/xlsx/dynamic_field.xlsx
+++ b/mosip_master/xlsx/dynamic_field.xlsx
@@ -15,7 +15,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$I$67</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$I$103</definedName>
   </definedNames>
   <calcPr calcId="0" iterateDelta="1E-4"/>
   <extLst>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="702" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="720" uniqueCount="102">
   <si>
     <t>id</t>
   </si>
@@ -605,10 +605,10 @@
 	}</t>
   </si>
   <si>
-    <t>{"value":"arabic","code":"ara"}</t>
-  </si>
-  <si>
     <t>ara</t>
+  </si>
+  <si>
+    <t>{"value":"عربي","code":"ara"}</t>
   </si>
 </sst>
 </file>
@@ -957,10 +957,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I100"/>
+  <dimension ref="A1:I103"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A104" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F67" sqref="F67"/>
+    <sheetView tabSelected="1" topLeftCell="A97" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F101" sqref="F101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1611,7 +1611,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="23" spans="1:9" ht="105" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>10022</v>
       </c>
@@ -1727,7 +1727,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="27" spans="1:9" ht="90" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>10026</v>
       </c>
@@ -2742,7 +2742,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="62" spans="1:9" ht="90" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>10088</v>
       </c>
@@ -2933,7 +2933,7 @@
         <v>12</v>
       </c>
       <c r="F68" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="G68" s="3" t="b">
         <v>1</v>
@@ -2962,7 +2962,7 @@
         <v>16</v>
       </c>
       <c r="F69" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="G69" s="3" t="b">
         <v>1</v>
@@ -2991,7 +2991,7 @@
         <v>17</v>
       </c>
       <c r="F70" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="G70" s="3" t="b">
         <v>1</v>
@@ -3020,7 +3020,7 @@
         <v>18</v>
       </c>
       <c r="F71" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="G71" s="3" t="b">
         <v>1</v>
@@ -3049,7 +3049,7 @@
         <v>19</v>
       </c>
       <c r="F72" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="G72" s="3" t="b">
         <v>1</v>
@@ -3078,7 +3078,7 @@
         <v>20</v>
       </c>
       <c r="F73" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="G73" s="3" t="b">
         <v>1</v>
@@ -3107,7 +3107,7 @@
         <v>21</v>
       </c>
       <c r="F74" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="G74" s="3" t="b">
         <v>1</v>
@@ -3136,7 +3136,7 @@
         <v>22</v>
       </c>
       <c r="F75" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="G75" s="3" t="b">
         <v>1</v>
@@ -3165,7 +3165,7 @@
         <v>23</v>
       </c>
       <c r="F76" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="G76" s="3" t="b">
         <v>1</v>
@@ -3194,7 +3194,7 @@
         <v>24</v>
       </c>
       <c r="F77" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="G77" s="3" t="b">
         <v>1</v>
@@ -3223,7 +3223,7 @@
         <v>25</v>
       </c>
       <c r="F78" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="G78" s="3" t="b">
         <v>1</v>
@@ -3252,7 +3252,7 @@
         <v>26</v>
       </c>
       <c r="F79" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="G79" s="3" t="b">
         <v>1</v>
@@ -3281,7 +3281,7 @@
         <v>81</v>
       </c>
       <c r="F80" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="G80" s="3" t="b">
         <v>1</v>
@@ -3310,7 +3310,7 @@
         <v>82</v>
       </c>
       <c r="F81" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="G81" s="3" t="b">
         <v>1</v>
@@ -3339,7 +3339,7 @@
         <v>83</v>
       </c>
       <c r="F82" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="G82" s="3" t="b">
         <v>1</v>
@@ -3368,7 +3368,7 @@
         <v>84</v>
       </c>
       <c r="F83" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="G83" s="3" t="b">
         <v>1</v>
@@ -3397,7 +3397,7 @@
         <v>85</v>
       </c>
       <c r="F84" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="G84" s="3" t="b">
         <v>1</v>
@@ -3426,7 +3426,7 @@
         <v>86</v>
       </c>
       <c r="F85" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="G85" s="3" t="b">
         <v>1</v>
@@ -3455,7 +3455,7 @@
         <v>87</v>
       </c>
       <c r="F86" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="G86" s="3" t="b">
         <v>1</v>
@@ -3484,7 +3484,7 @@
         <v>88</v>
       </c>
       <c r="F87" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="G87" s="3" t="b">
         <v>1</v>
@@ -3513,7 +3513,7 @@
         <v>89</v>
       </c>
       <c r="F88" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="G88" s="3" t="b">
         <v>1</v>
@@ -3542,7 +3542,7 @@
         <v>90</v>
       </c>
       <c r="F89" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="G89" s="3" t="b">
         <v>1</v>
@@ -3571,7 +3571,7 @@
         <v>91</v>
       </c>
       <c r="F90" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="G90" s="3" t="b">
         <v>1</v>
@@ -3600,7 +3600,7 @@
         <v>92</v>
       </c>
       <c r="F91" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="G91" s="3" t="b">
         <v>1</v>
@@ -3629,7 +3629,7 @@
         <v>93</v>
       </c>
       <c r="F92" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="G92" s="3" t="b">
         <v>1</v>
@@ -3658,7 +3658,7 @@
         <v>94</v>
       </c>
       <c r="F93" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="G93" s="3" t="b">
         <v>1</v>
@@ -3687,7 +3687,7 @@
         <v>95</v>
       </c>
       <c r="F94" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="G94" s="3" t="b">
         <v>1</v>
@@ -3716,7 +3716,7 @@
         <v>96</v>
       </c>
       <c r="F95" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="G95" s="3" t="b">
         <v>1</v>
@@ -3745,7 +3745,7 @@
         <v>97</v>
       </c>
       <c r="F96" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="G96" s="3" t="b">
         <v>1</v>
@@ -3774,7 +3774,7 @@
         <v>98</v>
       </c>
       <c r="F97" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="G97" s="3" t="b">
         <v>1</v>
@@ -3803,7 +3803,7 @@
         <v>99</v>
       </c>
       <c r="F98" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="G98" s="3" t="b">
         <v>1</v>
@@ -3832,7 +3832,7 @@
         <v>57</v>
       </c>
       <c r="F99" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="G99" s="3" t="b">
         <v>1</v>
@@ -3858,23 +3858,101 @@
         <v>11</v>
       </c>
       <c r="E100" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="F100" t="s">
         <v>100</v>
       </c>
-      <c r="F100" t="s">
+      <c r="G100" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="H100" t="s">
+        <v>14</v>
+      </c>
+      <c r="I100" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A101">
+        <v>10127</v>
+      </c>
+      <c r="B101" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C101" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="E101" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="G100" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="H100" t="s">
-        <v>14</v>
-      </c>
-      <c r="I100" t="s">
+      <c r="F101" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G101" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="H101" t="s">
+        <v>14</v>
+      </c>
+      <c r="I101" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A102">
+        <v>10128</v>
+      </c>
+      <c r="B102" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C102" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="E102" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="F102" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="G102" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="H102" t="s">
+        <v>14</v>
+      </c>
+      <c r="I102" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A103">
+        <v>10129</v>
+      </c>
+      <c r="B103" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C103" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="E103" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="F103" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="G103" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="H103" t="s">
+        <v>14</v>
+      </c>
+      <c r="I103" t="s">
         <v>15</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:I67"/>
+  <autoFilter ref="A1:I103"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>

--- a/mosip_master/xlsx/dynamic_field.xlsx
+++ b/mosip_master/xlsx/dynamic_field.xlsx
@@ -1,20 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kames\IdeaProjects\mosip-data\mosip_master\xlsx\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{699A50B2-0AA9-429B-BD65-38D53DE3E703}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Sheet1!$A$1:$I$205</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0" vbProcedure="false">Sheet1!$A$1:$I$103</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$I$205</definedName>
+    <definedName name="_FilterDatabase_0" localSheetId="0">Sheet1!$A$1:$I$103</definedName>
   </definedNames>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <calcPr calcId="0" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
@@ -24,42 +29,42 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1634" uniqueCount="243">
-  <si>
-    <t xml:space="preserve">id</t>
-  </si>
-  <si>
-    <t xml:space="preserve">name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">description</t>
-  </si>
-  <si>
-    <t xml:space="preserve">data_type</t>
-  </si>
-  <si>
-    <t xml:space="preserve">value_json</t>
-  </si>
-  <si>
-    <t xml:space="preserve">lang_code</t>
-  </si>
-  <si>
-    <t xml:space="preserve">is_active</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cr_by</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cr_dtimes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bloodType</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Blood Type</t>
-  </si>
-  <si>
-    <t xml:space="preserve">string</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1689" uniqueCount="250">
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>description</t>
+  </si>
+  <si>
+    <t>data_type</t>
+  </si>
+  <si>
+    <t>value_json</t>
+  </si>
+  <si>
+    <t>lang_code</t>
+  </si>
+  <si>
+    <t>is_active</t>
+  </si>
+  <si>
+    <t>cr_by</t>
+  </si>
+  <si>
+    <t>cr_dtimes</t>
+  </si>
+  <si>
+    <t>bloodType</t>
+  </si>
+  <si>
+    <t>Blood Type</t>
+  </si>
+  <si>
+    <t>string</t>
   </si>
   <si>
     <t xml:space="preserve">
@@ -69,16 +74,16 @@
 	}</t>
   </si>
   <si>
-    <t xml:space="preserve">eng</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TRUE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">superadmin</t>
-  </si>
-  <si>
-    <t xml:space="preserve">now()</t>
+    <t>eng</t>
+  </si>
+  <si>
+    <t>TRUE</t>
+  </si>
+  <si>
+    <t>superadmin</t>
+  </si>
+  <si>
+    <t>now()</t>
   </si>
   <si>
     <t xml:space="preserve">
@@ -172,10 +177,10 @@
 	}</t>
   </si>
   <si>
-    <t xml:space="preserve">maritalStatus</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Marital Status</t>
+    <t>maritalStatus</t>
+  </si>
+  <si>
+    <t>Marital Status</t>
   </si>
   <si>
     <t xml:space="preserve">
@@ -227,10 +232,10 @@
 	}</t>
   </si>
   <si>
-    <t xml:space="preserve">registrationType</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Registration Type</t>
+    <t>registrationType</t>
+  </si>
+  <si>
+    <t>Registration Type</t>
   </si>
   <si>
     <t xml:space="preserve">
@@ -247,10 +252,10 @@
 	}</t>
   </si>
   <si>
-    <t xml:space="preserve">modeOfClaim</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mode of Claim</t>
+    <t>modeOfClaim</t>
+  </si>
+  <si>
+    <t>Mode of Claim</t>
   </si>
   <si>
     <t xml:space="preserve">
@@ -274,10 +279,10 @@
 	}</t>
   </si>
   <si>
-    <t xml:space="preserve">gender</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gender</t>
+    <t>gender</t>
+  </si>
+  <si>
+    <t>Gender</t>
   </si>
   <si>
     <t xml:space="preserve">
@@ -301,7 +306,7 @@
 	}</t>
   </si>
   <si>
-    <t xml:space="preserve">residenceStatus</t>
+    <t>residenceStatus</t>
   </si>
   <si>
     <t xml:space="preserve">
@@ -318,25 +323,25 @@
 	}</t>
   </si>
   <si>
-    <t xml:space="preserve">preferredLang</t>
-  </si>
-  <si>
-    <t xml:space="preserve">user preferred Language</t>
-  </si>
-  <si>
-    <t xml:space="preserve">{"value":"English","code":"eng"}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">{"value":"français","code":"fra"}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Langue préférée de l'utilisateur</t>
-  </si>
-  <si>
-    <t xml:space="preserve">fra</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Groupe sanguin</t>
+    <t>preferredLang</t>
+  </si>
+  <si>
+    <t>user preferred Language</t>
+  </si>
+  <si>
+    <t>{"value":"English","code":"eng"}</t>
+  </si>
+  <si>
+    <t>{"value":"français","code":"fra"}</t>
+  </si>
+  <si>
+    <t>Langue préférée de l'utilisateur</t>
+  </si>
+  <si>
+    <t>fra</t>
+  </si>
+  <si>
+    <t>Groupe sanguin</t>
   </si>
   <si>
     <t xml:space="preserve">
@@ -353,7 +358,7 @@
 	}</t>
   </si>
   <si>
-    <t xml:space="preserve">État civil</t>
+    <t>État civil</t>
   </si>
   <si>
     <t xml:space="preserve">
@@ -405,7 +410,7 @@
 	}</t>
   </si>
   <si>
-    <t xml:space="preserve">Type d'inscription</t>
+    <t>Type d'inscription</t>
   </si>
   <si>
     <t xml:space="preserve">
@@ -422,7 +427,7 @@
 	}</t>
   </si>
   <si>
-    <t xml:space="preserve">Mode de réclamation</t>
+    <t>Mode de réclamation</t>
   </si>
   <si>
     <t xml:space="preserve">
@@ -446,7 +451,7 @@
 	}</t>
   </si>
   <si>
-    <t xml:space="preserve">Le sexe</t>
+    <t>Le sexe</t>
   </si>
   <si>
     <t xml:space="preserve">
@@ -470,7 +475,7 @@
 	}</t>
   </si>
   <si>
-    <t xml:space="preserve">Statut de résidence</t>
+    <t>Statut de résidence</t>
   </si>
   <si>
     <t xml:space="preserve">
@@ -487,7 +492,7 @@
 	}</t>
   </si>
   <si>
-    <t xml:space="preserve">فصيلة الد</t>
+    <t>فصيلة الد</t>
   </si>
   <si>
     <t xml:space="preserve">
@@ -497,7 +502,7 @@
 	}</t>
   </si>
   <si>
-    <t xml:space="preserve">ara</t>
+    <t>ara</t>
   </si>
   <si>
     <t xml:space="preserve">
@@ -563,7 +568,7 @@
 	}</t>
   </si>
   <si>
-    <t xml:space="preserve">الحالة الحالة الإجتماعي</t>
+    <t>الحالة الحالة الإجتماعي</t>
   </si>
   <si>
     <t xml:space="preserve">
@@ -617,7 +622,7 @@
 	}</t>
   </si>
   <si>
-    <t xml:space="preserve">نوع التسجي</t>
+    <t>نوع التسجي</t>
   </si>
   <si>
     <t xml:space="preserve">
@@ -634,7 +639,7 @@
 	}</t>
   </si>
   <si>
-    <t xml:space="preserve">طريقة المطالبة</t>
+    <t>طريقة المطالبة</t>
   </si>
   <si>
     <t xml:space="preserve">
@@ -658,7 +663,7 @@
 	}</t>
   </si>
   <si>
-    <t xml:space="preserve">جنس</t>
+    <t>جنس</t>
   </si>
   <si>
     <t xml:space="preserve">
@@ -682,7 +687,7 @@
 	}</t>
   </si>
   <si>
-    <t xml:space="preserve">حالة الإقامة</t>
+    <t>حالة الإقامة</t>
   </si>
   <si>
     <t xml:space="preserve">
@@ -699,16 +704,16 @@
 	}</t>
   </si>
   <si>
-    <t xml:space="preserve">يفضل المستخدم اللغة</t>
-  </si>
-  <si>
-    <t xml:space="preserve">{"value":"عربى","code":"ara"}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">{"value":"عربي","code":"ara"}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ರಕ್ತದ ವಿಧ</t>
+    <t>يفضل المستخدم اللغة</t>
+  </si>
+  <si>
+    <t>{"value":"عربى","code":"ara"}</t>
+  </si>
+  <si>
+    <t>{"value":"عربي","code":"ara"}</t>
+  </si>
+  <si>
+    <t>ರಕ್ತದ ವಿಧ</t>
   </si>
   <si>
     <t xml:space="preserve">
@@ -718,7 +723,7 @@
 	}</t>
   </si>
   <si>
-    <t xml:space="preserve">kan</t>
+    <t>kan</t>
   </si>
   <si>
     <t xml:space="preserve">
@@ -812,7 +817,7 @@
 	}</t>
   </si>
   <si>
-    <t xml:space="preserve">ವೈವಾಹಿಕ ಸ್ಥಿತಿ</t>
+    <t>ವೈವಾಹಿಕ ಸ್ಥಿತಿ</t>
   </si>
   <si>
     <t xml:space="preserve">
@@ -865,7 +870,7 @@
 	}</t>
   </si>
   <si>
-    <t xml:space="preserve">ನೋಂದಣಿ ಪ್ರಕಾರ</t>
+    <t>ನೋಂದಣಿ ಪ್ರಕಾರ</t>
   </si>
   <si>
     <t xml:space="preserve">
@@ -882,7 +887,7 @@
 	}</t>
   </si>
   <si>
-    <t xml:space="preserve">ಕ್ಲೈಮ್ ಮೋಡ್</t>
+    <t>ಕ್ಲೈಮ್ ಮೋಡ್</t>
   </si>
   <si>
     <t xml:space="preserve">
@@ -906,7 +911,7 @@
 	}</t>
   </si>
   <si>
-    <t xml:space="preserve">ಲಿಂಗ</t>
+    <t>ಲಿಂಗ</t>
   </si>
   <si>
     <t xml:space="preserve">
@@ -930,7 +935,7 @@
 	}</t>
   </si>
   <si>
-    <t xml:space="preserve">ನಿವಾಸ ಸ್ಥಿತಿ</t>
+    <t>ನಿವಾಸ ಸ್ಥಿತಿ</t>
   </si>
   <si>
     <t xml:space="preserve">
@@ -947,13 +952,13 @@
 	}</t>
   </si>
   <si>
-    <t xml:space="preserve">ಬಳಕೆದಾರ ಆದ್ಯತೆಯ ಭಾಷೆ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">{"value":" francais","code":"fra"}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">रक्त प्रकार</t>
+    <t>ಬಳಕೆದಾರ ಆದ್ಯತೆಯ ಭಾಷೆ</t>
+  </si>
+  <si>
+    <t>{"value":" francais","code":"fra"}</t>
+  </si>
+  <si>
+    <t>रक्त प्रकार</t>
   </si>
   <si>
     <t xml:space="preserve">
@@ -963,7 +968,7 @@
 	}</t>
   </si>
   <si>
-    <t xml:space="preserve">hin</t>
+    <t>hin</t>
   </si>
   <si>
     <t xml:space="preserve">
@@ -1057,7 +1062,7 @@
 	}</t>
   </si>
   <si>
-    <t xml:space="preserve">वैवाहिक स्थिति</t>
+    <t>वैवाहिक स्थिति</t>
   </si>
   <si>
     <t xml:space="preserve">
@@ -1109,7 +1114,7 @@
 	}</t>
   </si>
   <si>
-    <t xml:space="preserve">पंजीकरण प्रकार</t>
+    <t>पंजीकरण प्रकार</t>
   </si>
   <si>
     <t xml:space="preserve">
@@ -1126,7 +1131,7 @@
 	}</t>
   </si>
   <si>
-    <t xml:space="preserve">दावे का तरीका</t>
+    <t>दावे का तरीका</t>
   </si>
   <si>
     <t xml:space="preserve">
@@ -1151,7 +1156,7 @@
 	}</t>
   </si>
   <si>
-    <t xml:space="preserve">लिंग</t>
+    <t>लिंग</t>
   </si>
   <si>
     <t xml:space="preserve">
@@ -1175,7 +1180,7 @@
 	}</t>
   </si>
   <si>
-    <t xml:space="preserve">आवास की स्थिति</t>
+    <t>आवास की स्थिति</t>
   </si>
   <si>
     <t xml:space="preserve">
@@ -1192,10 +1197,10 @@
 	}</t>
   </si>
   <si>
-    <t xml:space="preserve">उपयोगकर्ता पसंदीदा भाषा</t>
-  </si>
-  <si>
-    <t xml:space="preserve">இரத்த வகை</t>
+    <t>उपयोगकर्ता पसंदीदा भाषा</t>
+  </si>
+  <si>
+    <t>இரத்த வகை</t>
   </si>
   <si>
     <t xml:space="preserve">
@@ -1205,7 +1210,7 @@
 	}</t>
   </si>
   <si>
-    <t xml:space="preserve">tam</t>
+    <t>tam</t>
   </si>
   <si>
     <t xml:space="preserve">
@@ -1302,7 +1307,7 @@
 	}</t>
   </si>
   <si>
-    <t xml:space="preserve">திருமண நிலை</t>
+    <t>திருமண நிலை</t>
   </si>
   <si>
     <t xml:space="preserve">
@@ -1356,7 +1361,7 @@
 	}</t>
   </si>
   <si>
-    <t xml:space="preserve">பதிவு வகை</t>
+    <t>பதிவு வகை</t>
   </si>
   <si>
     <t xml:space="preserve">
@@ -1375,7 +1380,7 @@
 	}</t>
   </si>
   <si>
-    <t xml:space="preserve">உரிமைகோரல் முறை</t>
+    <t>உரிமைகோரல் முறை</t>
   </si>
   <si>
     <t xml:space="preserve">
@@ -1399,7 +1404,7 @@
 	}</t>
   </si>
   <si>
-    <t xml:space="preserve">பாலினம்</t>
+    <t>பாலினம்</t>
   </si>
   <si>
     <t xml:space="preserve">
@@ -1423,7 +1428,7 @@
 	}</t>
   </si>
   <si>
-    <t xml:space="preserve">குடியிருப்பு நிலை</t>
+    <t>குடியிருப்பு நிலை</t>
   </si>
   <si>
     <t xml:space="preserve">
@@ -1440,18 +1445,47 @@
 	}</t>
   </si>
   <si>
-    <t xml:space="preserve">பயனர் விருப்பமான மொழி</t>
+    <t>பயனர் விருப்பமான மொழி</t>
+  </si>
+  <si>
+    <t>spa</t>
+  </si>
+  <si>
+    <t>género</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+	{
+		"code": "MLE",
+		"value": "Masculino"
+	}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+	{
+		"code": "FLE",
+		"value": "Mujer"
+	}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+	{
+		"code": "OTH",
+		"value": "Otro"
+	}</t>
+  </si>
+  <si>
+    <t>idioma preferido del usuario</t>
+  </si>
+  <si>
+    <t>{"value":"Española","code":"spa"}</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="General"/>
-    <numFmt numFmtId="165" formatCode="@"/>
-  </numFmts>
-  <fonts count="5">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -1460,22 +1494,7 @@
       <charset val="1"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <b val="true"/>
+      <b/>
       <sz val="11"/>
       <name val="Cambria"/>
       <family val="1"/>
@@ -1491,104 +1510,375 @@
     </fill>
   </fills>
   <borders count="2">
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="20">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="4">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="6">
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships"/>
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:I205"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:I212"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B206" activeCellId="0" sqref="B206"/>
+    <sheetView tabSelected="1" topLeftCell="A209" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E214" sqref="E214"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5859375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="11.02"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="16.11"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="13.56"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="15.65"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="24.15"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="10.47"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="13.12"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="11.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="15.43"/>
+    <col min="1" max="1" width="11" customWidth="1"/>
+    <col min="2" max="2" width="16.08984375" customWidth="1"/>
+    <col min="3" max="3" width="13.54296875" customWidth="1"/>
+    <col min="4" max="4" width="15.6328125" customWidth="1"/>
+    <col min="5" max="5" width="24.1796875" customWidth="1"/>
+    <col min="6" max="6" width="10.453125" customWidth="1"/>
+    <col min="7" max="7" width="13.08984375" customWidth="1"/>
+    <col min="8" max="8" width="11.54296875" customWidth="1"/>
+    <col min="9" max="9" width="15.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1617,907 +1907,907 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="n">
+    <row r="2" spans="1:9" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A2">
         <v>10001</v>
       </c>
-      <c r="B2" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="C2" s="0" t="s">
+      <c r="B2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="0" t="s">
+      <c r="D2" t="s">
         <v>11</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="F2" s="0" t="s">
+      <c r="F2" t="s">
         <v>13</v>
       </c>
       <c r="G2" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="H2" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="I2" s="0" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="n">
+      <c r="H2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A3">
         <v>10002</v>
       </c>
-      <c r="B3" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" s="0" t="s">
+      <c r="B3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="0" t="s">
+      <c r="D3" t="s">
         <v>11</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F3" s="0" t="s">
+      <c r="F3" t="s">
         <v>13</v>
       </c>
       <c r="G3" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="H3" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="I3" s="0" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="n">
+      <c r="H3" t="s">
+        <v>15</v>
+      </c>
+      <c r="I3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A4">
         <v>10003</v>
       </c>
-      <c r="B4" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" s="0" t="s">
+      <c r="B4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="0" t="s">
+      <c r="D4" t="s">
         <v>11</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="F4" s="0" t="s">
+      <c r="F4" t="s">
         <v>13</v>
       </c>
       <c r="G4" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="H4" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="I4" s="0" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="n">
+      <c r="H4" t="s">
+        <v>15</v>
+      </c>
+      <c r="I4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A5">
         <v>10004</v>
       </c>
-      <c r="B5" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5" s="0" t="s">
+      <c r="B5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" t="s">
         <v>10</v>
       </c>
-      <c r="D5" s="0" t="s">
+      <c r="D5" t="s">
         <v>11</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="F5" s="0" t="s">
+      <c r="F5" t="s">
         <v>13</v>
       </c>
       <c r="G5" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="H5" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="I5" s="0" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="n">
+      <c r="H5" t="s">
+        <v>15</v>
+      </c>
+      <c r="I5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A6">
         <v>10005</v>
       </c>
-      <c r="B6" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="C6" s="0" t="s">
+      <c r="B6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" t="s">
         <v>10</v>
       </c>
-      <c r="D6" s="0" t="s">
+      <c r="D6" t="s">
         <v>11</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="F6" s="0" t="s">
+      <c r="F6" t="s">
         <v>13</v>
       </c>
       <c r="G6" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="H6" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="I6" s="0" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="n">
+      <c r="H6" t="s">
+        <v>15</v>
+      </c>
+      <c r="I6" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A7">
         <v>10006</v>
       </c>
-      <c r="B7" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="C7" s="0" t="s">
+      <c r="B7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" t="s">
         <v>10</v>
       </c>
-      <c r="D7" s="0" t="s">
+      <c r="D7" t="s">
         <v>11</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="F7" s="0" t="s">
+      <c r="F7" t="s">
         <v>13</v>
       </c>
       <c r="G7" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="H7" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="I7" s="0" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="n">
+      <c r="H7" t="s">
+        <v>15</v>
+      </c>
+      <c r="I7" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A8">
         <v>10007</v>
       </c>
-      <c r="B8" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="C8" s="0" t="s">
+      <c r="B8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" t="s">
         <v>10</v>
       </c>
-      <c r="D8" s="0" t="s">
+      <c r="D8" t="s">
         <v>11</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="F8" s="0" t="s">
+      <c r="F8" t="s">
         <v>13</v>
       </c>
       <c r="G8" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="H8" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="I8" s="0" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="n">
+      <c r="H8" t="s">
+        <v>15</v>
+      </c>
+      <c r="I8" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A9">
         <v>10008</v>
       </c>
-      <c r="B9" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="C9" s="0" t="s">
+      <c r="B9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" t="s">
         <v>10</v>
       </c>
-      <c r="D9" s="0" t="s">
+      <c r="D9" t="s">
         <v>11</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="F9" s="0" t="s">
+      <c r="F9" t="s">
         <v>13</v>
       </c>
       <c r="G9" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="H9" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="I9" s="0" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="n">
+      <c r="H9" t="s">
+        <v>15</v>
+      </c>
+      <c r="I9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A10">
         <v>10009</v>
       </c>
-      <c r="B10" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="C10" s="0" t="s">
+      <c r="B10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" t="s">
         <v>10</v>
       </c>
-      <c r="D10" s="0" t="s">
+      <c r="D10" t="s">
         <v>11</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="F10" s="0" t="s">
+      <c r="F10" t="s">
         <v>13</v>
       </c>
       <c r="G10" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="H10" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="I10" s="0" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="0" t="n">
+      <c r="H10" t="s">
+        <v>15</v>
+      </c>
+      <c r="I10" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A11">
         <v>10010</v>
       </c>
-      <c r="B11" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="C11" s="0" t="s">
+      <c r="B11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" t="s">
         <v>10</v>
       </c>
-      <c r="D11" s="0" t="s">
+      <c r="D11" t="s">
         <v>11</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="F11" s="0" t="s">
+      <c r="F11" t="s">
         <v>13</v>
       </c>
       <c r="G11" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="H11" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="I11" s="0" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="0" t="n">
+      <c r="H11" t="s">
+        <v>15</v>
+      </c>
+      <c r="I11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A12">
         <v>10011</v>
       </c>
-      <c r="B12" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="C12" s="0" t="s">
+      <c r="B12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" t="s">
         <v>10</v>
       </c>
-      <c r="D12" s="0" t="s">
+      <c r="D12" t="s">
         <v>11</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="F12" s="0" t="s">
+      <c r="F12" t="s">
         <v>13</v>
       </c>
       <c r="G12" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="H12" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="I12" s="0" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="0" t="n">
+      <c r="H12" t="s">
+        <v>15</v>
+      </c>
+      <c r="I12" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A13">
         <v>10012</v>
       </c>
-      <c r="B13" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="C13" s="0" t="s">
+      <c r="B13" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13" t="s">
         <v>10</v>
       </c>
-      <c r="D13" s="0" t="s">
+      <c r="D13" t="s">
         <v>11</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="F13" s="0" t="s">
+      <c r="F13" t="s">
         <v>13</v>
       </c>
       <c r="G13" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="H13" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="I13" s="0" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="82.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="0" t="n">
+      <c r="H13" t="s">
+        <v>15</v>
+      </c>
+      <c r="I13" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A14">
         <v>10013</v>
       </c>
-      <c r="B14" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="C14" s="0" t="s">
+      <c r="B14" t="s">
+        <v>9</v>
+      </c>
+      <c r="C14" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="0" t="s">
+      <c r="D14" t="s">
         <v>11</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="F14" s="0" t="s">
+      <c r="F14" t="s">
         <v>13</v>
       </c>
       <c r="G14" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="H14" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="I14" s="0" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="82.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="0" t="n">
+      <c r="H14" t="s">
+        <v>15</v>
+      </c>
+      <c r="I14" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A15">
         <v>10014</v>
       </c>
-      <c r="B15" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="C15" s="0" t="s">
+      <c r="B15" t="s">
+        <v>9</v>
+      </c>
+      <c r="C15" t="s">
         <v>10</v>
       </c>
-      <c r="D15" s="0" t="s">
+      <c r="D15" t="s">
         <v>11</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="F15" s="0" t="s">
+      <c r="F15" t="s">
         <v>13</v>
       </c>
       <c r="G15" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="H15" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="I15" s="0" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="0" t="n">
+      <c r="H15" t="s">
+        <v>15</v>
+      </c>
+      <c r="I15" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A16">
         <v>10103</v>
       </c>
-      <c r="B16" s="0" t="s">
+      <c r="B16" t="s">
         <v>30</v>
       </c>
-      <c r="C16" s="0" t="s">
+      <c r="C16" t="s">
         <v>31</v>
       </c>
-      <c r="D16" s="0" t="s">
+      <c r="D16" t="s">
         <v>11</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="F16" s="0" t="s">
+      <c r="F16" t="s">
         <v>13</v>
       </c>
       <c r="G16" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="H16" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="I16" s="0" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="0" t="n">
+      <c r="H16" t="s">
+        <v>15</v>
+      </c>
+      <c r="I16" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A17">
         <v>10104</v>
       </c>
-      <c r="B17" s="0" t="s">
+      <c r="B17" t="s">
         <v>30</v>
       </c>
-      <c r="C17" s="0" t="s">
+      <c r="C17" t="s">
         <v>31</v>
       </c>
-      <c r="D17" s="0" t="s">
+      <c r="D17" t="s">
         <v>11</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="F17" s="0" t="s">
+      <c r="F17" t="s">
         <v>13</v>
       </c>
       <c r="G17" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="H17" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="I17" s="0" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="0" t="n">
+      <c r="H17" t="s">
+        <v>15</v>
+      </c>
+      <c r="I17" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A18">
         <v>10105</v>
       </c>
-      <c r="B18" s="0" t="s">
+      <c r="B18" t="s">
         <v>30</v>
       </c>
-      <c r="C18" s="0" t="s">
+      <c r="C18" t="s">
         <v>31</v>
       </c>
-      <c r="D18" s="0" t="s">
+      <c r="D18" t="s">
         <v>11</v>
       </c>
       <c r="E18" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="F18" s="0" t="s">
+      <c r="F18" t="s">
         <v>13</v>
       </c>
       <c r="G18" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="H18" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="I18" s="0" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="19" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="0" t="n">
+      <c r="H18" t="s">
+        <v>15</v>
+      </c>
+      <c r="I18" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A19">
         <v>10106</v>
       </c>
-      <c r="B19" s="0" t="s">
+      <c r="B19" t="s">
         <v>30</v>
       </c>
-      <c r="C19" s="0" t="s">
+      <c r="C19" t="s">
         <v>31</v>
       </c>
-      <c r="D19" s="0" t="s">
+      <c r="D19" t="s">
         <v>11</v>
       </c>
       <c r="E19" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="F19" s="0" t="s">
+      <c r="F19" t="s">
         <v>13</v>
       </c>
       <c r="G19" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="H19" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="I19" s="0" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="20" customFormat="false" ht="82.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="0" t="n">
+      <c r="H19" t="s">
+        <v>15</v>
+      </c>
+      <c r="I19" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" ht="87" x14ac:dyDescent="0.35">
+      <c r="A20">
         <v>10107</v>
       </c>
-      <c r="B20" s="0" t="s">
+      <c r="B20" t="s">
         <v>30</v>
       </c>
-      <c r="C20" s="0" t="s">
+      <c r="C20" t="s">
         <v>31</v>
       </c>
-      <c r="D20" s="0" t="s">
+      <c r="D20" t="s">
         <v>11</v>
       </c>
       <c r="E20" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="F20" s="0" t="s">
+      <c r="F20" t="s">
         <v>13</v>
       </c>
       <c r="G20" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="H20" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="I20" s="0" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="21" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="0" t="n">
+      <c r="H20" t="s">
+        <v>15</v>
+      </c>
+      <c r="I20" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A21">
         <v>10108</v>
       </c>
-      <c r="B21" s="0" t="s">
+      <c r="B21" t="s">
         <v>30</v>
       </c>
-      <c r="C21" s="0" t="s">
+      <c r="C21" t="s">
         <v>31</v>
       </c>
-      <c r="D21" s="0" t="s">
+      <c r="D21" t="s">
         <v>11</v>
       </c>
       <c r="E21" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="F21" s="0" t="s">
+      <c r="F21" t="s">
         <v>13</v>
       </c>
       <c r="G21" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="H21" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="I21" s="0" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="22" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="0" t="n">
+      <c r="H21" t="s">
+        <v>15</v>
+      </c>
+      <c r="I21" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A22">
         <v>10109</v>
       </c>
-      <c r="B22" s="0" t="s">
+      <c r="B22" t="s">
         <v>30</v>
       </c>
-      <c r="C22" s="0" t="s">
+      <c r="C22" t="s">
         <v>31</v>
       </c>
-      <c r="D22" s="0" t="s">
+      <c r="D22" t="s">
         <v>11</v>
       </c>
       <c r="E22" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="F22" s="0" t="s">
+      <c r="F22" t="s">
         <v>13</v>
       </c>
       <c r="G22" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="H22" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="I22" s="0" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="23" customFormat="false" ht="95.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="0" t="n">
+      <c r="H22" t="s">
+        <v>15</v>
+      </c>
+      <c r="I22" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" ht="101.5" x14ac:dyDescent="0.35">
+      <c r="A23">
         <v>10181</v>
       </c>
-      <c r="B23" s="0" t="s">
+      <c r="B23" t="s">
         <v>39</v>
       </c>
-      <c r="C23" s="0" t="s">
+      <c r="C23" t="s">
         <v>40</v>
       </c>
-      <c r="D23" s="0" t="s">
+      <c r="D23" t="s">
         <v>11</v>
       </c>
       <c r="E23" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="F23" s="0" t="s">
+      <c r="F23" t="s">
         <v>13</v>
       </c>
       <c r="G23" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="H23" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="I23" s="0" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="24" customFormat="false" ht="95.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="0" t="n">
+      <c r="H23" t="s">
+        <v>15</v>
+      </c>
+      <c r="I23" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" ht="101.5" x14ac:dyDescent="0.35">
+      <c r="A24">
         <v>10182</v>
       </c>
-      <c r="B24" s="0" t="s">
+      <c r="B24" t="s">
         <v>39</v>
       </c>
-      <c r="C24" s="0" t="s">
+      <c r="C24" t="s">
         <v>40</v>
       </c>
-      <c r="D24" s="0" t="s">
+      <c r="D24" t="s">
         <v>11</v>
       </c>
       <c r="E24" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="F24" s="0" t="s">
+      <c r="F24" t="s">
         <v>13</v>
       </c>
       <c r="G24" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="H24" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="I24" s="0" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="25" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="0" t="n">
+      <c r="H24" t="s">
+        <v>15</v>
+      </c>
+      <c r="I24" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A25">
         <v>10145</v>
       </c>
-      <c r="B25" s="0" t="s">
+      <c r="B25" t="s">
         <v>43</v>
       </c>
-      <c r="C25" s="0" t="s">
+      <c r="C25" t="s">
         <v>44</v>
       </c>
-      <c r="D25" s="0" t="s">
+      <c r="D25" t="s">
         <v>11</v>
       </c>
       <c r="E25" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="F25" s="0" t="s">
+      <c r="F25" t="s">
         <v>13</v>
       </c>
       <c r="G25" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="H25" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="I25" s="0" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="26" customFormat="false" ht="82.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="0" t="n">
+      <c r="H25" t="s">
+        <v>15</v>
+      </c>
+      <c r="I25" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" ht="87" x14ac:dyDescent="0.35">
+      <c r="A26">
         <v>10146</v>
       </c>
-      <c r="B26" s="0" t="s">
+      <c r="B26" t="s">
         <v>43</v>
       </c>
-      <c r="C26" s="0" t="s">
+      <c r="C26" t="s">
         <v>44</v>
       </c>
-      <c r="D26" s="0" t="s">
+      <c r="D26" t="s">
         <v>11</v>
       </c>
       <c r="E26" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="F26" s="0" t="s">
+      <c r="F26" t="s">
         <v>13</v>
       </c>
       <c r="G26" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="H26" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="I26" s="0" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="27" customFormat="false" ht="82.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="0" t="n">
+      <c r="H26" t="s">
+        <v>15</v>
+      </c>
+      <c r="I26" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" ht="87" x14ac:dyDescent="0.35">
+      <c r="A27">
         <v>10147</v>
       </c>
-      <c r="B27" s="0" t="s">
+      <c r="B27" t="s">
         <v>43</v>
       </c>
-      <c r="C27" s="0" t="s">
+      <c r="C27" t="s">
         <v>44</v>
       </c>
-      <c r="D27" s="0" t="s">
+      <c r="D27" t="s">
         <v>11</v>
       </c>
       <c r="E27" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="F27" s="0" t="s">
+      <c r="F27" t="s">
         <v>13</v>
       </c>
       <c r="G27" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="H27" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="I27" s="0" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="28" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="0" t="n">
+      <c r="H27" t="s">
+        <v>15</v>
+      </c>
+      <c r="I27" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A28">
         <v>10085</v>
       </c>
-      <c r="B28" s="0" t="s">
+      <c r="B28" t="s">
         <v>48</v>
       </c>
-      <c r="C28" s="0" t="s">
+      <c r="C28" t="s">
         <v>49</v>
       </c>
-      <c r="D28" s="0" t="s">
+      <c r="D28" t="s">
         <v>11</v>
       </c>
       <c r="E28" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="F28" s="0" t="s">
+      <c r="F28" t="s">
         <v>13</v>
       </c>
       <c r="G28" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="H28" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="I28" s="0" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="29" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="0" t="n">
+      <c r="H28" t="s">
+        <v>15</v>
+      </c>
+      <c r="I28" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A29">
         <v>10086</v>
       </c>
-      <c r="B29" s="0" t="s">
+      <c r="B29" t="s">
         <v>48</v>
       </c>
-      <c r="C29" s="0" t="s">
+      <c r="C29" t="s">
         <v>49</v>
       </c>
-      <c r="D29" s="0" t="s">
+      <c r="D29" t="s">
         <v>11</v>
       </c>
       <c r="E29" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="F29" s="0" t="s">
+      <c r="F29" t="s">
         <v>13</v>
       </c>
       <c r="G29" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="H29" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="I29" s="0" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="30" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="0" t="n">
+      <c r="H29" t="s">
+        <v>15</v>
+      </c>
+      <c r="I29" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A30">
         <v>10087</v>
       </c>
-      <c r="B30" s="0" t="s">
+      <c r="B30" t="s">
         <v>48</v>
       </c>
-      <c r="C30" s="0" t="s">
+      <c r="C30" t="s">
         <v>49</v>
       </c>
-      <c r="D30" s="0" t="s">
+      <c r="D30" t="s">
         <v>11</v>
       </c>
       <c r="E30" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="F30" s="0" t="s">
+      <c r="F30" t="s">
         <v>13</v>
       </c>
       <c r="G30" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="H30" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="I30" s="0" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="31" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="0" t="n">
+      <c r="H30" t="s">
+        <v>15</v>
+      </c>
+      <c r="I30" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A31">
         <v>10193</v>
       </c>
-      <c r="B31" s="0" t="s">
+      <c r="B31" t="s">
         <v>53</v>
       </c>
-      <c r="C31" s="0" t="s">
+      <c r="C31" t="s">
         <v>53</v>
       </c>
-      <c r="D31" s="0" t="s">
+      <c r="D31" t="s">
         <v>11</v>
       </c>
       <c r="E31" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="F31" s="0" t="s">
+      <c r="F31" t="s">
         <v>13</v>
       </c>
       <c r="G31" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="H31" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="I31" s="0" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="32" customFormat="false" ht="82.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="0" t="n">
+      <c r="H31" t="s">
+        <v>15</v>
+      </c>
+      <c r="I31" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A32">
         <v>10194</v>
       </c>
-      <c r="B32" s="0" t="s">
+      <c r="B32" t="s">
         <v>53</v>
       </c>
-      <c r="C32" s="0" t="s">
+      <c r="C32" t="s">
         <v>53</v>
       </c>
-      <c r="D32" s="0" t="s">
+      <c r="D32" t="s">
         <v>11</v>
       </c>
       <c r="E32" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="F32" s="0" t="s">
+      <c r="F32" t="s">
         <v>13</v>
       </c>
       <c r="G32" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="H32" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="I32" s="0" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="33" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="2" t="n">
+      <c r="H32" t="s">
+        <v>15</v>
+      </c>
+      <c r="I32" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" ht="29" x14ac:dyDescent="0.35">
+      <c r="A33" s="2">
         <v>10163</v>
       </c>
       <c r="B33" s="2" t="s">
@@ -2545,8 +2835,8 @@
         <v>16</v>
       </c>
     </row>
-    <row r="34" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="2" t="n">
+    <row r="34" spans="1:9" ht="29" x14ac:dyDescent="0.35">
+      <c r="A34" s="2">
         <v>10164</v>
       </c>
       <c r="B34" s="2" t="s">
@@ -2574,8 +2864,8 @@
         <v>16</v>
       </c>
     </row>
-    <row r="35" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="2" t="n">
+    <row r="35" spans="1:9" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A35" s="2">
         <v>10165</v>
       </c>
       <c r="B35" s="2" t="s">
@@ -2603,8 +2893,8 @@
         <v>16</v>
       </c>
     </row>
-    <row r="36" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="2" t="n">
+    <row r="36" spans="1:9" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A36" s="2">
         <v>10166</v>
       </c>
       <c r="B36" s="2" t="s">
@@ -2632,1806 +2922,1806 @@
         <v>16</v>
       </c>
     </row>
-    <row r="37" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="0" t="n">
+    <row r="37" spans="1:9" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A37">
         <v>10015</v>
       </c>
-      <c r="B37" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="C37" s="0" t="s">
+      <c r="B37" t="s">
+        <v>9</v>
+      </c>
+      <c r="C37" t="s">
         <v>62</v>
       </c>
-      <c r="D37" s="0" t="s">
+      <c r="D37" t="s">
         <v>11</v>
       </c>
       <c r="E37" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="F37" s="0" t="s">
+      <c r="F37" t="s">
         <v>61</v>
       </c>
       <c r="G37" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="H37" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="I37" s="0" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="38" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="0" t="n">
+      <c r="H37" t="s">
+        <v>15</v>
+      </c>
+      <c r="I37" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A38">
         <v>10016</v>
       </c>
-      <c r="B38" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="C38" s="0" t="s">
+      <c r="B38" t="s">
+        <v>9</v>
+      </c>
+      <c r="C38" t="s">
         <v>62</v>
       </c>
-      <c r="D38" s="0" t="s">
+      <c r="D38" t="s">
         <v>11</v>
       </c>
       <c r="E38" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F38" s="0" t="s">
+      <c r="F38" t="s">
         <v>61</v>
       </c>
       <c r="G38" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="H38" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="I38" s="0" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="39" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="0" t="n">
+      <c r="H38" t="s">
+        <v>15</v>
+      </c>
+      <c r="I38" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A39">
         <v>10017</v>
       </c>
-      <c r="B39" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="C39" s="0" t="s">
+      <c r="B39" t="s">
+        <v>9</v>
+      </c>
+      <c r="C39" t="s">
         <v>62</v>
       </c>
-      <c r="D39" s="0" t="s">
+      <c r="D39" t="s">
         <v>11</v>
       </c>
       <c r="E39" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="F39" s="0" t="s">
+      <c r="F39" t="s">
         <v>61</v>
       </c>
       <c r="G39" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="H39" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="I39" s="0" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="40" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="0" t="n">
+      <c r="H39" t="s">
+        <v>15</v>
+      </c>
+      <c r="I39" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A40">
         <v>10018</v>
       </c>
-      <c r="B40" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="C40" s="0" t="s">
+      <c r="B40" t="s">
+        <v>9</v>
+      </c>
+      <c r="C40" t="s">
         <v>62</v>
       </c>
-      <c r="D40" s="0" t="s">
+      <c r="D40" t="s">
         <v>11</v>
       </c>
       <c r="E40" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="F40" s="0" t="s">
+      <c r="F40" t="s">
         <v>61</v>
       </c>
       <c r="G40" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="H40" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="I40" s="0" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="41" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="0" t="n">
+      <c r="H40" t="s">
+        <v>15</v>
+      </c>
+      <c r="I40" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A41">
         <v>10019</v>
       </c>
-      <c r="B41" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="C41" s="0" t="s">
+      <c r="B41" t="s">
+        <v>9</v>
+      </c>
+      <c r="C41" t="s">
         <v>62</v>
       </c>
-      <c r="D41" s="0" t="s">
+      <c r="D41" t="s">
         <v>11</v>
       </c>
       <c r="E41" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="F41" s="0" t="s">
+      <c r="F41" t="s">
         <v>61</v>
       </c>
       <c r="G41" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="H41" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="I41" s="0" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="42" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="0" t="n">
+      <c r="H41" t="s">
+        <v>15</v>
+      </c>
+      <c r="I41" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A42">
         <v>10020</v>
       </c>
-      <c r="B42" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="C42" s="0" t="s">
+      <c r="B42" t="s">
+        <v>9</v>
+      </c>
+      <c r="C42" t="s">
         <v>62</v>
       </c>
-      <c r="D42" s="0" t="s">
+      <c r="D42" t="s">
         <v>11</v>
       </c>
       <c r="E42" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="F42" s="0" t="s">
+      <c r="F42" t="s">
         <v>61</v>
       </c>
       <c r="G42" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="H42" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="I42" s="0" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="43" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="0" t="n">
+      <c r="H42" t="s">
+        <v>15</v>
+      </c>
+      <c r="I42" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A43">
         <v>10021</v>
       </c>
-      <c r="B43" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="C43" s="0" t="s">
+      <c r="B43" t="s">
+        <v>9</v>
+      </c>
+      <c r="C43" t="s">
         <v>62</v>
       </c>
-      <c r="D43" s="0" t="s">
+      <c r="D43" t="s">
         <v>11</v>
       </c>
       <c r="E43" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="F43" s="0" t="s">
+      <c r="F43" t="s">
         <v>61</v>
       </c>
       <c r="G43" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="H43" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="I43" s="0" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="44" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="0" t="n">
+      <c r="H43" t="s">
+        <v>15</v>
+      </c>
+      <c r="I43" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A44">
         <v>10022</v>
       </c>
-      <c r="B44" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="C44" s="0" t="s">
+      <c r="B44" t="s">
+        <v>9</v>
+      </c>
+      <c r="C44" t="s">
         <v>62</v>
       </c>
-      <c r="D44" s="0" t="s">
+      <c r="D44" t="s">
         <v>11</v>
       </c>
       <c r="E44" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="F44" s="0" t="s">
+      <c r="F44" t="s">
         <v>61</v>
       </c>
       <c r="G44" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="H44" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="I44" s="0" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="45" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="0" t="n">
+      <c r="H44" t="s">
+        <v>15</v>
+      </c>
+      <c r="I44" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A45">
         <v>10023</v>
       </c>
-      <c r="B45" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="C45" s="0" t="s">
+      <c r="B45" t="s">
+        <v>9</v>
+      </c>
+      <c r="C45" t="s">
         <v>62</v>
       </c>
-      <c r="D45" s="0" t="s">
+      <c r="D45" t="s">
         <v>11</v>
       </c>
       <c r="E45" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="F45" s="0" t="s">
+      <c r="F45" t="s">
         <v>61</v>
       </c>
       <c r="G45" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="H45" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="I45" s="0" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="46" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="0" t="n">
+      <c r="H45" t="s">
+        <v>15</v>
+      </c>
+      <c r="I45" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A46">
         <v>10024</v>
       </c>
-      <c r="B46" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="C46" s="0" t="s">
+      <c r="B46" t="s">
+        <v>9</v>
+      </c>
+      <c r="C46" t="s">
         <v>62</v>
       </c>
-      <c r="D46" s="0" t="s">
+      <c r="D46" t="s">
         <v>11</v>
       </c>
       <c r="E46" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="F46" s="0" t="s">
+      <c r="F46" t="s">
         <v>61</v>
       </c>
       <c r="G46" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="H46" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="I46" s="0" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="47" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="0" t="n">
+      <c r="H46" t="s">
+        <v>15</v>
+      </c>
+      <c r="I46" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A47">
         <v>10025</v>
       </c>
-      <c r="B47" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="C47" s="0" t="s">
+      <c r="B47" t="s">
+        <v>9</v>
+      </c>
+      <c r="C47" t="s">
         <v>62</v>
       </c>
-      <c r="D47" s="0" t="s">
+      <c r="D47" t="s">
         <v>11</v>
       </c>
       <c r="E47" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="F47" s="0" t="s">
+      <c r="F47" t="s">
         <v>61</v>
       </c>
       <c r="G47" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="H47" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="I47" s="0" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="48" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="0" t="n">
+      <c r="H47" t="s">
+        <v>15</v>
+      </c>
+      <c r="I47" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A48">
         <v>10026</v>
       </c>
-      <c r="B48" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="C48" s="0" t="s">
+      <c r="B48" t="s">
+        <v>9</v>
+      </c>
+      <c r="C48" t="s">
         <v>62</v>
       </c>
-      <c r="D48" s="0" t="s">
+      <c r="D48" t="s">
         <v>11</v>
       </c>
       <c r="E48" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="F48" s="0" t="s">
+      <c r="F48" t="s">
         <v>61</v>
       </c>
       <c r="G48" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="H48" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="I48" s="0" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="49" customFormat="false" ht="82.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="0" t="n">
+      <c r="H48" t="s">
+        <v>15</v>
+      </c>
+      <c r="I48" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A49">
         <v>10027</v>
       </c>
-      <c r="B49" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="C49" s="0" t="s">
+      <c r="B49" t="s">
+        <v>9</v>
+      </c>
+      <c r="C49" t="s">
         <v>62</v>
       </c>
-      <c r="D49" s="0" t="s">
+      <c r="D49" t="s">
         <v>11</v>
       </c>
       <c r="E49" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="F49" s="0" t="s">
+      <c r="F49" t="s">
         <v>61</v>
       </c>
       <c r="G49" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="H49" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="I49" s="0" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="50" customFormat="false" ht="82.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="0" t="n">
+      <c r="H49" t="s">
+        <v>15</v>
+      </c>
+      <c r="I49" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" ht="87" x14ac:dyDescent="0.35">
+      <c r="A50">
         <v>10028</v>
       </c>
-      <c r="B50" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="C50" s="0" t="s">
+      <c r="B50" t="s">
+        <v>9</v>
+      </c>
+      <c r="C50" t="s">
         <v>62</v>
       </c>
-      <c r="D50" s="0" t="s">
+      <c r="D50" t="s">
         <v>11</v>
       </c>
       <c r="E50" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="F50" s="0" t="s">
+      <c r="F50" t="s">
         <v>61</v>
       </c>
       <c r="G50" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="H50" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="I50" s="0" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="51" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="0" t="n">
+      <c r="H50" t="s">
+        <v>15</v>
+      </c>
+      <c r="I50" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A51">
         <v>10110</v>
       </c>
-      <c r="B51" s="0" t="s">
+      <c r="B51" t="s">
         <v>30</v>
       </c>
-      <c r="C51" s="0" t="s">
+      <c r="C51" t="s">
         <v>65</v>
       </c>
-      <c r="D51" s="0" t="s">
+      <c r="D51" t="s">
         <v>11</v>
       </c>
       <c r="E51" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="F51" s="0" t="s">
+      <c r="F51" t="s">
         <v>61</v>
       </c>
       <c r="G51" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="H51" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="I51" s="0" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="52" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="0" t="n">
+      <c r="H51" t="s">
+        <v>15</v>
+      </c>
+      <c r="I51" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A52">
         <v>10111</v>
       </c>
-      <c r="B52" s="0" t="s">
+      <c r="B52" t="s">
         <v>30</v>
       </c>
-      <c r="C52" s="0" t="s">
+      <c r="C52" t="s">
         <v>65</v>
       </c>
-      <c r="D52" s="0" t="s">
+      <c r="D52" t="s">
         <v>11</v>
       </c>
       <c r="E52" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="F52" s="0" t="s">
+      <c r="F52" t="s">
         <v>61</v>
       </c>
       <c r="G52" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="H52" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="I52" s="0" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="53" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="0" t="n">
+      <c r="H52" t="s">
+        <v>15</v>
+      </c>
+      <c r="I52" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A53">
         <v>10112</v>
       </c>
-      <c r="B53" s="0" t="s">
+      <c r="B53" t="s">
         <v>30</v>
       </c>
-      <c r="C53" s="0" t="s">
+      <c r="C53" t="s">
         <v>65</v>
       </c>
-      <c r="D53" s="0" t="s">
+      <c r="D53" t="s">
         <v>11</v>
       </c>
       <c r="E53" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="F53" s="0" t="s">
+      <c r="F53" t="s">
         <v>61</v>
       </c>
       <c r="G53" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="H53" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="I53" s="0" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="54" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="0" t="n">
+      <c r="H53" t="s">
+        <v>15</v>
+      </c>
+      <c r="I53" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A54">
         <v>10113</v>
       </c>
-      <c r="B54" s="0" t="s">
+      <c r="B54" t="s">
         <v>30</v>
       </c>
-      <c r="C54" s="0" t="s">
+      <c r="C54" t="s">
         <v>65</v>
       </c>
-      <c r="D54" s="0" t="s">
+      <c r="D54" t="s">
         <v>11</v>
       </c>
       <c r="E54" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="F54" s="0" t="s">
+      <c r="F54" t="s">
         <v>61</v>
       </c>
       <c r="G54" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="H54" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="I54" s="0" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="55" customFormat="false" ht="82.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="0" t="n">
+      <c r="H54" t="s">
+        <v>15</v>
+      </c>
+      <c r="I54" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" ht="87" x14ac:dyDescent="0.35">
+      <c r="A55">
         <v>10114</v>
       </c>
-      <c r="B55" s="0" t="s">
+      <c r="B55" t="s">
         <v>30</v>
       </c>
-      <c r="C55" s="0" t="s">
+      <c r="C55" t="s">
         <v>65</v>
       </c>
-      <c r="D55" s="0" t="s">
+      <c r="D55" t="s">
         <v>11</v>
       </c>
       <c r="E55" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="F55" s="0" t="s">
+      <c r="F55" t="s">
         <v>61</v>
       </c>
       <c r="G55" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="H55" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="I55" s="0" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="56" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="0" t="n">
+      <c r="H55" t="s">
+        <v>15</v>
+      </c>
+      <c r="I55" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A56">
         <v>10115</v>
       </c>
-      <c r="B56" s="0" t="s">
+      <c r="B56" t="s">
         <v>30</v>
       </c>
-      <c r="C56" s="0" t="s">
+      <c r="C56" t="s">
         <v>65</v>
       </c>
-      <c r="D56" s="0" t="s">
+      <c r="D56" t="s">
         <v>11</v>
       </c>
       <c r="E56" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="F56" s="0" t="s">
+      <c r="F56" t="s">
         <v>61</v>
       </c>
       <c r="G56" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="H56" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="I56" s="0" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="57" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="0" t="n">
+      <c r="H56" t="s">
+        <v>15</v>
+      </c>
+      <c r="I56" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A57">
         <v>10116</v>
       </c>
-      <c r="B57" s="0" t="s">
+      <c r="B57" t="s">
         <v>30</v>
       </c>
-      <c r="C57" s="0" t="s">
+      <c r="C57" t="s">
         <v>65</v>
       </c>
-      <c r="D57" s="0" t="s">
+      <c r="D57" t="s">
         <v>11</v>
       </c>
       <c r="E57" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="F57" s="0" t="s">
+      <c r="F57" t="s">
         <v>61</v>
       </c>
       <c r="G57" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="H57" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="I57" s="0" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="58" customFormat="false" ht="95.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="0" t="n">
+      <c r="H57" t="s">
+        <v>15</v>
+      </c>
+      <c r="I57" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" ht="101.5" x14ac:dyDescent="0.35">
+      <c r="A58">
         <v>10183</v>
       </c>
-      <c r="B58" s="0" t="s">
+      <c r="B58" t="s">
         <v>39</v>
       </c>
-      <c r="C58" s="0" t="s">
+      <c r="C58" t="s">
         <v>73</v>
       </c>
-      <c r="D58" s="0" t="s">
+      <c r="D58" t="s">
         <v>11</v>
       </c>
       <c r="E58" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="F58" s="0" t="s">
+      <c r="F58" t="s">
         <v>61</v>
       </c>
       <c r="G58" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="H58" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="I58" s="0" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="59" customFormat="false" ht="95.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="0" t="n">
+      <c r="H58" t="s">
+        <v>15</v>
+      </c>
+      <c r="I58" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" ht="101.5" x14ac:dyDescent="0.35">
+      <c r="A59">
         <v>10184</v>
       </c>
-      <c r="B59" s="0" t="s">
+      <c r="B59" t="s">
         <v>39</v>
       </c>
-      <c r="C59" s="0" t="s">
+      <c r="C59" t="s">
         <v>73</v>
       </c>
-      <c r="D59" s="0" t="s">
+      <c r="D59" t="s">
         <v>11</v>
       </c>
       <c r="E59" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="F59" s="0" t="s">
+      <c r="F59" t="s">
         <v>61</v>
       </c>
       <c r="G59" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="H59" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="I59" s="0" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="60" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="0" t="n">
+      <c r="H59" t="s">
+        <v>15</v>
+      </c>
+      <c r="I59" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A60">
         <v>10148</v>
       </c>
-      <c r="B60" s="0" t="s">
+      <c r="B60" t="s">
         <v>43</v>
       </c>
-      <c r="C60" s="0" t="s">
+      <c r="C60" t="s">
         <v>76</v>
       </c>
-      <c r="D60" s="0" t="s">
+      <c r="D60" t="s">
         <v>11</v>
       </c>
       <c r="E60" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="F60" s="0" t="s">
+      <c r="F60" t="s">
         <v>61</v>
       </c>
       <c r="G60" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="H60" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="I60" s="0" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="61" customFormat="false" ht="82.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="0" t="n">
+      <c r="H60" t="s">
+        <v>15</v>
+      </c>
+      <c r="I60" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" ht="87" x14ac:dyDescent="0.35">
+      <c r="A61">
         <v>10149</v>
       </c>
-      <c r="B61" s="0" t="s">
+      <c r="B61" t="s">
         <v>43</v>
       </c>
-      <c r="C61" s="0" t="s">
+      <c r="C61" t="s">
         <v>76</v>
       </c>
-      <c r="D61" s="0" t="s">
+      <c r="D61" t="s">
         <v>11</v>
       </c>
       <c r="E61" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="F61" s="0" t="s">
+      <c r="F61" t="s">
         <v>61</v>
       </c>
       <c r="G61" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="H61" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="I61" s="0" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="62" customFormat="false" ht="82.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="0" t="n">
+      <c r="H61" t="s">
+        <v>15</v>
+      </c>
+      <c r="I61" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" ht="87" x14ac:dyDescent="0.35">
+      <c r="A62">
         <v>10150</v>
       </c>
-      <c r="B62" s="0" t="s">
+      <c r="B62" t="s">
         <v>43</v>
       </c>
-      <c r="C62" s="0" t="s">
+      <c r="C62" t="s">
         <v>76</v>
       </c>
-      <c r="D62" s="0" t="s">
+      <c r="D62" t="s">
         <v>11</v>
       </c>
       <c r="E62" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="F62" s="0" t="s">
+      <c r="F62" t="s">
         <v>61</v>
       </c>
       <c r="G62" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="H62" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="I62" s="0" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="63" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A63" s="0" t="n">
+      <c r="H62" t="s">
+        <v>15</v>
+      </c>
+      <c r="I62" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A63">
         <v>10088</v>
       </c>
-      <c r="B63" s="0" t="s">
+      <c r="B63" t="s">
         <v>48</v>
       </c>
-      <c r="C63" s="0" t="s">
+      <c r="C63" t="s">
         <v>80</v>
       </c>
-      <c r="D63" s="0" t="s">
+      <c r="D63" t="s">
         <v>11</v>
       </c>
       <c r="E63" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="F63" s="0" t="s">
+      <c r="F63" t="s">
         <v>61</v>
       </c>
       <c r="G63" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="H63" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="I63" s="0" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="64" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A64" s="0" t="n">
+      <c r="H63" t="s">
+        <v>15</v>
+      </c>
+      <c r="I63" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A64">
         <v>10089</v>
       </c>
-      <c r="B64" s="0" t="s">
+      <c r="B64" t="s">
         <v>48</v>
       </c>
-      <c r="C64" s="0" t="s">
+      <c r="C64" t="s">
         <v>80</v>
       </c>
-      <c r="D64" s="0" t="s">
+      <c r="D64" t="s">
         <v>11</v>
       </c>
       <c r="E64" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="F64" s="0" t="s">
+      <c r="F64" t="s">
         <v>61</v>
       </c>
       <c r="G64" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="H64" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="I64" s="0" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="65" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A65" s="0" t="n">
+      <c r="H64" t="s">
+        <v>15</v>
+      </c>
+      <c r="I64" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A65">
         <v>10090</v>
       </c>
-      <c r="B65" s="0" t="s">
+      <c r="B65" t="s">
         <v>48</v>
       </c>
-      <c r="C65" s="0" t="s">
+      <c r="C65" t="s">
         <v>80</v>
       </c>
-      <c r="D65" s="0" t="s">
+      <c r="D65" t="s">
         <v>11</v>
       </c>
       <c r="E65" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="F65" s="0" t="s">
+      <c r="F65" t="s">
         <v>61</v>
       </c>
       <c r="G65" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="H65" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="I65" s="0" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="66" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A66" s="0" t="n">
+      <c r="H65" t="s">
+        <v>15</v>
+      </c>
+      <c r="I65" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A66">
         <v>10195</v>
       </c>
-      <c r="B66" s="0" t="s">
+      <c r="B66" t="s">
         <v>53</v>
       </c>
-      <c r="C66" s="0" t="s">
+      <c r="C66" t="s">
         <v>84</v>
       </c>
-      <c r="D66" s="0" t="s">
+      <c r="D66" t="s">
         <v>11</v>
       </c>
       <c r="E66" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="F66" s="0" t="s">
+      <c r="F66" t="s">
         <v>61</v>
       </c>
       <c r="G66" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="H66" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="I66" s="0" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="67" customFormat="false" ht="82.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A67" s="0" t="n">
+      <c r="H66" t="s">
+        <v>15</v>
+      </c>
+      <c r="I66" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A67">
         <v>10196</v>
       </c>
-      <c r="B67" s="0" t="s">
+      <c r="B67" t="s">
         <v>53</v>
       </c>
-      <c r="C67" s="0" t="s">
+      <c r="C67" t="s">
         <v>84</v>
       </c>
-      <c r="D67" s="0" t="s">
+      <c r="D67" t="s">
         <v>11</v>
       </c>
       <c r="E67" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="F67" s="0" t="s">
+      <c r="F67" t="s">
         <v>61</v>
       </c>
       <c r="G67" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="H67" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="I67" s="0" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="68" customFormat="false" ht="70.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A68" s="0" t="n">
+      <c r="H67" t="s">
+        <v>15</v>
+      </c>
+      <c r="I67" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A68">
         <v>10029</v>
       </c>
-      <c r="B68" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="C68" s="0" t="s">
+      <c r="B68" t="s">
+        <v>9</v>
+      </c>
+      <c r="C68" t="s">
         <v>87</v>
       </c>
-      <c r="D68" s="0" t="s">
+      <c r="D68" t="s">
         <v>11</v>
       </c>
       <c r="E68" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="F68" s="0" t="s">
+      <c r="F68" t="s">
         <v>89</v>
       </c>
       <c r="G68" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="H68" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="I68" s="0" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="69" customFormat="false" ht="70.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A69" s="0" t="n">
+      <c r="H68" t="s">
+        <v>15</v>
+      </c>
+      <c r="I68" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A69">
         <v>10030</v>
       </c>
-      <c r="B69" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="C69" s="0" t="s">
+      <c r="B69" t="s">
+        <v>9</v>
+      </c>
+      <c r="C69" t="s">
         <v>87</v>
       </c>
-      <c r="D69" s="0" t="s">
+      <c r="D69" t="s">
         <v>11</v>
       </c>
       <c r="E69" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="F69" s="0" t="s">
+      <c r="F69" t="s">
         <v>89</v>
       </c>
       <c r="G69" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="H69" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="I69" s="0" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="70" customFormat="false" ht="70.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A70" s="0" t="n">
+      <c r="H69" t="s">
+        <v>15</v>
+      </c>
+      <c r="I69" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A70">
         <v>10031</v>
       </c>
-      <c r="B70" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="C70" s="0" t="s">
+      <c r="B70" t="s">
+        <v>9</v>
+      </c>
+      <c r="C70" t="s">
         <v>87</v>
       </c>
-      <c r="D70" s="0" t="s">
+      <c r="D70" t="s">
         <v>11</v>
       </c>
       <c r="E70" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="F70" s="0" t="s">
+      <c r="F70" t="s">
         <v>89</v>
       </c>
       <c r="G70" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="H70" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="I70" s="0" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="71" customFormat="false" ht="70.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A71" s="0" t="n">
+      <c r="H70" t="s">
+        <v>15</v>
+      </c>
+      <c r="I70" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A71">
         <v>10032</v>
       </c>
-      <c r="B71" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="C71" s="0" t="s">
+      <c r="B71" t="s">
+        <v>9</v>
+      </c>
+      <c r="C71" t="s">
         <v>87</v>
       </c>
-      <c r="D71" s="0" t="s">
+      <c r="D71" t="s">
         <v>11</v>
       </c>
       <c r="E71" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="F71" s="0" t="s">
+      <c r="F71" t="s">
         <v>89</v>
       </c>
       <c r="G71" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="H71" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="I71" s="0" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="72" customFormat="false" ht="70.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A72" s="0" t="n">
+      <c r="H71" t="s">
+        <v>15</v>
+      </c>
+      <c r="I71" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A72">
         <v>10033</v>
       </c>
-      <c r="B72" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="C72" s="0" t="s">
+      <c r="B72" t="s">
+        <v>9</v>
+      </c>
+      <c r="C72" t="s">
         <v>87</v>
       </c>
-      <c r="D72" s="0" t="s">
+      <c r="D72" t="s">
         <v>11</v>
       </c>
       <c r="E72" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="F72" s="0" t="s">
+      <c r="F72" t="s">
         <v>89</v>
       </c>
       <c r="G72" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="H72" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="I72" s="0" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="73" customFormat="false" ht="70.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A73" s="0" t="n">
+      <c r="H72" t="s">
+        <v>15</v>
+      </c>
+      <c r="I72" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A73">
         <v>10034</v>
       </c>
-      <c r="B73" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="C73" s="0" t="s">
+      <c r="B73" t="s">
+        <v>9</v>
+      </c>
+      <c r="C73" t="s">
         <v>87</v>
       </c>
-      <c r="D73" s="0" t="s">
+      <c r="D73" t="s">
         <v>11</v>
       </c>
       <c r="E73" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="F73" s="0" t="s">
+      <c r="F73" t="s">
         <v>89</v>
       </c>
       <c r="G73" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="H73" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="I73" s="0" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="74" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A74" s="0" t="n">
+      <c r="H73" t="s">
+        <v>15</v>
+      </c>
+      <c r="I73" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A74">
         <v>10035</v>
       </c>
-      <c r="B74" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="C74" s="0" t="s">
+      <c r="B74" t="s">
+        <v>9</v>
+      </c>
+      <c r="C74" t="s">
         <v>87</v>
       </c>
-      <c r="D74" s="0" t="s">
+      <c r="D74" t="s">
         <v>11</v>
       </c>
       <c r="E74" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="F74" s="0" t="s">
+      <c r="F74" t="s">
         <v>89</v>
       </c>
       <c r="G74" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="H74" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="I74" s="0" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="75" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A75" s="0" t="n">
+      <c r="H74" t="s">
+        <v>15</v>
+      </c>
+      <c r="I74" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A75">
         <v>10036</v>
       </c>
-      <c r="B75" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="C75" s="0" t="s">
+      <c r="B75" t="s">
+        <v>9</v>
+      </c>
+      <c r="C75" t="s">
         <v>87</v>
       </c>
-      <c r="D75" s="0" t="s">
+      <c r="D75" t="s">
         <v>11</v>
       </c>
       <c r="E75" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="F75" s="0" t="s">
+      <c r="F75" t="s">
         <v>89</v>
       </c>
       <c r="G75" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="H75" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="I75" s="0" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="76" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A76" s="0" t="n">
+      <c r="H75" t="s">
+        <v>15</v>
+      </c>
+      <c r="I75" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A76">
         <v>10037</v>
       </c>
-      <c r="B76" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="C76" s="0" t="s">
+      <c r="B76" t="s">
+        <v>9</v>
+      </c>
+      <c r="C76" t="s">
         <v>87</v>
       </c>
-      <c r="D76" s="0" t="s">
+      <c r="D76" t="s">
         <v>11</v>
       </c>
       <c r="E76" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="F76" s="0" t="s">
+      <c r="F76" t="s">
         <v>89</v>
       </c>
       <c r="G76" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="H76" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="I76" s="0" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="77" customFormat="false" ht="70.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A77" s="0" t="n">
+      <c r="H76" t="s">
+        <v>15</v>
+      </c>
+      <c r="I76" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A77">
         <v>10038</v>
       </c>
-      <c r="B77" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="C77" s="0" t="s">
+      <c r="B77" t="s">
+        <v>9</v>
+      </c>
+      <c r="C77" t="s">
         <v>87</v>
       </c>
-      <c r="D77" s="0" t="s">
+      <c r="D77" t="s">
         <v>11</v>
       </c>
       <c r="E77" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="F77" s="0" t="s">
+      <c r="F77" t="s">
         <v>89</v>
       </c>
       <c r="G77" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="H77" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="I77" s="0" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="78" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A78" s="0" t="n">
+      <c r="H77" t="s">
+        <v>15</v>
+      </c>
+      <c r="I77" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A78">
         <v>10039</v>
       </c>
-      <c r="B78" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="C78" s="0" t="s">
+      <c r="B78" t="s">
+        <v>9</v>
+      </c>
+      <c r="C78" t="s">
         <v>87</v>
       </c>
-      <c r="D78" s="0" t="s">
+      <c r="D78" t="s">
         <v>11</v>
       </c>
       <c r="E78" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="F78" s="0" t="s">
+      <c r="F78" t="s">
         <v>89</v>
       </c>
       <c r="G78" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="H78" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="I78" s="0" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="79" customFormat="false" ht="70.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A79" s="0" t="n">
+      <c r="H78" t="s">
+        <v>15</v>
+      </c>
+      <c r="I78" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A79">
         <v>10040</v>
       </c>
-      <c r="B79" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="C79" s="0" t="s">
+      <c r="B79" t="s">
+        <v>9</v>
+      </c>
+      <c r="C79" t="s">
         <v>87</v>
       </c>
-      <c r="D79" s="0" t="s">
+      <c r="D79" t="s">
         <v>11</v>
       </c>
       <c r="E79" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="F79" s="0" t="s">
+      <c r="F79" t="s">
         <v>89</v>
       </c>
       <c r="G79" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="H79" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="I79" s="0" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="80" customFormat="false" ht="70.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A80" s="0" t="n">
+      <c r="H79" t="s">
+        <v>15</v>
+      </c>
+      <c r="I79" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A80">
         <v>10041</v>
       </c>
-      <c r="B80" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="C80" s="0" t="s">
+      <c r="B80" t="s">
+        <v>9</v>
+      </c>
+      <c r="C80" t="s">
         <v>87</v>
       </c>
-      <c r="D80" s="0" t="s">
+      <c r="D80" t="s">
         <v>11</v>
       </c>
       <c r="E80" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="F80" s="0" t="s">
+      <c r="F80" t="s">
         <v>89</v>
       </c>
       <c r="G80" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="H80" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="I80" s="0" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="81" customFormat="false" ht="85.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A81" s="0" t="n">
+      <c r="H80" t="s">
+        <v>15</v>
+      </c>
+      <c r="I80" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A81">
         <v>10042</v>
       </c>
-      <c r="B81" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="C81" s="0" t="s">
+      <c r="B81" t="s">
+        <v>9</v>
+      </c>
+      <c r="C81" t="s">
         <v>87</v>
       </c>
-      <c r="D81" s="0" t="s">
+      <c r="D81" t="s">
         <v>11</v>
       </c>
       <c r="E81" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="F81" s="0" t="s">
+      <c r="F81" t="s">
         <v>89</v>
       </c>
       <c r="G81" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="H81" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="I81" s="0" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="82" customFormat="false" ht="83.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A82" s="0" t="n">
+      <c r="H81" t="s">
+        <v>15</v>
+      </c>
+      <c r="I81" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9" ht="87" x14ac:dyDescent="0.35">
+      <c r="A82">
         <v>10117</v>
       </c>
-      <c r="B82" s="0" t="s">
+      <c r="B82" t="s">
         <v>30</v>
       </c>
-      <c r="C82" s="0" t="s">
+      <c r="C82" t="s">
         <v>99</v>
       </c>
-      <c r="D82" s="0" t="s">
+      <c r="D82" t="s">
         <v>11</v>
       </c>
       <c r="E82" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="F82" s="0" t="s">
+      <c r="F82" t="s">
         <v>89</v>
       </c>
       <c r="G82" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="H82" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="I82" s="0" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="83" customFormat="false" ht="70.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A83" s="0" t="n">
+      <c r="H82" t="s">
+        <v>15</v>
+      </c>
+      <c r="I82" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A83">
         <v>10118</v>
       </c>
-      <c r="B83" s="0" t="s">
+      <c r="B83" t="s">
         <v>30</v>
       </c>
-      <c r="C83" s="0" t="s">
+      <c r="C83" t="s">
         <v>99</v>
       </c>
-      <c r="D83" s="0" t="s">
+      <c r="D83" t="s">
         <v>11</v>
       </c>
       <c r="E83" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="F83" s="0" t="s">
+      <c r="F83" t="s">
         <v>89</v>
       </c>
       <c r="G83" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="H83" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="I83" s="0" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="84" customFormat="false" ht="70.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A84" s="0" t="n">
+      <c r="H83" t="s">
+        <v>15</v>
+      </c>
+      <c r="I83" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A84">
         <v>10119</v>
       </c>
-      <c r="B84" s="0" t="s">
+      <c r="B84" t="s">
         <v>30</v>
       </c>
-      <c r="C84" s="0" t="s">
+      <c r="C84" t="s">
         <v>99</v>
       </c>
-      <c r="D84" s="0" t="s">
+      <c r="D84" t="s">
         <v>11</v>
       </c>
       <c r="E84" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="F84" s="0" t="s">
+      <c r="F84" t="s">
         <v>89</v>
       </c>
       <c r="G84" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="H84" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="I84" s="0" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="85" customFormat="false" ht="70.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A85" s="0" t="n">
+      <c r="H84" t="s">
+        <v>15</v>
+      </c>
+      <c r="I84" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A85">
         <v>10120</v>
       </c>
-      <c r="B85" s="0" t="s">
+      <c r="B85" t="s">
         <v>30</v>
       </c>
-      <c r="C85" s="0" t="s">
+      <c r="C85" t="s">
         <v>99</v>
       </c>
-      <c r="D85" s="0" t="s">
+      <c r="D85" t="s">
         <v>11</v>
       </c>
       <c r="E85" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="F85" s="0" t="s">
+      <c r="F85" t="s">
         <v>89</v>
       </c>
       <c r="G85" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="H85" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="I85" s="0" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="86" customFormat="false" ht="98.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A86" s="0" t="n">
+      <c r="H85" t="s">
+        <v>15</v>
+      </c>
+      <c r="I85" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9" ht="101.5" x14ac:dyDescent="0.35">
+      <c r="A86">
         <v>10121</v>
       </c>
-      <c r="B86" s="0" t="s">
+      <c r="B86" t="s">
         <v>30</v>
       </c>
-      <c r="C86" s="0" t="s">
+      <c r="C86" t="s">
         <v>99</v>
       </c>
-      <c r="D86" s="0" t="s">
+      <c r="D86" t="s">
         <v>11</v>
       </c>
       <c r="E86" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="F86" s="0" t="s">
+      <c r="F86" t="s">
         <v>89</v>
       </c>
       <c r="G86" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="H86" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="I86" s="0" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="87" customFormat="false" ht="70.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A87" s="0" t="n">
+      <c r="H86" t="s">
+        <v>15</v>
+      </c>
+      <c r="I86" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A87">
         <v>10122</v>
       </c>
-      <c r="B87" s="0" t="s">
+      <c r="B87" t="s">
         <v>30</v>
       </c>
-      <c r="C87" s="0" t="s">
+      <c r="C87" t="s">
         <v>99</v>
       </c>
-      <c r="D87" s="0" t="s">
+      <c r="D87" t="s">
         <v>11</v>
       </c>
       <c r="E87" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="F87" s="0" t="s">
+      <c r="F87" t="s">
         <v>89</v>
       </c>
       <c r="G87" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="H87" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="I87" s="0" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="88" customFormat="false" ht="70.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A88" s="0" t="n">
+      <c r="H87" t="s">
+        <v>15</v>
+      </c>
+      <c r="I87" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A88">
         <v>10123</v>
       </c>
-      <c r="B88" s="0" t="s">
+      <c r="B88" t="s">
         <v>30</v>
       </c>
-      <c r="C88" s="0" t="s">
+      <c r="C88" t="s">
         <v>99</v>
       </c>
-      <c r="D88" s="0" t="s">
+      <c r="D88" t="s">
         <v>11</v>
       </c>
       <c r="E88" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="F88" s="0" t="s">
+      <c r="F88" t="s">
         <v>89</v>
       </c>
       <c r="G88" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="H88" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="I88" s="0" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="89" customFormat="false" ht="98.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A89" s="0" t="n">
+      <c r="H88" t="s">
+        <v>15</v>
+      </c>
+      <c r="I88" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9" ht="87" x14ac:dyDescent="0.35">
+      <c r="A89">
         <v>10185</v>
       </c>
-      <c r="B89" s="0" t="s">
+      <c r="B89" t="s">
         <v>39</v>
       </c>
-      <c r="C89" s="0" t="s">
+      <c r="C89" t="s">
         <v>107</v>
       </c>
-      <c r="D89" s="0" t="s">
+      <c r="D89" t="s">
         <v>11</v>
       </c>
       <c r="E89" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="F89" s="0" t="s">
+      <c r="F89" t="s">
         <v>89</v>
       </c>
       <c r="G89" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="H89" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="I89" s="0" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="90" customFormat="false" ht="83.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A90" s="0" t="n">
+      <c r="H89" t="s">
+        <v>15</v>
+      </c>
+      <c r="I89" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9" ht="87" x14ac:dyDescent="0.35">
+      <c r="A90">
         <v>10186</v>
       </c>
-      <c r="B90" s="0" t="s">
+      <c r="B90" t="s">
         <v>39</v>
       </c>
-      <c r="C90" s="0" t="s">
+      <c r="C90" t="s">
         <v>107</v>
       </c>
-      <c r="D90" s="0" t="s">
+      <c r="D90" t="s">
         <v>11</v>
       </c>
       <c r="E90" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="F90" s="0" t="s">
+      <c r="F90" t="s">
         <v>89</v>
       </c>
       <c r="G90" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="H90" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="I90" s="0" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="91" customFormat="false" ht="70.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A91" s="0" t="n">
+      <c r="H90" t="s">
+        <v>15</v>
+      </c>
+      <c r="I90" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A91">
         <v>10151</v>
       </c>
-      <c r="B91" s="0" t="s">
+      <c r="B91" t="s">
         <v>43</v>
       </c>
-      <c r="C91" s="0" t="s">
+      <c r="C91" t="s">
         <v>110</v>
       </c>
-      <c r="D91" s="0" t="s">
+      <c r="D91" t="s">
         <v>11</v>
       </c>
       <c r="E91" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="F91" s="0" t="s">
+      <c r="F91" t="s">
         <v>89</v>
       </c>
       <c r="G91" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="H91" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="I91" s="0" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="92" customFormat="false" ht="85.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A92" s="0" t="n">
+      <c r="H91" t="s">
+        <v>15</v>
+      </c>
+      <c r="I91" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9" ht="87" x14ac:dyDescent="0.35">
+      <c r="A92">
         <v>10152</v>
       </c>
-      <c r="B92" s="0" t="s">
+      <c r="B92" t="s">
         <v>43</v>
       </c>
-      <c r="C92" s="0" t="s">
+      <c r="C92" t="s">
         <v>110</v>
       </c>
-      <c r="D92" s="0" t="s">
+      <c r="D92" t="s">
         <v>11</v>
       </c>
       <c r="E92" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="F92" s="0" t="s">
+      <c r="F92" t="s">
         <v>89</v>
       </c>
       <c r="G92" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="H92" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="I92" s="0" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="93" customFormat="false" ht="85.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A93" s="0" t="n">
+      <c r="H92" t="s">
+        <v>15</v>
+      </c>
+      <c r="I92" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9" ht="87" x14ac:dyDescent="0.35">
+      <c r="A93">
         <v>10153</v>
       </c>
-      <c r="B93" s="0" t="s">
+      <c r="B93" t="s">
         <v>43</v>
       </c>
-      <c r="C93" s="0" t="s">
+      <c r="C93" t="s">
         <v>110</v>
       </c>
-      <c r="D93" s="0" t="s">
+      <c r="D93" t="s">
         <v>11</v>
       </c>
       <c r="E93" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="F93" s="0" t="s">
+      <c r="F93" t="s">
         <v>89</v>
       </c>
       <c r="G93" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="H93" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="I93" s="0" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="94" customFormat="false" ht="70.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A94" s="0" t="n">
+      <c r="H93" t="s">
+        <v>15</v>
+      </c>
+      <c r="I93" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A94">
         <v>10091</v>
       </c>
-      <c r="B94" s="0" t="s">
+      <c r="B94" t="s">
         <v>48</v>
       </c>
-      <c r="C94" s="0" t="s">
+      <c r="C94" t="s">
         <v>114</v>
       </c>
-      <c r="D94" s="0" t="s">
+      <c r="D94" t="s">
         <v>11</v>
       </c>
       <c r="E94" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="F94" s="0" t="s">
+      <c r="F94" t="s">
         <v>89</v>
       </c>
       <c r="G94" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="H94" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="I94" s="0" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="95" customFormat="false" ht="70.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A95" s="0" t="n">
+      <c r="H94" t="s">
+        <v>15</v>
+      </c>
+      <c r="I94" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A95">
         <v>10092</v>
       </c>
-      <c r="B95" s="0" t="s">
+      <c r="B95" t="s">
         <v>48</v>
       </c>
-      <c r="C95" s="0" t="s">
+      <c r="C95" t="s">
         <v>114</v>
       </c>
-      <c r="D95" s="0" t="s">
+      <c r="D95" t="s">
         <v>11</v>
       </c>
       <c r="E95" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="F95" s="0" t="s">
+      <c r="F95" t="s">
         <v>89</v>
       </c>
       <c r="G95" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="H95" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="I95" s="0" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="96" customFormat="false" ht="70.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A96" s="0" t="n">
+      <c r="H95" t="s">
+        <v>15</v>
+      </c>
+      <c r="I95" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A96">
         <v>10093</v>
       </c>
-      <c r="B96" s="0" t="s">
+      <c r="B96" t="s">
         <v>48</v>
       </c>
-      <c r="C96" s="0" t="s">
+      <c r="C96" t="s">
         <v>114</v>
       </c>
-      <c r="D96" s="0" t="s">
+      <c r="D96" t="s">
         <v>11</v>
       </c>
       <c r="E96" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="F96" s="0" t="s">
+      <c r="F96" t="s">
         <v>89</v>
       </c>
       <c r="G96" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="H96" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="I96" s="0" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="97" customFormat="false" ht="70.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A97" s="0" t="n">
+      <c r="H96" t="s">
+        <v>15</v>
+      </c>
+      <c r="I96" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A97">
         <v>10197</v>
       </c>
-      <c r="B97" s="0" t="s">
+      <c r="B97" t="s">
         <v>53</v>
       </c>
-      <c r="C97" s="0" t="s">
+      <c r="C97" t="s">
         <v>118</v>
       </c>
-      <c r="D97" s="0" t="s">
+      <c r="D97" t="s">
         <v>11</v>
       </c>
       <c r="E97" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="F97" s="0" t="s">
+      <c r="F97" t="s">
         <v>89</v>
       </c>
       <c r="G97" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="H97" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="I97" s="0" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="98" customFormat="false" ht="70.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A98" s="0" t="n">
+      <c r="H97" t="s">
+        <v>15</v>
+      </c>
+      <c r="I97" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A98">
         <v>10198</v>
       </c>
-      <c r="B98" s="0" t="s">
+      <c r="B98" t="s">
         <v>53</v>
       </c>
-      <c r="C98" s="0" t="s">
+      <c r="C98" t="s">
         <v>118</v>
       </c>
-      <c r="D98" s="0" t="s">
+      <c r="D98" t="s">
         <v>11</v>
       </c>
       <c r="E98" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="F98" s="0" t="s">
+      <c r="F98" t="s">
         <v>89</v>
       </c>
       <c r="G98" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="H98" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="I98" s="0" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="99" customFormat="false" ht="29.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A99" s="2" t="n">
+      <c r="H98" t="s">
+        <v>15</v>
+      </c>
+      <c r="I98" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9" ht="29" x14ac:dyDescent="0.35">
+      <c r="A99" s="2">
         <v>10167</v>
       </c>
       <c r="B99" s="2" t="s">
@@ -4459,8 +4749,8 @@
         <v>16</v>
       </c>
     </row>
-    <row r="100" customFormat="false" ht="29.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A100" s="2" t="n">
+    <row r="100" spans="1:9" ht="29" x14ac:dyDescent="0.35">
+      <c r="A100" s="2">
         <v>10168</v>
       </c>
       <c r="B100" s="2" t="s">
@@ -4485,8 +4775,8 @@
         <v>16</v>
       </c>
     </row>
-    <row r="101" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A101" s="2" t="n">
+    <row r="101" spans="1:9" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A101" s="2">
         <v>10169</v>
       </c>
       <c r="B101" s="2" t="s">
@@ -4511,8 +4801,8 @@
         <v>16</v>
       </c>
     </row>
-    <row r="102" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A102" s="2" t="n">
+    <row r="102" spans="1:9" ht="29" x14ac:dyDescent="0.35">
+      <c r="A102" s="2">
         <v>10170</v>
       </c>
       <c r="B102" s="2" t="s">
@@ -4537,8 +4827,8 @@
         <v>16</v>
       </c>
     </row>
-    <row r="103" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A103" s="2" t="n">
+    <row r="103" spans="1:9" ht="29" x14ac:dyDescent="0.35">
+      <c r="A103" s="2">
         <v>10171</v>
       </c>
       <c r="B103" s="2" t="s">
@@ -4563,907 +4853,907 @@
         <v>16</v>
       </c>
     </row>
-    <row r="104" customFormat="false" ht="70.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A104" s="0" t="n">
+    <row r="104" spans="1:9" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A104">
         <v>10043</v>
       </c>
-      <c r="B104" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="C104" s="0" t="s">
+      <c r="B104" t="s">
+        <v>9</v>
+      </c>
+      <c r="C104" t="s">
         <v>124</v>
       </c>
-      <c r="D104" s="0" t="s">
+      <c r="D104" t="s">
         <v>11</v>
       </c>
       <c r="E104" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="F104" s="0" t="s">
+      <c r="F104" t="s">
         <v>126</v>
       </c>
       <c r="G104" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="H104" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="I104" s="0" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="105" customFormat="false" ht="70.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A105" s="0" t="n">
+      <c r="H104" t="s">
+        <v>15</v>
+      </c>
+      <c r="I104" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="105" spans="1:9" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A105">
         <v>10044</v>
       </c>
-      <c r="B105" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="C105" s="0" t="s">
+      <c r="B105" t="s">
+        <v>9</v>
+      </c>
+      <c r="C105" t="s">
         <v>124</v>
       </c>
-      <c r="D105" s="0" t="s">
+      <c r="D105" t="s">
         <v>11</v>
       </c>
       <c r="E105" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="F105" s="0" t="s">
+      <c r="F105" t="s">
         <v>126</v>
       </c>
       <c r="G105" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="H105" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="I105" s="0" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="106" customFormat="false" ht="70.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A106" s="0" t="n">
+      <c r="H105" t="s">
+        <v>15</v>
+      </c>
+      <c r="I105" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="106" spans="1:9" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A106">
         <v>10045</v>
       </c>
-      <c r="B106" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="C106" s="0" t="s">
+      <c r="B106" t="s">
+        <v>9</v>
+      </c>
+      <c r="C106" t="s">
         <v>124</v>
       </c>
-      <c r="D106" s="0" t="s">
+      <c r="D106" t="s">
         <v>11</v>
       </c>
       <c r="E106" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="F106" s="0" t="s">
+      <c r="F106" t="s">
         <v>126</v>
       </c>
       <c r="G106" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="H106" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="I106" s="0" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="107" customFormat="false" ht="70.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A107" s="0" t="n">
+      <c r="H106" t="s">
+        <v>15</v>
+      </c>
+      <c r="I106" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="107" spans="1:9" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A107">
         <v>10046</v>
       </c>
-      <c r="B107" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="C107" s="0" t="s">
+      <c r="B107" t="s">
+        <v>9</v>
+      </c>
+      <c r="C107" t="s">
         <v>124</v>
       </c>
-      <c r="D107" s="0" t="s">
+      <c r="D107" t="s">
         <v>11</v>
       </c>
       <c r="E107" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="F107" s="0" t="s">
+      <c r="F107" t="s">
         <v>126</v>
       </c>
       <c r="G107" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="H107" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="I107" s="0" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="108" customFormat="false" ht="70.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A108" s="0" t="n">
+      <c r="H107" t="s">
+        <v>15</v>
+      </c>
+      <c r="I107" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="108" spans="1:9" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A108">
         <v>10047</v>
       </c>
-      <c r="B108" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="C108" s="0" t="s">
+      <c r="B108" t="s">
+        <v>9</v>
+      </c>
+      <c r="C108" t="s">
         <v>124</v>
       </c>
-      <c r="D108" s="0" t="s">
+      <c r="D108" t="s">
         <v>11</v>
       </c>
       <c r="E108" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="F108" s="0" t="s">
+      <c r="F108" t="s">
         <v>126</v>
       </c>
       <c r="G108" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="H108" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="I108" s="0" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="109" customFormat="false" ht="70.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A109" s="0" t="n">
+      <c r="H108" t="s">
+        <v>15</v>
+      </c>
+      <c r="I108" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="109" spans="1:9" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A109">
         <v>10048</v>
       </c>
-      <c r="B109" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="C109" s="0" t="s">
+      <c r="B109" t="s">
+        <v>9</v>
+      </c>
+      <c r="C109" t="s">
         <v>124</v>
       </c>
-      <c r="D109" s="0" t="s">
+      <c r="D109" t="s">
         <v>11</v>
       </c>
       <c r="E109" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="F109" s="0" t="s">
+      <c r="F109" t="s">
         <v>126</v>
       </c>
       <c r="G109" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="H109" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="I109" s="0" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="110" customFormat="false" ht="70.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A110" s="0" t="n">
+      <c r="H109" t="s">
+        <v>15</v>
+      </c>
+      <c r="I109" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="110" spans="1:9" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A110">
         <v>10049</v>
       </c>
-      <c r="B110" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="C110" s="0" t="s">
+      <c r="B110" t="s">
+        <v>9</v>
+      </c>
+      <c r="C110" t="s">
         <v>124</v>
       </c>
-      <c r="D110" s="0" t="s">
+      <c r="D110" t="s">
         <v>11</v>
       </c>
       <c r="E110" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="F110" s="0" t="s">
+      <c r="F110" t="s">
         <v>126</v>
       </c>
       <c r="G110" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="H110" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="I110" s="0" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="111" customFormat="false" ht="70.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A111" s="0" t="n">
+      <c r="H110" t="s">
+        <v>15</v>
+      </c>
+      <c r="I110" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="111" spans="1:9" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A111">
         <v>10050</v>
       </c>
-      <c r="B111" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="C111" s="0" t="s">
+      <c r="B111" t="s">
+        <v>9</v>
+      </c>
+      <c r="C111" t="s">
         <v>124</v>
       </c>
-      <c r="D111" s="0" t="s">
+      <c r="D111" t="s">
         <v>11</v>
       </c>
       <c r="E111" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="F111" s="0" t="s">
+      <c r="F111" t="s">
         <v>126</v>
       </c>
       <c r="G111" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="H111" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="I111" s="0" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="112" customFormat="false" ht="70.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A112" s="0" t="n">
+      <c r="H111" t="s">
+        <v>15</v>
+      </c>
+      <c r="I111" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="112" spans="1:9" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A112">
         <v>10051</v>
       </c>
-      <c r="B112" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="C112" s="0" t="s">
+      <c r="B112" t="s">
+        <v>9</v>
+      </c>
+      <c r="C112" t="s">
         <v>124</v>
       </c>
-      <c r="D112" s="0" t="s">
+      <c r="D112" t="s">
         <v>11</v>
       </c>
       <c r="E112" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="F112" s="0" t="s">
+      <c r="F112" t="s">
         <v>126</v>
       </c>
       <c r="G112" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="H112" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="I112" s="0" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="113" customFormat="false" ht="70.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A113" s="0" t="n">
+      <c r="H112" t="s">
+        <v>15</v>
+      </c>
+      <c r="I112" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="113" spans="1:9" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A113">
         <v>10052</v>
       </c>
-      <c r="B113" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="C113" s="0" t="s">
+      <c r="B113" t="s">
+        <v>9</v>
+      </c>
+      <c r="C113" t="s">
         <v>124</v>
       </c>
-      <c r="D113" s="0" t="s">
+      <c r="D113" t="s">
         <v>11</v>
       </c>
       <c r="E113" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="F113" s="0" t="s">
+      <c r="F113" t="s">
         <v>126</v>
       </c>
       <c r="G113" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="H113" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="I113" s="0" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="114" customFormat="false" ht="70.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A114" s="0" t="n">
+      <c r="H113" t="s">
+        <v>15</v>
+      </c>
+      <c r="I113" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="114" spans="1:9" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A114">
         <v>10053</v>
       </c>
-      <c r="B114" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="C114" s="0" t="s">
+      <c r="B114" t="s">
+        <v>9</v>
+      </c>
+      <c r="C114" t="s">
         <v>124</v>
       </c>
-      <c r="D114" s="0" t="s">
+      <c r="D114" t="s">
         <v>11</v>
       </c>
       <c r="E114" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="F114" s="0" t="s">
+      <c r="F114" t="s">
         <v>126</v>
       </c>
       <c r="G114" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="H114" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="I114" s="0" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="115" customFormat="false" ht="70.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A115" s="0" t="n">
+      <c r="H114" t="s">
+        <v>15</v>
+      </c>
+      <c r="I114" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="115" spans="1:9" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A115">
         <v>10054</v>
       </c>
-      <c r="B115" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="C115" s="0" t="s">
+      <c r="B115" t="s">
+        <v>9</v>
+      </c>
+      <c r="C115" t="s">
         <v>124</v>
       </c>
-      <c r="D115" s="0" t="s">
+      <c r="D115" t="s">
         <v>11</v>
       </c>
       <c r="E115" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="F115" s="0" t="s">
+      <c r="F115" t="s">
         <v>126</v>
       </c>
       <c r="G115" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="H115" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="I115" s="0" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="116" customFormat="false" ht="70.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A116" s="0" t="n">
+      <c r="H115" t="s">
+        <v>15</v>
+      </c>
+      <c r="I115" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="116" spans="1:9" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A116">
         <v>10055</v>
       </c>
-      <c r="B116" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="C116" s="0" t="s">
+      <c r="B116" t="s">
+        <v>9</v>
+      </c>
+      <c r="C116" t="s">
         <v>124</v>
       </c>
-      <c r="D116" s="0" t="s">
+      <c r="D116" t="s">
         <v>11</v>
       </c>
       <c r="E116" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="F116" s="0" t="s">
+      <c r="F116" t="s">
         <v>126</v>
       </c>
       <c r="G116" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="H116" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="I116" s="0" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="117" customFormat="false" ht="83.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A117" s="0" t="n">
+      <c r="H116" t="s">
+        <v>15</v>
+      </c>
+      <c r="I116" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="117" spans="1:9" ht="87" x14ac:dyDescent="0.35">
+      <c r="A117">
         <v>10056</v>
       </c>
-      <c r="B117" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="C117" s="0" t="s">
+      <c r="B117" t="s">
+        <v>9</v>
+      </c>
+      <c r="C117" t="s">
         <v>124</v>
       </c>
-      <c r="D117" s="0" t="s">
+      <c r="D117" t="s">
         <v>11</v>
       </c>
       <c r="E117" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="F117" s="0" t="s">
+      <c r="F117" t="s">
         <v>126</v>
       </c>
       <c r="G117" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="H117" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="I117" s="0" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="118" customFormat="false" ht="70.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A118" s="0" t="n">
+      <c r="H117" t="s">
+        <v>15</v>
+      </c>
+      <c r="I117" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="118" spans="1:9" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A118">
         <v>10124</v>
       </c>
-      <c r="B118" s="0" t="s">
+      <c r="B118" t="s">
         <v>30</v>
       </c>
-      <c r="C118" s="0" t="s">
+      <c r="C118" t="s">
         <v>140</v>
       </c>
-      <c r="D118" s="0" t="s">
+      <c r="D118" t="s">
         <v>11</v>
       </c>
       <c r="E118" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="F118" s="0" t="s">
+      <c r="F118" t="s">
         <v>126</v>
       </c>
       <c r="G118" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="H118" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="I118" s="0" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="119" customFormat="false" ht="70.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A119" s="0" t="n">
+      <c r="H118" t="s">
+        <v>15</v>
+      </c>
+      <c r="I118" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="119" spans="1:9" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A119">
         <v>10125</v>
       </c>
-      <c r="B119" s="0" t="s">
+      <c r="B119" t="s">
         <v>30</v>
       </c>
-      <c r="C119" s="0" t="s">
+      <c r="C119" t="s">
         <v>140</v>
       </c>
-      <c r="D119" s="0" t="s">
+      <c r="D119" t="s">
         <v>11</v>
       </c>
       <c r="E119" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="F119" s="0" t="s">
+      <c r="F119" t="s">
         <v>126</v>
       </c>
       <c r="G119" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="H119" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="I119" s="0" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="120" customFormat="false" ht="70.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A120" s="0" t="n">
+      <c r="H119" t="s">
+        <v>15</v>
+      </c>
+      <c r="I119" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="120" spans="1:9" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A120">
         <v>10126</v>
       </c>
-      <c r="B120" s="0" t="s">
+      <c r="B120" t="s">
         <v>30</v>
       </c>
-      <c r="C120" s="0" t="s">
+      <c r="C120" t="s">
         <v>140</v>
       </c>
-      <c r="D120" s="0" t="s">
+      <c r="D120" t="s">
         <v>11</v>
       </c>
       <c r="E120" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="F120" s="0" t="s">
+      <c r="F120" t="s">
         <v>126</v>
       </c>
       <c r="G120" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="H120" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="I120" s="0" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="121" customFormat="false" ht="85.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A121" s="0" t="n">
+      <c r="H120" t="s">
+        <v>15</v>
+      </c>
+      <c r="I120" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="121" spans="1:9" ht="87" x14ac:dyDescent="0.35">
+      <c r="A121">
         <v>10127</v>
       </c>
-      <c r="B121" s="0" t="s">
+      <c r="B121" t="s">
         <v>30</v>
       </c>
-      <c r="C121" s="0" t="s">
+      <c r="C121" t="s">
         <v>140</v>
       </c>
-      <c r="D121" s="0" t="s">
+      <c r="D121" t="s">
         <v>11</v>
       </c>
       <c r="E121" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="F121" s="0" t="s">
+      <c r="F121" t="s">
         <v>126</v>
       </c>
       <c r="G121" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="H121" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="I121" s="0" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="122" customFormat="false" ht="83.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A122" s="0" t="n">
+      <c r="H121" t="s">
+        <v>15</v>
+      </c>
+      <c r="I121" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="122" spans="1:9" ht="101.5" x14ac:dyDescent="0.35">
+      <c r="A122">
         <v>10128</v>
       </c>
-      <c r="B122" s="0" t="s">
+      <c r="B122" t="s">
         <v>30</v>
       </c>
-      <c r="C122" s="0" t="s">
+      <c r="C122" t="s">
         <v>140</v>
       </c>
-      <c r="D122" s="0" t="s">
+      <c r="D122" t="s">
         <v>11</v>
       </c>
       <c r="E122" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="F122" s="0" t="s">
+      <c r="F122" t="s">
         <v>126</v>
       </c>
       <c r="G122" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="H122" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="I122" s="0" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="123" customFormat="false" ht="83.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A123" s="0" t="n">
+      <c r="H122" t="s">
+        <v>15</v>
+      </c>
+      <c r="I122" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="123" spans="1:9" ht="87" x14ac:dyDescent="0.35">
+      <c r="A123">
         <v>10129</v>
       </c>
-      <c r="B123" s="0" t="s">
+      <c r="B123" t="s">
         <v>30</v>
       </c>
-      <c r="C123" s="0" t="s">
+      <c r="C123" t="s">
         <v>140</v>
       </c>
-      <c r="D123" s="0" t="s">
+      <c r="D123" t="s">
         <v>11</v>
       </c>
       <c r="E123" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="F123" s="0" t="s">
+      <c r="F123" t="s">
         <v>126</v>
       </c>
       <c r="G123" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="H123" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="I123" s="0" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="124" customFormat="false" ht="83.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A124" s="0" t="n">
+      <c r="H123" t="s">
+        <v>15</v>
+      </c>
+      <c r="I123" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="124" spans="1:9" ht="87" x14ac:dyDescent="0.35">
+      <c r="A124">
         <v>10130</v>
       </c>
-      <c r="B124" s="0" t="s">
+      <c r="B124" t="s">
         <v>30</v>
       </c>
-      <c r="C124" s="0" t="s">
+      <c r="C124" t="s">
         <v>140</v>
       </c>
-      <c r="D124" s="0" t="s">
+      <c r="D124" t="s">
         <v>11</v>
       </c>
       <c r="E124" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="F124" s="0" t="s">
+      <c r="F124" t="s">
         <v>126</v>
       </c>
       <c r="G124" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="H124" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="I124" s="0" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="125" customFormat="false" ht="98.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A125" s="0" t="n">
+      <c r="H124" t="s">
+        <v>15</v>
+      </c>
+      <c r="I124" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="125" spans="1:9" ht="101.5" x14ac:dyDescent="0.35">
+      <c r="A125">
         <v>10187</v>
       </c>
-      <c r="B125" s="0" t="s">
+      <c r="B125" t="s">
         <v>39</v>
       </c>
-      <c r="C125" s="0" t="s">
+      <c r="C125" t="s">
         <v>148</v>
       </c>
-      <c r="D125" s="0" t="s">
+      <c r="D125" t="s">
         <v>11</v>
       </c>
       <c r="E125" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="F125" s="0" t="s">
+      <c r="F125" t="s">
         <v>126</v>
       </c>
       <c r="G125" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="H125" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="I125" s="0" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="126" customFormat="false" ht="98.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A126" s="0" t="n">
+      <c r="H125" t="s">
+        <v>15</v>
+      </c>
+      <c r="I125" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="126" spans="1:9" ht="101.5" x14ac:dyDescent="0.35">
+      <c r="A126">
         <v>10188</v>
       </c>
-      <c r="B126" s="0" t="s">
+      <c r="B126" t="s">
         <v>39</v>
       </c>
-      <c r="C126" s="0" t="s">
+      <c r="C126" t="s">
         <v>148</v>
       </c>
-      <c r="D126" s="0" t="s">
+      <c r="D126" t="s">
         <v>11</v>
       </c>
       <c r="E126" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="F126" s="0" t="s">
+      <c r="F126" t="s">
         <v>126</v>
       </c>
       <c r="G126" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="H126" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="I126" s="0" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="127" customFormat="false" ht="70.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A127" s="0" t="n">
+      <c r="H126" t="s">
+        <v>15</v>
+      </c>
+      <c r="I126" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="127" spans="1:9" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A127">
         <v>10154</v>
       </c>
-      <c r="B127" s="0" t="s">
+      <c r="B127" t="s">
         <v>43</v>
       </c>
-      <c r="C127" s="0" t="s">
+      <c r="C127" t="s">
         <v>151</v>
       </c>
-      <c r="D127" s="0" t="s">
+      <c r="D127" t="s">
         <v>11</v>
       </c>
       <c r="E127" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="F127" s="0" t="s">
+      <c r="F127" t="s">
         <v>126</v>
       </c>
       <c r="G127" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="H127" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="I127" s="0" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="128" customFormat="false" ht="85.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A128" s="0" t="n">
+      <c r="H127" t="s">
+        <v>15</v>
+      </c>
+      <c r="I127" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="128" spans="1:9" ht="87" x14ac:dyDescent="0.35">
+      <c r="A128">
         <v>10155</v>
       </c>
-      <c r="B128" s="0" t="s">
+      <c r="B128" t="s">
         <v>43</v>
       </c>
-      <c r="C128" s="0" t="s">
+      <c r="C128" t="s">
         <v>151</v>
       </c>
-      <c r="D128" s="0" t="s">
+      <c r="D128" t="s">
         <v>11</v>
       </c>
       <c r="E128" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="F128" s="0" t="s">
+      <c r="F128" t="s">
         <v>126</v>
       </c>
       <c r="G128" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="H128" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="I128" s="0" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="129" customFormat="false" ht="85.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A129" s="0" t="n">
+      <c r="H128" t="s">
+        <v>15</v>
+      </c>
+      <c r="I128" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="129" spans="1:9" ht="87" x14ac:dyDescent="0.35">
+      <c r="A129">
         <v>10156</v>
       </c>
-      <c r="B129" s="0" t="s">
+      <c r="B129" t="s">
         <v>43</v>
       </c>
-      <c r="C129" s="0" t="s">
+      <c r="C129" t="s">
         <v>151</v>
       </c>
-      <c r="D129" s="0" t="s">
+      <c r="D129" t="s">
         <v>11</v>
       </c>
       <c r="E129" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="F129" s="0" t="s">
+      <c r="F129" t="s">
         <v>126</v>
       </c>
       <c r="G129" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="H129" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="I129" s="0" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="130" customFormat="false" ht="70.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A130" s="0" t="n">
+      <c r="H129" t="s">
+        <v>15</v>
+      </c>
+      <c r="I129" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="130" spans="1:9" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A130">
         <v>10094</v>
       </c>
-      <c r="B130" s="0" t="s">
+      <c r="B130" t="s">
         <v>48</v>
       </c>
-      <c r="C130" s="0" t="s">
+      <c r="C130" t="s">
         <v>155</v>
       </c>
-      <c r="D130" s="0" t="s">
+      <c r="D130" t="s">
         <v>11</v>
       </c>
       <c r="E130" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="F130" s="0" t="s">
+      <c r="F130" t="s">
         <v>126</v>
       </c>
       <c r="G130" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="H130" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="I130" s="0" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="131" customFormat="false" ht="70.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A131" s="0" t="n">
+      <c r="H130" t="s">
+        <v>15</v>
+      </c>
+      <c r="I130" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="131" spans="1:9" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A131">
         <v>10095</v>
       </c>
-      <c r="B131" s="0" t="s">
+      <c r="B131" t="s">
         <v>48</v>
       </c>
-      <c r="C131" s="0" t="s">
+      <c r="C131" t="s">
         <v>155</v>
       </c>
-      <c r="D131" s="0" t="s">
+      <c r="D131" t="s">
         <v>11</v>
       </c>
       <c r="E131" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="F131" s="0" t="s">
+      <c r="F131" t="s">
         <v>126</v>
       </c>
       <c r="G131" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="H131" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="I131" s="0" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="132" customFormat="false" ht="70.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A132" s="0" t="n">
+      <c r="H131" t="s">
+        <v>15</v>
+      </c>
+      <c r="I131" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="132" spans="1:9" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A132">
         <v>10096</v>
       </c>
-      <c r="B132" s="0" t="s">
+      <c r="B132" t="s">
         <v>48</v>
       </c>
-      <c r="C132" s="0" t="s">
+      <c r="C132" t="s">
         <v>155</v>
       </c>
-      <c r="D132" s="0" t="s">
+      <c r="D132" t="s">
         <v>11</v>
       </c>
       <c r="E132" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="F132" s="0" t="s">
+      <c r="F132" t="s">
         <v>126</v>
       </c>
       <c r="G132" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="H132" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="I132" s="0" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="133" customFormat="false" ht="70.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A133" s="0" t="n">
+      <c r="H132" t="s">
+        <v>15</v>
+      </c>
+      <c r="I132" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="133" spans="1:9" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A133">
         <v>10199</v>
       </c>
-      <c r="B133" s="0" t="s">
+      <c r="B133" t="s">
         <v>53</v>
       </c>
-      <c r="C133" s="0" t="s">
+      <c r="C133" t="s">
         <v>159</v>
       </c>
-      <c r="D133" s="0" t="s">
+      <c r="D133" t="s">
         <v>11</v>
       </c>
       <c r="E133" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="F133" s="0" t="s">
+      <c r="F133" t="s">
         <v>126</v>
       </c>
       <c r="G133" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="H133" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="I133" s="0" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="134" customFormat="false" ht="83.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A134" s="0" t="n">
+      <c r="H133" t="s">
+        <v>15</v>
+      </c>
+      <c r="I133" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="134" spans="1:9" ht="87" x14ac:dyDescent="0.35">
+      <c r="A134">
         <v>10200</v>
       </c>
-      <c r="B134" s="0" t="s">
+      <c r="B134" t="s">
         <v>53</v>
       </c>
-      <c r="C134" s="0" t="s">
+      <c r="C134" t="s">
         <v>159</v>
       </c>
-      <c r="D134" s="0" t="s">
+      <c r="D134" t="s">
         <v>11</v>
       </c>
       <c r="E134" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="F134" s="0" t="s">
+      <c r="F134" t="s">
         <v>126</v>
       </c>
       <c r="G134" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="H134" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="I134" s="0" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="135" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A135" s="2" t="n">
+      <c r="H134" t="s">
+        <v>15</v>
+      </c>
+      <c r="I134" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="135" spans="1:9" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A135" s="2">
         <v>10172</v>
       </c>
       <c r="B135" s="2" t="s">
@@ -5478,7 +5768,7 @@
       <c r="E135" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="F135" s="0" t="s">
+      <c r="F135" t="s">
         <v>126</v>
       </c>
       <c r="G135" s="3" t="s">
@@ -5491,8 +5781,8 @@
         <v>16</v>
       </c>
     </row>
-    <row r="136" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A136" s="2" t="n">
+    <row r="136" spans="1:9" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A136" s="2">
         <v>10173</v>
       </c>
       <c r="B136" s="2" t="s">
@@ -5507,7 +5797,7 @@
       <c r="E136" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="F136" s="0" t="s">
+      <c r="F136" t="s">
         <v>126</v>
       </c>
       <c r="G136" s="3" t="s">
@@ -5520,8 +5810,8 @@
         <v>16</v>
       </c>
     </row>
-    <row r="137" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A137" s="2" t="n">
+    <row r="137" spans="1:9" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A137" s="2">
         <v>10174</v>
       </c>
       <c r="B137" s="2" t="s">
@@ -5533,7 +5823,7 @@
       <c r="E137" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="F137" s="0" t="s">
+      <c r="F137" t="s">
         <v>126</v>
       </c>
       <c r="G137" s="3" t="s">
@@ -5546,907 +5836,907 @@
         <v>16</v>
       </c>
     </row>
-    <row r="138" customFormat="false" ht="70.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A138" s="0" t="n">
+    <row r="138" spans="1:9" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A138">
         <v>10057</v>
       </c>
-      <c r="B138" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="C138" s="0" t="s">
+      <c r="B138" t="s">
+        <v>9</v>
+      </c>
+      <c r="C138" t="s">
         <v>164</v>
       </c>
-      <c r="D138" s="0" t="s">
+      <c r="D138" t="s">
         <v>11</v>
       </c>
       <c r="E138" s="2" t="s">
         <v>165</v>
       </c>
-      <c r="F138" s="0" t="s">
+      <c r="F138" t="s">
         <v>166</v>
       </c>
       <c r="G138" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="H138" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="I138" s="0" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="139" customFormat="false" ht="70.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A139" s="0" t="n">
+      <c r="H138" t="s">
+        <v>15</v>
+      </c>
+      <c r="I138" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="139" spans="1:9" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A139">
         <v>10058</v>
       </c>
-      <c r="B139" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="C139" s="0" t="s">
+      <c r="B139" t="s">
+        <v>9</v>
+      </c>
+      <c r="C139" t="s">
         <v>164</v>
       </c>
-      <c r="D139" s="0" t="s">
+      <c r="D139" t="s">
         <v>11</v>
       </c>
       <c r="E139" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="F139" s="0" t="s">
+      <c r="F139" t="s">
         <v>166</v>
       </c>
       <c r="G139" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="H139" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="I139" s="0" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="140" customFormat="false" ht="70.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A140" s="0" t="n">
+      <c r="H139" t="s">
+        <v>15</v>
+      </c>
+      <c r="I139" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="140" spans="1:9" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A140">
         <v>10059</v>
       </c>
-      <c r="B140" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="C140" s="0" t="s">
+      <c r="B140" t="s">
+        <v>9</v>
+      </c>
+      <c r="C140" t="s">
         <v>164</v>
       </c>
-      <c r="D140" s="0" t="s">
+      <c r="D140" t="s">
         <v>11</v>
       </c>
       <c r="E140" s="2" t="s">
         <v>168</v>
       </c>
-      <c r="F140" s="0" t="s">
+      <c r="F140" t="s">
         <v>166</v>
       </c>
       <c r="G140" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="H140" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="I140" s="0" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="141" customFormat="false" ht="70.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A141" s="0" t="n">
+      <c r="H140" t="s">
+        <v>15</v>
+      </c>
+      <c r="I140" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="141" spans="1:9" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A141">
         <v>10060</v>
       </c>
-      <c r="B141" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="C141" s="0" t="s">
+      <c r="B141" t="s">
+        <v>9</v>
+      </c>
+      <c r="C141" t="s">
         <v>164</v>
       </c>
-      <c r="D141" s="0" t="s">
+      <c r="D141" t="s">
         <v>11</v>
       </c>
       <c r="E141" s="2" t="s">
         <v>169</v>
       </c>
-      <c r="F141" s="0" t="s">
+      <c r="F141" t="s">
         <v>166</v>
       </c>
       <c r="G141" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="H141" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="I141" s="0" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="142" customFormat="false" ht="70.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A142" s="0" t="n">
+      <c r="H141" t="s">
+        <v>15</v>
+      </c>
+      <c r="I141" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="142" spans="1:9" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A142">
         <v>10061</v>
       </c>
-      <c r="B142" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="C142" s="0" t="s">
+      <c r="B142" t="s">
+        <v>9</v>
+      </c>
+      <c r="C142" t="s">
         <v>164</v>
       </c>
-      <c r="D142" s="0" t="s">
+      <c r="D142" t="s">
         <v>11</v>
       </c>
       <c r="E142" s="2" t="s">
         <v>170</v>
       </c>
-      <c r="F142" s="0" t="s">
+      <c r="F142" t="s">
         <v>166</v>
       </c>
       <c r="G142" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="H142" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="I142" s="0" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="143" customFormat="false" ht="70.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A143" s="0" t="n">
+      <c r="H142" t="s">
+        <v>15</v>
+      </c>
+      <c r="I142" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="143" spans="1:9" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A143">
         <v>10062</v>
       </c>
-      <c r="B143" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="C143" s="0" t="s">
+      <c r="B143" t="s">
+        <v>9</v>
+      </c>
+      <c r="C143" t="s">
         <v>164</v>
       </c>
-      <c r="D143" s="0" t="s">
+      <c r="D143" t="s">
         <v>11</v>
       </c>
       <c r="E143" s="2" t="s">
         <v>171</v>
       </c>
-      <c r="F143" s="0" t="s">
+      <c r="F143" t="s">
         <v>166</v>
       </c>
       <c r="G143" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="H143" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="I143" s="0" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="144" customFormat="false" ht="70.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A144" s="0" t="n">
+      <c r="H143" t="s">
+        <v>15</v>
+      </c>
+      <c r="I143" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="144" spans="1:9" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A144">
         <v>10063</v>
       </c>
-      <c r="B144" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="C144" s="0" t="s">
+      <c r="B144" t="s">
+        <v>9</v>
+      </c>
+      <c r="C144" t="s">
         <v>164</v>
       </c>
-      <c r="D144" s="0" t="s">
+      <c r="D144" t="s">
         <v>11</v>
       </c>
       <c r="E144" s="2" t="s">
         <v>172</v>
       </c>
-      <c r="F144" s="0" t="s">
+      <c r="F144" t="s">
         <v>166</v>
       </c>
       <c r="G144" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="H144" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="I144" s="0" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="145" customFormat="false" ht="70.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A145" s="0" t="n">
+      <c r="H144" t="s">
+        <v>15</v>
+      </c>
+      <c r="I144" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="145" spans="1:9" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A145">
         <v>10064</v>
       </c>
-      <c r="B145" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="C145" s="0" t="s">
+      <c r="B145" t="s">
+        <v>9</v>
+      </c>
+      <c r="C145" t="s">
         <v>164</v>
       </c>
-      <c r="D145" s="0" t="s">
+      <c r="D145" t="s">
         <v>11</v>
       </c>
       <c r="E145" s="2" t="s">
         <v>173</v>
       </c>
-      <c r="F145" s="0" t="s">
+      <c r="F145" t="s">
         <v>166</v>
       </c>
       <c r="G145" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="H145" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="I145" s="0" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="146" customFormat="false" ht="70.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A146" s="0" t="n">
+      <c r="H145" t="s">
+        <v>15</v>
+      </c>
+      <c r="I145" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="146" spans="1:9" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A146">
         <v>10065</v>
       </c>
-      <c r="B146" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="C146" s="0" t="s">
+      <c r="B146" t="s">
+        <v>9</v>
+      </c>
+      <c r="C146" t="s">
         <v>164</v>
       </c>
-      <c r="D146" s="0" t="s">
+      <c r="D146" t="s">
         <v>11</v>
       </c>
       <c r="E146" s="2" t="s">
         <v>174</v>
       </c>
-      <c r="F146" s="0" t="s">
+      <c r="F146" t="s">
         <v>166</v>
       </c>
       <c r="G146" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="H146" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="I146" s="0" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="147" customFormat="false" ht="70.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A147" s="0" t="n">
+      <c r="H146" t="s">
+        <v>15</v>
+      </c>
+      <c r="I146" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="147" spans="1:9" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A147">
         <v>10066</v>
       </c>
-      <c r="B147" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="C147" s="0" t="s">
+      <c r="B147" t="s">
+        <v>9</v>
+      </c>
+      <c r="C147" t="s">
         <v>164</v>
       </c>
-      <c r="D147" s="0" t="s">
+      <c r="D147" t="s">
         <v>11</v>
       </c>
       <c r="E147" s="2" t="s">
         <v>175</v>
       </c>
-      <c r="F147" s="0" t="s">
+      <c r="F147" t="s">
         <v>166</v>
       </c>
       <c r="G147" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="H147" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="I147" s="0" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="148" customFormat="false" ht="70.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A148" s="0" t="n">
+      <c r="H147" t="s">
+        <v>15</v>
+      </c>
+      <c r="I147" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="148" spans="1:9" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A148">
         <v>10067</v>
       </c>
-      <c r="B148" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="C148" s="0" t="s">
+      <c r="B148" t="s">
+        <v>9</v>
+      </c>
+      <c r="C148" t="s">
         <v>164</v>
       </c>
-      <c r="D148" s="0" t="s">
+      <c r="D148" t="s">
         <v>11</v>
       </c>
       <c r="E148" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="F148" s="0" t="s">
+      <c r="F148" t="s">
         <v>166</v>
       </c>
       <c r="G148" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="H148" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="I148" s="0" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="149" customFormat="false" ht="70.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A149" s="0" t="n">
+      <c r="H148" t="s">
+        <v>15</v>
+      </c>
+      <c r="I148" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="149" spans="1:9" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A149">
         <v>10068</v>
       </c>
-      <c r="B149" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="C149" s="0" t="s">
+      <c r="B149" t="s">
+        <v>9</v>
+      </c>
+      <c r="C149" t="s">
         <v>164</v>
       </c>
-      <c r="D149" s="0" t="s">
+      <c r="D149" t="s">
         <v>11</v>
       </c>
       <c r="E149" s="2" t="s">
         <v>177</v>
       </c>
-      <c r="F149" s="0" t="s">
+      <c r="F149" t="s">
         <v>166</v>
       </c>
       <c r="G149" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="H149" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="I149" s="0" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="150" customFormat="false" ht="70.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A150" s="0" t="n">
+      <c r="H149" t="s">
+        <v>15</v>
+      </c>
+      <c r="I149" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="150" spans="1:9" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A150">
         <v>10069</v>
       </c>
-      <c r="B150" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="C150" s="0" t="s">
+      <c r="B150" t="s">
+        <v>9</v>
+      </c>
+      <c r="C150" t="s">
         <v>164</v>
       </c>
-      <c r="D150" s="0" t="s">
+      <c r="D150" t="s">
         <v>11</v>
       </c>
       <c r="E150" s="2" t="s">
         <v>178</v>
       </c>
-      <c r="F150" s="0" t="s">
+      <c r="F150" t="s">
         <v>166</v>
       </c>
       <c r="G150" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="H150" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="I150" s="0" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="151" customFormat="false" ht="70.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A151" s="0" t="n">
+      <c r="H150" t="s">
+        <v>15</v>
+      </c>
+      <c r="I150" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="151" spans="1:9" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A151">
         <v>10070</v>
       </c>
-      <c r="B151" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="C151" s="0" t="s">
+      <c r="B151" t="s">
+        <v>9</v>
+      </c>
+      <c r="C151" t="s">
         <v>164</v>
       </c>
-      <c r="D151" s="0" t="s">
+      <c r="D151" t="s">
         <v>11</v>
       </c>
       <c r="E151" s="2" t="s">
         <v>179</v>
       </c>
-      <c r="F151" s="0" t="s">
+      <c r="F151" t="s">
         <v>166</v>
       </c>
       <c r="G151" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="H151" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="I151" s="0" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="152" customFormat="false" ht="70.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A152" s="0" t="n">
+      <c r="H151" t="s">
+        <v>15</v>
+      </c>
+      <c r="I151" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="152" spans="1:9" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A152">
         <v>10131</v>
       </c>
-      <c r="B152" s="0" t="s">
+      <c r="B152" t="s">
         <v>30</v>
       </c>
-      <c r="C152" s="0" t="s">
+      <c r="C152" t="s">
         <v>180</v>
       </c>
-      <c r="D152" s="0" t="s">
+      <c r="D152" t="s">
         <v>11</v>
       </c>
       <c r="E152" s="2" t="s">
         <v>181</v>
       </c>
-      <c r="F152" s="0" t="s">
+      <c r="F152" t="s">
         <v>166</v>
       </c>
       <c r="G152" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="H152" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="I152" s="0" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="153" customFormat="false" ht="70.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A153" s="0" t="n">
+      <c r="H152" t="s">
+        <v>15</v>
+      </c>
+      <c r="I152" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="153" spans="1:9" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A153">
         <v>10132</v>
       </c>
-      <c r="B153" s="0" t="s">
+      <c r="B153" t="s">
         <v>30</v>
       </c>
-      <c r="C153" s="0" t="s">
+      <c r="C153" t="s">
         <v>180</v>
       </c>
-      <c r="D153" s="0" t="s">
+      <c r="D153" t="s">
         <v>11</v>
       </c>
       <c r="E153" s="2" t="s">
         <v>182</v>
       </c>
-      <c r="F153" s="0" t="s">
+      <c r="F153" t="s">
         <v>166</v>
       </c>
       <c r="G153" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="H153" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="I153" s="0" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="154" customFormat="false" ht="70.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A154" s="0" t="n">
+      <c r="H153" t="s">
+        <v>15</v>
+      </c>
+      <c r="I153" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="154" spans="1:9" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A154">
         <v>10133</v>
       </c>
-      <c r="B154" s="0" t="s">
+      <c r="B154" t="s">
         <v>30</v>
       </c>
-      <c r="C154" s="0" t="s">
+      <c r="C154" t="s">
         <v>180</v>
       </c>
-      <c r="D154" s="0" t="s">
+      <c r="D154" t="s">
         <v>11</v>
       </c>
       <c r="E154" s="2" t="s">
         <v>183</v>
       </c>
-      <c r="F154" s="0" t="s">
+      <c r="F154" t="s">
         <v>166</v>
       </c>
       <c r="G154" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="H154" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="I154" s="0" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="155" customFormat="false" ht="70.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A155" s="0" t="n">
+      <c r="H154" t="s">
+        <v>15</v>
+      </c>
+      <c r="I154" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="155" spans="1:9" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A155">
         <v>10134</v>
       </c>
-      <c r="B155" s="0" t="s">
+      <c r="B155" t="s">
         <v>30</v>
       </c>
-      <c r="C155" s="0" t="s">
+      <c r="C155" t="s">
         <v>180</v>
       </c>
-      <c r="D155" s="0" t="s">
+      <c r="D155" t="s">
         <v>11</v>
       </c>
       <c r="E155" s="2" t="s">
         <v>184</v>
       </c>
-      <c r="F155" s="0" t="s">
+      <c r="F155" t="s">
         <v>166</v>
       </c>
       <c r="G155" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="H155" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="I155" s="0" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="156" customFormat="false" ht="85.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A156" s="0" t="n">
+      <c r="H155" t="s">
+        <v>15</v>
+      </c>
+      <c r="I155" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="156" spans="1:9" ht="87" x14ac:dyDescent="0.35">
+      <c r="A156">
         <v>10135</v>
       </c>
-      <c r="B156" s="0" t="s">
+      <c r="B156" t="s">
         <v>30</v>
       </c>
-      <c r="C156" s="0" t="s">
+      <c r="C156" t="s">
         <v>180</v>
       </c>
-      <c r="D156" s="0" t="s">
+      <c r="D156" t="s">
         <v>11</v>
       </c>
       <c r="E156" s="2" t="s">
         <v>185</v>
       </c>
-      <c r="F156" s="0" t="s">
+      <c r="F156" t="s">
         <v>166</v>
       </c>
       <c r="G156" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="H156" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="I156" s="0" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="157" customFormat="false" ht="70.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A157" s="0" t="n">
+      <c r="H156" t="s">
+        <v>15</v>
+      </c>
+      <c r="I156" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="157" spans="1:9" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A157">
         <v>10136</v>
       </c>
-      <c r="B157" s="0" t="s">
+      <c r="B157" t="s">
         <v>30</v>
       </c>
-      <c r="C157" s="0" t="s">
+      <c r="C157" t="s">
         <v>180</v>
       </c>
-      <c r="D157" s="0" t="s">
+      <c r="D157" t="s">
         <v>11</v>
       </c>
       <c r="E157" s="2" t="s">
         <v>186</v>
       </c>
-      <c r="F157" s="0" t="s">
+      <c r="F157" t="s">
         <v>166</v>
       </c>
       <c r="G157" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="H157" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="I157" s="0" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="158" customFormat="false" ht="70.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A158" s="0" t="n">
+      <c r="H157" t="s">
+        <v>15</v>
+      </c>
+      <c r="I157" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="158" spans="1:9" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A158">
         <v>10137</v>
       </c>
-      <c r="B158" s="0" t="s">
+      <c r="B158" t="s">
         <v>30</v>
       </c>
-      <c r="C158" s="0" t="s">
+      <c r="C158" t="s">
         <v>180</v>
       </c>
-      <c r="D158" s="0" t="s">
+      <c r="D158" t="s">
         <v>11</v>
       </c>
       <c r="E158" s="2" t="s">
         <v>187</v>
       </c>
-      <c r="F158" s="0" t="s">
+      <c r="F158" t="s">
         <v>166</v>
       </c>
       <c r="G158" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="H158" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="I158" s="0" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="159" customFormat="false" ht="98.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A159" s="0" t="n">
+      <c r="H158" t="s">
+        <v>15</v>
+      </c>
+      <c r="I158" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="159" spans="1:9" ht="101.5" x14ac:dyDescent="0.35">
+      <c r="A159">
         <v>10189</v>
       </c>
-      <c r="B159" s="0" t="s">
+      <c r="B159" t="s">
         <v>39</v>
       </c>
-      <c r="C159" s="0" t="s">
+      <c r="C159" t="s">
         <v>188</v>
       </c>
-      <c r="D159" s="0" t="s">
+      <c r="D159" t="s">
         <v>11</v>
       </c>
       <c r="E159" s="2" t="s">
         <v>189</v>
       </c>
-      <c r="F159" s="0" t="s">
+      <c r="F159" t="s">
         <v>166</v>
       </c>
       <c r="G159" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="H159" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="I159" s="0" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="160" customFormat="false" ht="98.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A160" s="0" t="n">
+      <c r="H159" t="s">
+        <v>15</v>
+      </c>
+      <c r="I159" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="160" spans="1:9" ht="87" x14ac:dyDescent="0.35">
+      <c r="A160">
         <v>10190</v>
       </c>
-      <c r="B160" s="0" t="s">
+      <c r="B160" t="s">
         <v>39</v>
       </c>
-      <c r="C160" s="0" t="s">
+      <c r="C160" t="s">
         <v>188</v>
       </c>
-      <c r="D160" s="0" t="s">
+      <c r="D160" t="s">
         <v>11</v>
       </c>
       <c r="E160" s="2" t="s">
         <v>190</v>
       </c>
-      <c r="F160" s="0" t="s">
+      <c r="F160" t="s">
         <v>166</v>
       </c>
       <c r="G160" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="H160" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="I160" s="0" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="161" customFormat="false" ht="70.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A161" s="0" t="n">
+      <c r="H160" t="s">
+        <v>15</v>
+      </c>
+      <c r="I160" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="161" spans="1:9" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A161">
         <v>10157</v>
       </c>
-      <c r="B161" s="0" t="s">
+      <c r="B161" t="s">
         <v>43</v>
       </c>
-      <c r="C161" s="0" t="s">
+      <c r="C161" t="s">
         <v>191</v>
       </c>
-      <c r="D161" s="0" t="s">
+      <c r="D161" t="s">
         <v>11</v>
       </c>
       <c r="E161" s="2" t="s">
         <v>192</v>
       </c>
-      <c r="F161" s="0" t="s">
+      <c r="F161" t="s">
         <v>166</v>
       </c>
       <c r="G161" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="H161" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="I161" s="0" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="162" customFormat="false" ht="85.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A162" s="0" t="n">
+      <c r="H161" t="s">
+        <v>15</v>
+      </c>
+      <c r="I161" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="162" spans="1:9" ht="87" x14ac:dyDescent="0.35">
+      <c r="A162">
         <v>10158</v>
       </c>
-      <c r="B162" s="0" t="s">
+      <c r="B162" t="s">
         <v>43</v>
       </c>
-      <c r="C162" s="0" t="s">
+      <c r="C162" t="s">
         <v>191</v>
       </c>
-      <c r="D162" s="0" t="s">
+      <c r="D162" t="s">
         <v>11</v>
       </c>
       <c r="E162" s="2" t="s">
         <v>193</v>
       </c>
-      <c r="F162" s="0" t="s">
+      <c r="F162" t="s">
         <v>166</v>
       </c>
       <c r="G162" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="H162" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="I162" s="0" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="163" customFormat="false" ht="83.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A163" s="0" t="n">
+      <c r="H162" t="s">
+        <v>15</v>
+      </c>
+      <c r="I162" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="163" spans="1:9" ht="87" x14ac:dyDescent="0.35">
+      <c r="A163">
         <v>10159</v>
       </c>
-      <c r="B163" s="0" t="s">
+      <c r="B163" t="s">
         <v>43</v>
       </c>
-      <c r="C163" s="0" t="s">
+      <c r="C163" t="s">
         <v>191</v>
       </c>
-      <c r="D163" s="0" t="s">
+      <c r="D163" t="s">
         <v>11</v>
       </c>
       <c r="E163" s="2" t="s">
         <v>194</v>
       </c>
-      <c r="F163" s="0" t="s">
+      <c r="F163" t="s">
         <v>166</v>
       </c>
       <c r="G163" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="H163" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="I163" s="0" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="164" customFormat="false" ht="70.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A164" s="0" t="n">
+      <c r="H163" t="s">
+        <v>15</v>
+      </c>
+      <c r="I163" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="164" spans="1:9" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A164">
         <v>10097</v>
       </c>
-      <c r="B164" s="0" t="s">
+      <c r="B164" t="s">
         <v>48</v>
       </c>
-      <c r="C164" s="0" t="s">
+      <c r="C164" t="s">
         <v>195</v>
       </c>
-      <c r="D164" s="0" t="s">
+      <c r="D164" t="s">
         <v>11</v>
       </c>
       <c r="E164" s="2" t="s">
         <v>196</v>
       </c>
-      <c r="F164" s="0" t="s">
+      <c r="F164" t="s">
         <v>166</v>
       </c>
       <c r="G164" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="H164" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="I164" s="0" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="165" customFormat="false" ht="70.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A165" s="0" t="n">
+      <c r="H164" t="s">
+        <v>15</v>
+      </c>
+      <c r="I164" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="165" spans="1:9" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A165">
         <v>10098</v>
       </c>
-      <c r="B165" s="0" t="s">
+      <c r="B165" t="s">
         <v>48</v>
       </c>
-      <c r="C165" s="0" t="s">
+      <c r="C165" t="s">
         <v>195</v>
       </c>
-      <c r="D165" s="0" t="s">
+      <c r="D165" t="s">
         <v>11</v>
       </c>
       <c r="E165" s="2" t="s">
         <v>197</v>
       </c>
-      <c r="F165" s="0" t="s">
+      <c r="F165" t="s">
         <v>166</v>
       </c>
       <c r="G165" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="H165" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="I165" s="0" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="166" customFormat="false" ht="70.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A166" s="0" t="n">
+      <c r="H165" t="s">
+        <v>15</v>
+      </c>
+      <c r="I165" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="166" spans="1:9" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A166">
         <v>10099</v>
       </c>
-      <c r="B166" s="0" t="s">
+      <c r="B166" t="s">
         <v>48</v>
       </c>
-      <c r="C166" s="0" t="s">
+      <c r="C166" t="s">
         <v>195</v>
       </c>
-      <c r="D166" s="0" t="s">
+      <c r="D166" t="s">
         <v>11</v>
       </c>
       <c r="E166" s="2" t="s">
         <v>198</v>
       </c>
-      <c r="F166" s="0" t="s">
+      <c r="F166" t="s">
         <v>166</v>
       </c>
       <c r="G166" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="H166" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="I166" s="0" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="167" customFormat="false" ht="70.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A167" s="0" t="n">
+      <c r="H166" t="s">
+        <v>15</v>
+      </c>
+      <c r="I166" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="167" spans="1:9" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A167">
         <v>10201</v>
       </c>
-      <c r="B167" s="0" t="s">
+      <c r="B167" t="s">
         <v>53</v>
       </c>
-      <c r="C167" s="0" t="s">
+      <c r="C167" t="s">
         <v>199</v>
       </c>
-      <c r="D167" s="0" t="s">
+      <c r="D167" t="s">
         <v>11</v>
       </c>
       <c r="E167" s="2" t="s">
         <v>200</v>
       </c>
-      <c r="F167" s="0" t="s">
+      <c r="F167" t="s">
         <v>166</v>
       </c>
       <c r="G167" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="H167" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="I167" s="0" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="168" customFormat="false" ht="70.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A168" s="0" t="n">
+      <c r="H167" t="s">
+        <v>15</v>
+      </c>
+      <c r="I167" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="168" spans="1:9" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A168">
         <v>10202</v>
       </c>
-      <c r="B168" s="0" t="s">
+      <c r="B168" t="s">
         <v>53</v>
       </c>
-      <c r="C168" s="0" t="s">
+      <c r="C168" t="s">
         <v>199</v>
       </c>
-      <c r="D168" s="0" t="s">
+      <c r="D168" t="s">
         <v>11</v>
       </c>
       <c r="E168" s="2" t="s">
         <v>201</v>
       </c>
-      <c r="F168" s="0" t="s">
+      <c r="F168" t="s">
         <v>166</v>
       </c>
       <c r="G168" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="H168" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="I168" s="0" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="169" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A169" s="2" t="n">
+      <c r="H168" t="s">
+        <v>15</v>
+      </c>
+      <c r="I168" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="169" spans="1:9" ht="29" x14ac:dyDescent="0.35">
+      <c r="A169" s="2">
         <v>10175</v>
       </c>
       <c r="B169" s="2" t="s">
@@ -6461,7 +6751,7 @@
       <c r="E169" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="F169" s="0" t="s">
+      <c r="F169" t="s">
         <v>166</v>
       </c>
       <c r="G169" s="3" t="s">
@@ -6474,8 +6764,8 @@
         <v>16</v>
       </c>
     </row>
-    <row r="170" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A170" s="2" t="n">
+    <row r="170" spans="1:9" ht="29" x14ac:dyDescent="0.35">
+      <c r="A170" s="2">
         <v>10176</v>
       </c>
       <c r="B170" s="2" t="s">
@@ -6490,7 +6780,7 @@
       <c r="E170" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="F170" s="0" t="s">
+      <c r="F170" t="s">
         <v>166</v>
       </c>
       <c r="G170" s="3" t="s">
@@ -6503,8 +6793,8 @@
         <v>16</v>
       </c>
     </row>
-    <row r="171" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A171" s="2" t="n">
+    <row r="171" spans="1:9" ht="29" x14ac:dyDescent="0.35">
+      <c r="A171" s="2">
         <v>10177</v>
       </c>
       <c r="B171" s="2" t="s">
@@ -6516,7 +6806,7 @@
       <c r="E171" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="F171" s="0" t="s">
+      <c r="F171" t="s">
         <v>166</v>
       </c>
       <c r="G171" s="3" t="s">
@@ -6529,907 +6819,907 @@
         <v>16</v>
       </c>
     </row>
-    <row r="172" customFormat="false" ht="70.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A172" s="0" t="n">
+    <row r="172" spans="1:9" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A172">
         <v>10071</v>
       </c>
-      <c r="B172" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="C172" s="0" t="s">
+      <c r="B172" t="s">
+        <v>9</v>
+      </c>
+      <c r="C172" t="s">
         <v>203</v>
       </c>
-      <c r="D172" s="0" t="s">
+      <c r="D172" t="s">
         <v>11</v>
       </c>
       <c r="E172" s="2" t="s">
         <v>204</v>
       </c>
-      <c r="F172" s="0" t="s">
+      <c r="F172" t="s">
         <v>205</v>
       </c>
       <c r="G172" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="H172" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="I172" s="0" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="173" customFormat="false" ht="70.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A173" s="0" t="n">
+      <c r="H172" t="s">
+        <v>15</v>
+      </c>
+      <c r="I172" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="173" spans="1:9" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A173">
         <v>10072</v>
       </c>
-      <c r="B173" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="C173" s="0" t="s">
+      <c r="B173" t="s">
+        <v>9</v>
+      </c>
+      <c r="C173" t="s">
         <v>203</v>
       </c>
-      <c r="D173" s="0" t="s">
+      <c r="D173" t="s">
         <v>11</v>
       </c>
       <c r="E173" s="2" t="s">
         <v>206</v>
       </c>
-      <c r="F173" s="0" t="s">
+      <c r="F173" t="s">
         <v>205</v>
       </c>
       <c r="G173" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="H173" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="I173" s="0" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="174" customFormat="false" ht="70.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A174" s="0" t="n">
+      <c r="H173" t="s">
+        <v>15</v>
+      </c>
+      <c r="I173" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="174" spans="1:9" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A174">
         <v>10073</v>
       </c>
-      <c r="B174" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="C174" s="0" t="s">
+      <c r="B174" t="s">
+        <v>9</v>
+      </c>
+      <c r="C174" t="s">
         <v>203</v>
       </c>
-      <c r="D174" s="0" t="s">
+      <c r="D174" t="s">
         <v>11</v>
       </c>
       <c r="E174" s="2" t="s">
         <v>207</v>
       </c>
-      <c r="F174" s="0" t="s">
+      <c r="F174" t="s">
         <v>205</v>
       </c>
       <c r="G174" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="H174" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="I174" s="0" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="175" customFormat="false" ht="70.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A175" s="0" t="n">
+      <c r="H174" t="s">
+        <v>15</v>
+      </c>
+      <c r="I174" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="175" spans="1:9" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A175">
         <v>10074</v>
       </c>
-      <c r="B175" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="C175" s="0" t="s">
+      <c r="B175" t="s">
+        <v>9</v>
+      </c>
+      <c r="C175" t="s">
         <v>203</v>
       </c>
-      <c r="D175" s="0" t="s">
+      <c r="D175" t="s">
         <v>11</v>
       </c>
       <c r="E175" s="2" t="s">
         <v>208</v>
       </c>
-      <c r="F175" s="0" t="s">
+      <c r="F175" t="s">
         <v>205</v>
       </c>
       <c r="G175" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="H175" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="I175" s="0" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="176" customFormat="false" ht="70.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A176" s="0" t="n">
+      <c r="H175" t="s">
+        <v>15</v>
+      </c>
+      <c r="I175" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="176" spans="1:9" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A176">
         <v>10075</v>
       </c>
-      <c r="B176" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="C176" s="0" t="s">
+      <c r="B176" t="s">
+        <v>9</v>
+      </c>
+      <c r="C176" t="s">
         <v>203</v>
       </c>
-      <c r="D176" s="0" t="s">
+      <c r="D176" t="s">
         <v>11</v>
       </c>
       <c r="E176" s="2" t="s">
         <v>209</v>
       </c>
-      <c r="F176" s="0" t="s">
+      <c r="F176" t="s">
         <v>205</v>
       </c>
       <c r="G176" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="H176" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="I176" s="0" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="177" customFormat="false" ht="70.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A177" s="0" t="n">
+      <c r="H176" t="s">
+        <v>15</v>
+      </c>
+      <c r="I176" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="177" spans="1:9" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A177">
         <v>10076</v>
       </c>
-      <c r="B177" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="C177" s="0" t="s">
+      <c r="B177" t="s">
+        <v>9</v>
+      </c>
+      <c r="C177" t="s">
         <v>203</v>
       </c>
-      <c r="D177" s="0" t="s">
+      <c r="D177" t="s">
         <v>11</v>
       </c>
       <c r="E177" s="2" t="s">
         <v>210</v>
       </c>
-      <c r="F177" s="0" t="s">
+      <c r="F177" t="s">
         <v>205</v>
       </c>
       <c r="G177" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="H177" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="I177" s="0" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="178" customFormat="false" ht="70.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A178" s="0" t="n">
+      <c r="H177" t="s">
+        <v>15</v>
+      </c>
+      <c r="I177" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="178" spans="1:9" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A178">
         <v>10077</v>
       </c>
-      <c r="B178" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="C178" s="0" t="s">
+      <c r="B178" t="s">
+        <v>9</v>
+      </c>
+      <c r="C178" t="s">
         <v>203</v>
       </c>
-      <c r="D178" s="0" t="s">
+      <c r="D178" t="s">
         <v>11</v>
       </c>
       <c r="E178" s="2" t="s">
         <v>211</v>
       </c>
-      <c r="F178" s="0" t="s">
+      <c r="F178" t="s">
         <v>205</v>
       </c>
       <c r="G178" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="H178" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="I178" s="0" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="179" customFormat="false" ht="70.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A179" s="0" t="n">
+      <c r="H178" t="s">
+        <v>15</v>
+      </c>
+      <c r="I178" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="179" spans="1:9" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A179">
         <v>10078</v>
       </c>
-      <c r="B179" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="C179" s="0" t="s">
+      <c r="B179" t="s">
+        <v>9</v>
+      </c>
+      <c r="C179" t="s">
         <v>203</v>
       </c>
-      <c r="D179" s="0" t="s">
+      <c r="D179" t="s">
         <v>11</v>
       </c>
       <c r="E179" s="2" t="s">
         <v>212</v>
       </c>
-      <c r="F179" s="0" t="s">
+      <c r="F179" t="s">
         <v>205</v>
       </c>
       <c r="G179" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="H179" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="I179" s="0" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="180" customFormat="false" ht="70.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A180" s="0" t="n">
+      <c r="H179" t="s">
+        <v>15</v>
+      </c>
+      <c r="I179" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="180" spans="1:9" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A180">
         <v>10079</v>
       </c>
-      <c r="B180" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="C180" s="0" t="s">
+      <c r="B180" t="s">
+        <v>9</v>
+      </c>
+      <c r="C180" t="s">
         <v>203</v>
       </c>
-      <c r="D180" s="0" t="s">
+      <c r="D180" t="s">
         <v>11</v>
       </c>
       <c r="E180" s="2" t="s">
         <v>213</v>
       </c>
-      <c r="F180" s="0" t="s">
+      <c r="F180" t="s">
         <v>205</v>
       </c>
       <c r="G180" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="H180" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="I180" s="0" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="181" customFormat="false" ht="70.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A181" s="0" t="n">
+      <c r="H180" t="s">
+        <v>15</v>
+      </c>
+      <c r="I180" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="181" spans="1:9" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A181">
         <v>10080</v>
       </c>
-      <c r="B181" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="C181" s="0" t="s">
+      <c r="B181" t="s">
+        <v>9</v>
+      </c>
+      <c r="C181" t="s">
         <v>203</v>
       </c>
-      <c r="D181" s="0" t="s">
+      <c r="D181" t="s">
         <v>11</v>
       </c>
       <c r="E181" s="2" t="s">
         <v>214</v>
       </c>
-      <c r="F181" s="0" t="s">
+      <c r="F181" t="s">
         <v>205</v>
       </c>
       <c r="G181" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="H181" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="I181" s="0" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="182" customFormat="false" ht="70.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A182" s="0" t="n">
+      <c r="H181" t="s">
+        <v>15</v>
+      </c>
+      <c r="I181" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="182" spans="1:9" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A182">
         <v>10081</v>
       </c>
-      <c r="B182" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="C182" s="0" t="s">
+      <c r="B182" t="s">
+        <v>9</v>
+      </c>
+      <c r="C182" t="s">
         <v>203</v>
       </c>
-      <c r="D182" s="0" t="s">
+      <c r="D182" t="s">
         <v>11</v>
       </c>
       <c r="E182" s="2" t="s">
         <v>215</v>
       </c>
-      <c r="F182" s="0" t="s">
+      <c r="F182" t="s">
         <v>205</v>
       </c>
       <c r="G182" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="H182" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="I182" s="0" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="183" customFormat="false" ht="70.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A183" s="0" t="n">
+      <c r="H182" t="s">
+        <v>15</v>
+      </c>
+      <c r="I182" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="183" spans="1:9" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A183">
         <v>10082</v>
       </c>
-      <c r="B183" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="C183" s="0" t="s">
+      <c r="B183" t="s">
+        <v>9</v>
+      </c>
+      <c r="C183" t="s">
         <v>216</v>
       </c>
-      <c r="D183" s="0" t="s">
+      <c r="D183" t="s">
         <v>11</v>
       </c>
       <c r="E183" s="2" t="s">
         <v>217</v>
       </c>
-      <c r="F183" s="0" t="s">
+      <c r="F183" t="s">
         <v>205</v>
       </c>
       <c r="G183" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="H183" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="I183" s="0" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="184" customFormat="false" ht="70.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A184" s="0" t="n">
+      <c r="H183" t="s">
+        <v>15</v>
+      </c>
+      <c r="I183" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="184" spans="1:9" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A184">
         <v>10083</v>
       </c>
-      <c r="B184" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="C184" s="0" t="s">
+      <c r="B184" t="s">
+        <v>9</v>
+      </c>
+      <c r="C184" t="s">
         <v>203</v>
       </c>
-      <c r="D184" s="0" t="s">
+      <c r="D184" t="s">
         <v>11</v>
       </c>
       <c r="E184" s="2" t="s">
         <v>218</v>
       </c>
-      <c r="F184" s="0" t="s">
+      <c r="F184" t="s">
         <v>205</v>
       </c>
       <c r="G184" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="H184" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="I184" s="0" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="185" customFormat="false" ht="70.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A185" s="0" t="n">
+      <c r="H184" t="s">
+        <v>15</v>
+      </c>
+      <c r="I184" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="185" spans="1:9" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A185">
         <v>10084</v>
       </c>
-      <c r="B185" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="C185" s="0" t="s">
+      <c r="B185" t="s">
+        <v>9</v>
+      </c>
+      <c r="C185" t="s">
         <v>203</v>
       </c>
-      <c r="D185" s="0" t="s">
+      <c r="D185" t="s">
         <v>11</v>
       </c>
       <c r="E185" s="2" t="s">
         <v>219</v>
       </c>
-      <c r="F185" s="0" t="s">
+      <c r="F185" t="s">
         <v>205</v>
       </c>
       <c r="G185" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="H185" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="I185" s="0" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="186" customFormat="false" ht="70.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A186" s="0" t="n">
+      <c r="H185" t="s">
+        <v>15</v>
+      </c>
+      <c r="I185" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="186" spans="1:9" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A186">
         <v>10138</v>
       </c>
-      <c r="B186" s="0" t="s">
+      <c r="B186" t="s">
         <v>30</v>
       </c>
-      <c r="C186" s="0" t="s">
+      <c r="C186" t="s">
         <v>220</v>
       </c>
-      <c r="D186" s="0" t="s">
+      <c r="D186" t="s">
         <v>11</v>
       </c>
       <c r="E186" s="2" t="s">
         <v>221</v>
       </c>
-      <c r="F186" s="0" t="s">
+      <c r="F186" t="s">
         <v>205</v>
       </c>
       <c r="G186" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="H186" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="I186" s="0" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="187" customFormat="false" ht="83.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A187" s="0" t="n">
+      <c r="H186" t="s">
+        <v>15</v>
+      </c>
+      <c r="I186" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="187" spans="1:9" ht="87" x14ac:dyDescent="0.35">
+      <c r="A187">
         <v>10139</v>
       </c>
-      <c r="B187" s="0" t="s">
+      <c r="B187" t="s">
         <v>30</v>
       </c>
-      <c r="C187" s="0" t="s">
+      <c r="C187" t="s">
         <v>220</v>
       </c>
-      <c r="D187" s="0" t="s">
+      <c r="D187" t="s">
         <v>11</v>
       </c>
       <c r="E187" s="2" t="s">
         <v>222</v>
       </c>
-      <c r="F187" s="0" t="s">
+      <c r="F187" t="s">
         <v>205</v>
       </c>
       <c r="G187" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="H187" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="I187" s="0" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="188" customFormat="false" ht="70.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A188" s="0" t="n">
+      <c r="H187" t="s">
+        <v>15</v>
+      </c>
+      <c r="I187" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="188" spans="1:9" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A188">
         <v>10140</v>
       </c>
-      <c r="B188" s="0" t="s">
+      <c r="B188" t="s">
         <v>30</v>
       </c>
-      <c r="C188" s="0" t="s">
+      <c r="C188" t="s">
         <v>220</v>
       </c>
-      <c r="D188" s="0" t="s">
+      <c r="D188" t="s">
         <v>11</v>
       </c>
       <c r="E188" s="2" t="s">
         <v>223</v>
       </c>
-      <c r="F188" s="0" t="s">
+      <c r="F188" t="s">
         <v>205</v>
       </c>
       <c r="G188" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="H188" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="I188" s="0" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="189" customFormat="false" ht="70.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A189" s="0" t="n">
+      <c r="H188" t="s">
+        <v>15</v>
+      </c>
+      <c r="I188" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="189" spans="1:9" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A189">
         <v>10141</v>
       </c>
-      <c r="B189" s="0" t="s">
+      <c r="B189" t="s">
         <v>30</v>
       </c>
-      <c r="C189" s="0" t="s">
+      <c r="C189" t="s">
         <v>220</v>
       </c>
-      <c r="D189" s="0" t="s">
+      <c r="D189" t="s">
         <v>11</v>
       </c>
       <c r="E189" s="2" t="s">
         <v>224</v>
       </c>
-      <c r="F189" s="0" t="s">
+      <c r="F189" t="s">
         <v>205</v>
       </c>
       <c r="G189" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="H189" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="I189" s="0" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="190" customFormat="false" ht="85.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A190" s="0" t="n">
+      <c r="H189" t="s">
+        <v>15</v>
+      </c>
+      <c r="I189" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="190" spans="1:9" ht="87" x14ac:dyDescent="0.35">
+      <c r="A190">
         <v>10142</v>
       </c>
-      <c r="B190" s="0" t="s">
+      <c r="B190" t="s">
         <v>30</v>
       </c>
-      <c r="C190" s="0" t="s">
+      <c r="C190" t="s">
         <v>220</v>
       </c>
-      <c r="D190" s="0" t="s">
+      <c r="D190" t="s">
         <v>11</v>
       </c>
       <c r="E190" s="2" t="s">
         <v>225</v>
       </c>
-      <c r="F190" s="0" t="s">
+      <c r="F190" t="s">
         <v>205</v>
       </c>
       <c r="G190" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="H190" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="I190" s="0" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="191" customFormat="false" ht="83.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A191" s="0" t="n">
+      <c r="H190" t="s">
+        <v>15</v>
+      </c>
+      <c r="I190" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="191" spans="1:9" ht="101.5" x14ac:dyDescent="0.35">
+      <c r="A191">
         <v>10143</v>
       </c>
-      <c r="B191" s="0" t="s">
+      <c r="B191" t="s">
         <v>30</v>
       </c>
-      <c r="C191" s="0" t="s">
+      <c r="C191" t="s">
         <v>220</v>
       </c>
-      <c r="D191" s="0" t="s">
+      <c r="D191" t="s">
         <v>11</v>
       </c>
       <c r="E191" s="2" t="s">
         <v>226</v>
       </c>
-      <c r="F191" s="0" t="s">
+      <c r="F191" t="s">
         <v>205</v>
       </c>
       <c r="G191" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="H191" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="I191" s="0" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="192" customFormat="false" ht="83.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A192" s="0" t="n">
+      <c r="H191" t="s">
+        <v>15</v>
+      </c>
+      <c r="I191" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="192" spans="1:9" ht="101.5" x14ac:dyDescent="0.35">
+      <c r="A192">
         <v>10144</v>
       </c>
-      <c r="B192" s="0" t="s">
+      <c r="B192" t="s">
         <v>30</v>
       </c>
-      <c r="C192" s="0" t="s">
+      <c r="C192" t="s">
         <v>220</v>
       </c>
-      <c r="D192" s="0" t="s">
+      <c r="D192" t="s">
         <v>11</v>
       </c>
       <c r="E192" s="2" t="s">
         <v>227</v>
       </c>
-      <c r="F192" s="0" t="s">
+      <c r="F192" t="s">
         <v>205</v>
       </c>
       <c r="G192" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="H192" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="I192" s="0" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="193" customFormat="false" ht="97" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A193" s="0" t="n">
+      <c r="H192" t="s">
+        <v>15</v>
+      </c>
+      <c r="I192" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="193" spans="1:9" ht="101.5" x14ac:dyDescent="0.35">
+      <c r="A193">
         <v>10191</v>
       </c>
-      <c r="B193" s="0" t="s">
+      <c r="B193" t="s">
         <v>39</v>
       </c>
-      <c r="C193" s="0" t="s">
+      <c r="C193" t="s">
         <v>228</v>
       </c>
-      <c r="D193" s="0" t="s">
+      <c r="D193" t="s">
         <v>11</v>
       </c>
       <c r="E193" s="2" t="s">
         <v>229</v>
       </c>
-      <c r="F193" s="0" t="s">
+      <c r="F193" t="s">
         <v>205</v>
       </c>
       <c r="G193" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="H193" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="I193" s="0" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="194" customFormat="false" ht="97" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A194" s="0" t="n">
+      <c r="H193" t="s">
+        <v>15</v>
+      </c>
+      <c r="I193" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="194" spans="1:9" ht="101.5" x14ac:dyDescent="0.35">
+      <c r="A194">
         <v>10192</v>
       </c>
-      <c r="B194" s="0" t="s">
+      <c r="B194" t="s">
         <v>39</v>
       </c>
-      <c r="C194" s="0" t="s">
+      <c r="C194" t="s">
         <v>228</v>
       </c>
-      <c r="D194" s="0" t="s">
+      <c r="D194" t="s">
         <v>11</v>
       </c>
       <c r="E194" s="2" t="s">
         <v>230</v>
       </c>
-      <c r="F194" s="0" t="s">
+      <c r="F194" t="s">
         <v>205</v>
       </c>
       <c r="G194" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="H194" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="I194" s="0" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="195" customFormat="false" ht="70.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A195" s="0" t="n">
+      <c r="H194" t="s">
+        <v>15</v>
+      </c>
+      <c r="I194" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="195" spans="1:9" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A195">
         <v>10160</v>
       </c>
-      <c r="B195" s="0" t="s">
+      <c r="B195" t="s">
         <v>43</v>
       </c>
-      <c r="C195" s="0" t="s">
+      <c r="C195" t="s">
         <v>231</v>
       </c>
-      <c r="D195" s="0" t="s">
+      <c r="D195" t="s">
         <v>11</v>
       </c>
       <c r="E195" s="2" t="s">
         <v>232</v>
       </c>
-      <c r="F195" s="0" t="s">
+      <c r="F195" t="s">
         <v>205</v>
       </c>
       <c r="G195" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="H195" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="I195" s="0" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="196" customFormat="false" ht="85.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A196" s="0" t="n">
+      <c r="H195" t="s">
+        <v>15</v>
+      </c>
+      <c r="I195" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="196" spans="1:9" ht="101.5" x14ac:dyDescent="0.35">
+      <c r="A196">
         <v>10161</v>
       </c>
-      <c r="B196" s="0" t="s">
+      <c r="B196" t="s">
         <v>43</v>
       </c>
-      <c r="C196" s="0" t="s">
+      <c r="C196" t="s">
         <v>231</v>
       </c>
-      <c r="D196" s="0" t="s">
+      <c r="D196" t="s">
         <v>11</v>
       </c>
       <c r="E196" s="2" t="s">
         <v>233</v>
       </c>
-      <c r="F196" s="0" t="s">
+      <c r="F196" t="s">
         <v>205</v>
       </c>
       <c r="G196" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="H196" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="I196" s="0" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="197" customFormat="false" ht="85.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A197" s="0" t="n">
+      <c r="H196" t="s">
+        <v>15</v>
+      </c>
+      <c r="I196" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="197" spans="1:9" ht="101.5" x14ac:dyDescent="0.35">
+      <c r="A197">
         <v>10162</v>
       </c>
-      <c r="B197" s="0" t="s">
+      <c r="B197" t="s">
         <v>43</v>
       </c>
-      <c r="C197" s="0" t="s">
+      <c r="C197" t="s">
         <v>231</v>
       </c>
-      <c r="D197" s="0" t="s">
+      <c r="D197" t="s">
         <v>11</v>
       </c>
       <c r="E197" s="2" t="s">
         <v>234</v>
       </c>
-      <c r="F197" s="0" t="s">
+      <c r="F197" t="s">
         <v>205</v>
       </c>
       <c r="G197" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="H197" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="I197" s="0" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="198" customFormat="false" ht="70.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A198" s="0" t="n">
+      <c r="H197" t="s">
+        <v>15</v>
+      </c>
+      <c r="I197" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="198" spans="1:9" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A198">
         <v>10100</v>
       </c>
-      <c r="B198" s="0" t="s">
+      <c r="B198" t="s">
         <v>48</v>
       </c>
-      <c r="C198" s="0" t="s">
+      <c r="C198" t="s">
         <v>235</v>
       </c>
-      <c r="D198" s="0" t="s">
+      <c r="D198" t="s">
         <v>11</v>
       </c>
       <c r="E198" s="2" t="s">
         <v>236</v>
       </c>
-      <c r="F198" s="0" t="s">
+      <c r="F198" t="s">
         <v>205</v>
       </c>
       <c r="G198" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="H198" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="I198" s="0" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="199" customFormat="false" ht="70.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A199" s="0" t="n">
+      <c r="H198" t="s">
+        <v>15</v>
+      </c>
+      <c r="I198" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="199" spans="1:9" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A199">
         <v>10101</v>
       </c>
-      <c r="B199" s="0" t="s">
+      <c r="B199" t="s">
         <v>48</v>
       </c>
-      <c r="C199" s="0" t="s">
+      <c r="C199" t="s">
         <v>235</v>
       </c>
-      <c r="D199" s="0" t="s">
+      <c r="D199" t="s">
         <v>11</v>
       </c>
       <c r="E199" s="2" t="s">
         <v>237</v>
       </c>
-      <c r="F199" s="0" t="s">
+      <c r="F199" t="s">
         <v>205</v>
       </c>
       <c r="G199" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="H199" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="I199" s="0" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="200" customFormat="false" ht="70.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A200" s="0" t="n">
+      <c r="H199" t="s">
+        <v>15</v>
+      </c>
+      <c r="I199" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="200" spans="1:9" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A200">
         <v>10102</v>
       </c>
-      <c r="B200" s="0" t="s">
+      <c r="B200" t="s">
         <v>48</v>
       </c>
-      <c r="C200" s="0" t="s">
+      <c r="C200" t="s">
         <v>235</v>
       </c>
-      <c r="D200" s="0" t="s">
+      <c r="D200" t="s">
         <v>11</v>
       </c>
       <c r="E200" s="2" t="s">
         <v>238</v>
       </c>
-      <c r="F200" s="0" t="s">
+      <c r="F200" t="s">
         <v>205</v>
       </c>
       <c r="G200" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="H200" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="I200" s="0" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="201" customFormat="false" ht="83.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A201" s="0" t="n">
+      <c r="H200" t="s">
+        <v>15</v>
+      </c>
+      <c r="I200" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="201" spans="1:9" ht="87" x14ac:dyDescent="0.35">
+      <c r="A201">
         <v>10203</v>
       </c>
-      <c r="B201" s="0" t="s">
+      <c r="B201" t="s">
         <v>53</v>
       </c>
-      <c r="C201" s="0" t="s">
+      <c r="C201" t="s">
         <v>239</v>
       </c>
-      <c r="D201" s="0" t="s">
+      <c r="D201" t="s">
         <v>11</v>
       </c>
       <c r="E201" s="2" t="s">
         <v>240</v>
       </c>
-      <c r="F201" s="0" t="s">
+      <c r="F201" t="s">
         <v>205</v>
       </c>
       <c r="G201" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="H201" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="I201" s="0" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="202" customFormat="false" ht="83.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A202" s="0" t="n">
+      <c r="H201" t="s">
+        <v>15</v>
+      </c>
+      <c r="I201" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="202" spans="1:9" ht="101.5" x14ac:dyDescent="0.35">
+      <c r="A202">
         <v>10204</v>
       </c>
-      <c r="B202" s="0" t="s">
+      <c r="B202" t="s">
         <v>53</v>
       </c>
-      <c r="C202" s="0" t="s">
+      <c r="C202" t="s">
         <v>239</v>
       </c>
-      <c r="D202" s="0" t="s">
+      <c r="D202" t="s">
         <v>11</v>
       </c>
       <c r="E202" s="2" t="s">
         <v>241</v>
       </c>
-      <c r="F202" s="0" t="s">
+      <c r="F202" t="s">
         <v>205</v>
       </c>
       <c r="G202" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="H202" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="I202" s="0" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="203" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A203" s="2" t="n">
+      <c r="H202" t="s">
+        <v>15</v>
+      </c>
+      <c r="I202" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="203" spans="1:9" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A203" s="2">
         <v>10178</v>
       </c>
       <c r="B203" s="2" t="s">
@@ -7444,7 +7734,7 @@
       <c r="E203" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="F203" s="0" t="s">
+      <c r="F203" t="s">
         <v>205</v>
       </c>
       <c r="G203" s="3" t="s">
@@ -7457,8 +7747,8 @@
         <v>16</v>
       </c>
     </row>
-    <row r="204" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A204" s="2" t="n">
+    <row r="204" spans="1:9" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A204" s="2">
         <v>10179</v>
       </c>
       <c r="B204" s="2" t="s">
@@ -7473,7 +7763,7 @@
       <c r="E204" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="F204" s="0" t="s">
+      <c r="F204" t="s">
         <v>205</v>
       </c>
       <c r="G204" s="3" t="s">
@@ -7486,8 +7776,8 @@
         <v>16</v>
       </c>
     </row>
-    <row r="205" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A205" s="2" t="n">
+    <row r="205" spans="1:9" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A205" s="2">
         <v>10180</v>
       </c>
       <c r="B205" s="2" t="s">
@@ -7499,7 +7789,7 @@
       <c r="E205" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="F205" s="0" t="s">
+      <c r="F205" t="s">
         <v>205</v>
       </c>
       <c r="G205" s="3" t="s">
@@ -7512,15 +7802,209 @@
         <v>16</v>
       </c>
     </row>
+    <row r="206" spans="1:9" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A206" s="2">
+        <v>10205</v>
+      </c>
+      <c r="B206" t="s">
+        <v>48</v>
+      </c>
+      <c r="C206" t="s">
+        <v>244</v>
+      </c>
+      <c r="D206" t="s">
+        <v>11</v>
+      </c>
+      <c r="E206" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="F206" t="s">
+        <v>243</v>
+      </c>
+      <c r="G206" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H206" t="s">
+        <v>15</v>
+      </c>
+      <c r="I206" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="207" spans="1:9" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A207" s="2">
+        <v>10206</v>
+      </c>
+      <c r="B207" t="s">
+        <v>48</v>
+      </c>
+      <c r="C207" t="s">
+        <v>244</v>
+      </c>
+      <c r="D207" t="s">
+        <v>11</v>
+      </c>
+      <c r="E207" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="F207" t="s">
+        <v>243</v>
+      </c>
+      <c r="G207" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H207" t="s">
+        <v>15</v>
+      </c>
+      <c r="I207" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="208" spans="1:9" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A208" s="2">
+        <v>10207</v>
+      </c>
+      <c r="B208" t="s">
+        <v>48</v>
+      </c>
+      <c r="C208" t="s">
+        <v>244</v>
+      </c>
+      <c r="D208" t="s">
+        <v>11</v>
+      </c>
+      <c r="E208" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="F208" t="s">
+        <v>243</v>
+      </c>
+      <c r="G208" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H208" t="s">
+        <v>15</v>
+      </c>
+      <c r="I208" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="209" spans="1:9" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A209" s="2">
+        <v>10208</v>
+      </c>
+      <c r="B209" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C209" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="D209" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E209" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="F209" t="s">
+        <v>243</v>
+      </c>
+      <c r="G209" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H209" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I209" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="210" spans="1:9" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A210" s="2">
+        <v>10209</v>
+      </c>
+      <c r="B210" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C210" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="D210" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E210" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="F210" t="s">
+        <v>243</v>
+      </c>
+      <c r="G210" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H210" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I210" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="211" spans="1:9" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A211" s="2">
+        <v>10210</v>
+      </c>
+      <c r="B211" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C211" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="E211" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="F211" t="s">
+        <v>243</v>
+      </c>
+      <c r="G211" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H211" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I211" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="212" spans="1:9" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A212" s="2">
+        <v>10211</v>
+      </c>
+      <c r="B212" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C212" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="D212" t="s">
+        <v>11</v>
+      </c>
+      <c r="E212" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="F212" t="s">
+        <v>243</v>
+      </c>
+      <c r="G212" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H212" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I212" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:I205"/>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
-  <drawing r:id="rId1"/>
+  <autoFilter ref="A1:I205" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
--- a/mosip_master/xlsx/dynamic_field.xlsx
+++ b/mosip_master/xlsx/dynamic_field.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kames\IdeaProjects\mosip-data\mosip_master\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{699A50B2-0AA9-429B-BD65-38D53DE3E703}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D803672-6D09-4806-93DA-AAA3B9FB13F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -19,8 +19,17 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$I$205</definedName>
     <definedName name="_FilterDatabase_0" localSheetId="0">Sheet1!$A$1:$I$103</definedName>
   </definedNames>
-  <calcPr calcId="0" iterateDelta="1E-4"/>
+  <calcPr calcId="191029" iterateDelta="1E-4"/>
   <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
     </ext>
@@ -29,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1689" uniqueCount="250">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1905" uniqueCount="253">
   <si>
     <t>id</t>
   </si>
@@ -1479,6 +1488,15 @@
   </si>
   <si>
     <t>{"value":"Española","code":"spa"}</t>
+  </si>
+  <si>
+    <t>{"value":"ಕನ್ನಡ","code":"kan"}</t>
+  </si>
+  <si>
+    <t>{"value":"हिंदी","code":"hin"}</t>
+  </si>
+  <si>
+    <t>{"value":"தமிழ்","code":"tam"}</t>
   </si>
 </sst>
 </file>
@@ -1859,10 +1877,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I212"/>
+  <dimension ref="A1:I239"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A209" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E214" sqref="E214"/>
+    <sheetView tabSelected="1" topLeftCell="A233" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C240" sqref="C240"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -8002,6 +8020,816 @@
         <v>16</v>
       </c>
     </row>
+    <row r="213" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A213" s="2">
+        <f>SUM(A212,1)</f>
+        <v>10212</v>
+      </c>
+      <c r="B213" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C213" t="s">
+        <v>57</v>
+      </c>
+      <c r="D213" t="s">
+        <v>11</v>
+      </c>
+      <c r="E213" t="s">
+        <v>249</v>
+      </c>
+      <c r="F213" t="s">
+        <v>13</v>
+      </c>
+      <c r="G213" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H213" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I213" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="214" spans="1:9" ht="29" x14ac:dyDescent="0.35">
+      <c r="A214" s="2">
+        <f t="shared" ref="A214:A239" si="0">SUM(A213,1)</f>
+        <v>10213</v>
+      </c>
+      <c r="B214" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C214" t="s">
+        <v>57</v>
+      </c>
+      <c r="D214" t="s">
+        <v>11</v>
+      </c>
+      <c r="E214" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="F214" t="s">
+        <v>13</v>
+      </c>
+      <c r="G214" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H214" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I214" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="215" spans="1:9" ht="29" x14ac:dyDescent="0.35">
+      <c r="A215" s="2">
+        <f t="shared" si="0"/>
+        <v>10214</v>
+      </c>
+      <c r="B215" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C215" t="s">
+        <v>57</v>
+      </c>
+      <c r="D215" t="s">
+        <v>11</v>
+      </c>
+      <c r="E215" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="F215" t="s">
+        <v>13</v>
+      </c>
+      <c r="G215" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H215" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I215" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="216" spans="1:9" ht="29" x14ac:dyDescent="0.35">
+      <c r="A216" s="2">
+        <f t="shared" si="0"/>
+        <v>10215</v>
+      </c>
+      <c r="B216" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C216" t="s">
+        <v>57</v>
+      </c>
+      <c r="D216" t="s">
+        <v>11</v>
+      </c>
+      <c r="E216" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="F216" t="s">
+        <v>13</v>
+      </c>
+      <c r="G216" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H216" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I216" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="217" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A217" s="2">
+        <f t="shared" si="0"/>
+        <v>10216</v>
+      </c>
+      <c r="B217" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C217" t="s">
+        <v>60</v>
+      </c>
+      <c r="D217" t="s">
+        <v>11</v>
+      </c>
+      <c r="E217" t="s">
+        <v>249</v>
+      </c>
+      <c r="F217" t="s">
+        <v>61</v>
+      </c>
+      <c r="G217" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H217" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I217" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="218" spans="1:9" ht="29" x14ac:dyDescent="0.35">
+      <c r="A218" s="2">
+        <f t="shared" si="0"/>
+        <v>10217</v>
+      </c>
+      <c r="B218" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C218" t="s">
+        <v>60</v>
+      </c>
+      <c r="D218" t="s">
+        <v>11</v>
+      </c>
+      <c r="E218" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="F218" t="s">
+        <v>61</v>
+      </c>
+      <c r="G218" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H218" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I218" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="219" spans="1:9" ht="29" x14ac:dyDescent="0.35">
+      <c r="A219" s="2">
+        <f t="shared" si="0"/>
+        <v>10218</v>
+      </c>
+      <c r="B219" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C219" t="s">
+        <v>60</v>
+      </c>
+      <c r="D219" t="s">
+        <v>11</v>
+      </c>
+      <c r="E219" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="F219" t="s">
+        <v>61</v>
+      </c>
+      <c r="G219" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H219" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I219" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="220" spans="1:9" ht="29" x14ac:dyDescent="0.35">
+      <c r="A220" s="2">
+        <f t="shared" si="0"/>
+        <v>10219</v>
+      </c>
+      <c r="B220" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C220" t="s">
+        <v>60</v>
+      </c>
+      <c r="D220" t="s">
+        <v>11</v>
+      </c>
+      <c r="E220" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="F220" t="s">
+        <v>61</v>
+      </c>
+      <c r="G220" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H220" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I220" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="221" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A221" s="2">
+        <f t="shared" si="0"/>
+        <v>10220</v>
+      </c>
+      <c r="B221" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C221" t="s">
+        <v>121</v>
+      </c>
+      <c r="D221" t="s">
+        <v>11</v>
+      </c>
+      <c r="E221" t="s">
+        <v>249</v>
+      </c>
+      <c r="F221" t="s">
+        <v>89</v>
+      </c>
+      <c r="G221" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H221" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I221" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="222" spans="1:9" ht="29" x14ac:dyDescent="0.35">
+      <c r="A222" s="2">
+        <f t="shared" si="0"/>
+        <v>10221</v>
+      </c>
+      <c r="B222" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C222" t="s">
+        <v>121</v>
+      </c>
+      <c r="D222" t="s">
+        <v>11</v>
+      </c>
+      <c r="E222" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="F222" t="s">
+        <v>89</v>
+      </c>
+      <c r="G222" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H222" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I222" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="223" spans="1:9" ht="29" x14ac:dyDescent="0.35">
+      <c r="A223" s="2">
+        <f t="shared" si="0"/>
+        <v>10222</v>
+      </c>
+      <c r="B223" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C223" t="s">
+        <v>121</v>
+      </c>
+      <c r="D223" t="s">
+        <v>11</v>
+      </c>
+      <c r="E223" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="F223" t="s">
+        <v>89</v>
+      </c>
+      <c r="G223" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H223" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I223" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="224" spans="1:9" ht="29" x14ac:dyDescent="0.35">
+      <c r="A224" s="2">
+        <f t="shared" si="0"/>
+        <v>10223</v>
+      </c>
+      <c r="B224" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C224" t="s">
+        <v>121</v>
+      </c>
+      <c r="D224" t="s">
+        <v>11</v>
+      </c>
+      <c r="E224" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="F224" t="s">
+        <v>89</v>
+      </c>
+      <c r="G224" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H224" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I224" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="225" spans="1:9" ht="29" x14ac:dyDescent="0.35">
+      <c r="A225" s="2">
+        <f t="shared" si="0"/>
+        <v>10224</v>
+      </c>
+      <c r="B225" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C225" t="s">
+        <v>248</v>
+      </c>
+      <c r="D225" t="s">
+        <v>11</v>
+      </c>
+      <c r="E225" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="F225" t="s">
+        <v>243</v>
+      </c>
+      <c r="G225" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H225" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I225" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="226" spans="1:9" ht="29" x14ac:dyDescent="0.35">
+      <c r="A226" s="2">
+        <f t="shared" si="0"/>
+        <v>10225</v>
+      </c>
+      <c r="B226" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C226" t="s">
+        <v>248</v>
+      </c>
+      <c r="D226" t="s">
+        <v>11</v>
+      </c>
+      <c r="E226" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="F226" t="s">
+        <v>243</v>
+      </c>
+      <c r="G226" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H226" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I226" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="227" spans="1:9" ht="29" x14ac:dyDescent="0.35">
+      <c r="A227" s="2">
+        <f t="shared" si="0"/>
+        <v>10226</v>
+      </c>
+      <c r="B227" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C227" t="s">
+        <v>248</v>
+      </c>
+      <c r="D227" t="s">
+        <v>11</v>
+      </c>
+      <c r="E227" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="F227" t="s">
+        <v>243</v>
+      </c>
+      <c r="G227" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H227" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I227" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="228" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A228" s="2">
+        <f t="shared" si="0"/>
+        <v>10227</v>
+      </c>
+      <c r="B228" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C228" t="s">
+        <v>162</v>
+      </c>
+      <c r="D228" t="s">
+        <v>11</v>
+      </c>
+      <c r="E228" t="s">
+        <v>249</v>
+      </c>
+      <c r="F228" t="s">
+        <v>126</v>
+      </c>
+      <c r="G228" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H228" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I228" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="229" spans="1:9" ht="29" x14ac:dyDescent="0.35">
+      <c r="A229" s="2">
+        <f t="shared" si="0"/>
+        <v>10228</v>
+      </c>
+      <c r="B229" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C229" t="s">
+        <v>162</v>
+      </c>
+      <c r="D229" t="s">
+        <v>11</v>
+      </c>
+      <c r="E229" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="F229" t="s">
+        <v>126</v>
+      </c>
+      <c r="G229" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H229" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I229" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="230" spans="1:9" ht="29" x14ac:dyDescent="0.35">
+      <c r="A230" s="2">
+        <f t="shared" si="0"/>
+        <v>10229</v>
+      </c>
+      <c r="B230" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C230" t="s">
+        <v>162</v>
+      </c>
+      <c r="D230" t="s">
+        <v>11</v>
+      </c>
+      <c r="E230" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="F230" t="s">
+        <v>126</v>
+      </c>
+      <c r="G230" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H230" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I230" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="231" spans="1:9" ht="29" x14ac:dyDescent="0.35">
+      <c r="A231" s="2">
+        <f t="shared" si="0"/>
+        <v>10230</v>
+      </c>
+      <c r="B231" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C231" t="s">
+        <v>162</v>
+      </c>
+      <c r="D231" t="s">
+        <v>11</v>
+      </c>
+      <c r="E231" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="F231" t="s">
+        <v>126</v>
+      </c>
+      <c r="G231" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H231" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I231" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="232" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A232" s="2">
+        <f t="shared" si="0"/>
+        <v>10231</v>
+      </c>
+      <c r="B232" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C232" t="s">
+        <v>202</v>
+      </c>
+      <c r="D232" t="s">
+        <v>11</v>
+      </c>
+      <c r="E232" t="s">
+        <v>249</v>
+      </c>
+      <c r="F232" t="s">
+        <v>166</v>
+      </c>
+      <c r="G232" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H232" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I232" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="233" spans="1:9" ht="29" x14ac:dyDescent="0.35">
+      <c r="A233" s="2">
+        <f t="shared" si="0"/>
+        <v>10232</v>
+      </c>
+      <c r="B233" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C233" t="s">
+        <v>202</v>
+      </c>
+      <c r="D233" t="s">
+        <v>11</v>
+      </c>
+      <c r="E233" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="F233" t="s">
+        <v>166</v>
+      </c>
+      <c r="G233" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H233" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I233" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="234" spans="1:9" ht="29" x14ac:dyDescent="0.35">
+      <c r="A234" s="2">
+        <f t="shared" si="0"/>
+        <v>10233</v>
+      </c>
+      <c r="B234" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C234" t="s">
+        <v>202</v>
+      </c>
+      <c r="D234" t="s">
+        <v>11</v>
+      </c>
+      <c r="E234" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="F234" t="s">
+        <v>166</v>
+      </c>
+      <c r="G234" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H234" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I234" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="235" spans="1:9" ht="29" x14ac:dyDescent="0.35">
+      <c r="A235" s="2">
+        <f t="shared" si="0"/>
+        <v>10234</v>
+      </c>
+      <c r="B235" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C235" t="s">
+        <v>202</v>
+      </c>
+      <c r="D235" t="s">
+        <v>11</v>
+      </c>
+      <c r="E235" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="F235" t="s">
+        <v>166</v>
+      </c>
+      <c r="G235" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H235" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I235" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="236" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A236" s="2">
+        <f t="shared" si="0"/>
+        <v>10235</v>
+      </c>
+      <c r="B236" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C236" t="s">
+        <v>242</v>
+      </c>
+      <c r="D236" t="s">
+        <v>11</v>
+      </c>
+      <c r="E236" t="s">
+        <v>249</v>
+      </c>
+      <c r="F236" t="s">
+        <v>205</v>
+      </c>
+      <c r="G236" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H236" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I236" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="237" spans="1:9" ht="29" x14ac:dyDescent="0.35">
+      <c r="A237" s="2">
+        <f t="shared" si="0"/>
+        <v>10236</v>
+      </c>
+      <c r="B237" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C237" t="s">
+        <v>242</v>
+      </c>
+      <c r="D237" t="s">
+        <v>11</v>
+      </c>
+      <c r="E237" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="F237" t="s">
+        <v>205</v>
+      </c>
+      <c r="G237" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H237" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I237" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="238" spans="1:9" ht="29" x14ac:dyDescent="0.35">
+      <c r="A238" s="2">
+        <f t="shared" si="0"/>
+        <v>10237</v>
+      </c>
+      <c r="B238" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C238" t="s">
+        <v>242</v>
+      </c>
+      <c r="D238" t="s">
+        <v>11</v>
+      </c>
+      <c r="E238" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="F238" t="s">
+        <v>205</v>
+      </c>
+      <c r="G238" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H238" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I238" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="239" spans="1:9" ht="29" x14ac:dyDescent="0.35">
+      <c r="A239" s="2">
+        <f t="shared" si="0"/>
+        <v>10238</v>
+      </c>
+      <c r="B239" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C239" t="s">
+        <v>242</v>
+      </c>
+      <c r="D239" t="s">
+        <v>11</v>
+      </c>
+      <c r="E239" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="F239" t="s">
+        <v>205</v>
+      </c>
+      <c r="G239" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H239" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I239" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:I205" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555496" footer="0.51180555555555496"/>

--- a/mosip_master/xlsx/dynamic_field.xlsx
+++ b/mosip_master/xlsx/dynamic_field.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kames\IdeaProjects\mosip-data\mosip_master\xlsx\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gokulraj\Documents\GitHub\mosip-data\mosip_master\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D803672-6D09-4806-93DA-AAA3B9FB13F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69E4AACF-4B67-4613-9DB2-6EF5AD92D134}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$I$205</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$I$239</definedName>
     <definedName name="_FilterDatabase_0" localSheetId="0">Sheet1!$A$1:$I$103</definedName>
   </definedNames>
   <calcPr calcId="191029" iterateDelta="1E-4"/>
@@ -76,13 +76,6 @@
     <t>string</t>
   </si>
   <si>
-    <t xml:space="preserve">
-	{
-		"code": "101",
-		"value": "A",
-	}</t>
-  </si>
-  <si>
     <t>eng</t>
   </si>
   <si>
@@ -93,69 +86,6 @@
   </si>
   <si>
     <t>now()</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-	{
-		"code": "102",
-		"value": "A+",
-	}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-	{
-		"code": "103",
-		"value": "A-",
-	}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-	{
-		"code": "104",
-		"value": "B",
-	}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-	{
-		"code": "105",
-		"value": "B+",
-	}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-	{
-		"code": "106",
-		"value": "B-",
-	}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-	{
-		"code": "107",
-		"value": "AB",
-	}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-	{
-		"code": "108",
-		"value": "AB+",
-	}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-	{
-		"code": "109",
-		"value": "AB-",
-	}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-	{
-		"code": "110",
-		"value": "O",
-	}</t>
   </si>
   <si>
     <t xml:space="preserve">
@@ -504,56 +434,7 @@
     <t>فصيلة الد</t>
   </si>
   <si>
-    <t xml:space="preserve">
-	{
-		"code": "101",
-		"value": "أ",
-	}</t>
-  </si>
-  <si>
     <t>ara</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-	{
-		"code": "102",
-		"value": "أ +",
-	}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-	{
-		"code": "103",
-		"value": "أ-",
-	}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-	{
-		"code": "104",
-		"value": "ب",
-	}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-	{
-		"code": "105",
-		"value": "ب +",
-	}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-	{
-		"code": "106",
-		"value": "ب-",
-	}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-	{
-		"code": "110",
-		"value": "ا",
-	}</t>
   </si>
   <si>
     <t xml:space="preserve">
@@ -725,77 +606,7 @@
     <t>ರಕ್ತದ ವಿಧ</t>
   </si>
   <si>
-    <t xml:space="preserve">
-	{
-		"code": "101",
-		"value": "ಎ",
-	}</t>
-  </si>
-  <si>
     <t>kan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-	{
-		"code": "102",
-		"value": "ಎ+",
-	}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-	{
-		"code": "103",
-		"value": "ಎ-",
-	}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-	{
-		"code": "104",
-		"value": "ಬಿ",
-	}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-	{
-		"code": "105",
-		"value": "ಬಿ+",
-	}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-	{
-		"code": "106",
-		"value": "ಬಿ-",
-	}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-	{
-		"code": "107",
-		"value": "ಎಬಿ",
-	}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-	{
-		"code": "108",
-		"value": "ಎಬಿ+",
-	}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-	{
-		"code": "109",
-		"value": "ಎಬಿ-",
-	}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-	{
-		"code": "110",
-		"value": "ಓ",
-	}</t>
   </si>
   <si>
     <t xml:space="preserve">
@@ -970,77 +781,7 @@
     <t>रक्त प्रकार</t>
   </si>
   <si>
-    <t xml:space="preserve">
-	{
-		"code": "101",
-		"value": "ए",
-	}</t>
-  </si>
-  <si>
     <t>hin</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-	{
-		"code": "102",
-		"value": "ए+",
-	}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-	{
-		"code": "103",
-		"value": "ए-",
-	}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-	{
-		"code": "104",
-		"value": "बी",
-	}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-	{
-		"code": "105",
-		"value": "बी+",
-	}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-	{
-		"code": "106",
-		"value": "बी-",
-	}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-	{
-		"code": "107",
-		"value": "एबी",
-	}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-	{
-		"code": "108",
-		"value": "एबी+",
-	}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-	{
-		"code": "109",
-		"value": "एबी-",
-	}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-	{
-		"code": "110",
-		"value": "हे",
-	}</t>
   </si>
   <si>
     <t xml:space="preserve">
@@ -1212,77 +953,7 @@
     <t>இரத்த வகை</t>
   </si>
   <si>
-    <t xml:space="preserve">
-	{
-		"code": "101",
-		"value": "ஏ",
-	}</t>
-  </si>
-  <si>
     <t>tam</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-	{
-		"code": "102",
-		"value": "ஏ+",
-	}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-	{
-		"code": "103",
-		"value": "ஏ-",
-	}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-	{
-		"code": "104",
-		"value": "பி",
-	}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-	{
-		"code": "105",
-		"value": "பி+",
-	}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-	{
-		"code": "106",
-		"value": "பி-",
-	}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-	{
-		"code": "107",
-		"value": "ஏபி",
-	}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-	{
-		"code": "108",
-		"value": "ஏபி+",
-	}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-	{
-		"code": "109",
-		"value": "ஏபி-",
-	}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-	{
-		"code": "110",
-		"value": "ஓ",
-	}</t>
   </si>
   <si>
     <t xml:space="preserve">
@@ -1497,6 +1168,335 @@
   </si>
   <si>
     <t>{"value":"தமிழ்","code":"tam"}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+	{
+		"code": "101",
+		"value": "A"
+	}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+	{
+		"code": "102",
+		"value": "A+"
+	}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+	{
+		"code": "103",
+		"value": "A-"
+	}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+	{
+		"code": "104",
+		"value": "B"
+	}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+	{
+		"code": "105",
+		"value": "B+"
+	}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+	{
+		"code": "106",
+		"value": "B-"
+	}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+	{
+		"code": "107",
+		"value": "AB"
+	}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+	{
+		"code": "108",
+		"value": "AB+"
+	}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+	{
+		"code": "109",
+		"value": "AB-"
+	}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+	{
+		"code": "110",
+		"value": "O"
+	}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+	{
+		"code": "101",
+		"value": "أ"
+	}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+	{
+		"code": "102",
+		"value": "أ +"
+	}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+	{
+		"code": "103",
+		"value": "أ-"
+	}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+	{
+		"code": "104",
+		"value": "ب"
+	}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+	{
+		"code": "105",
+		"value": "ب +"
+	}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+	{
+		"code": "106",
+		"value": "ب-"
+	}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+	{
+		"code": "110",
+		"value": "ا"
+	}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+	{
+		"code": "101",
+		"value": "ए"
+	}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+	{
+		"code": "102",
+		"value": "ए+"
+	}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+	{
+		"code": "103",
+		"value": "ए-"
+	}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+	{
+		"code": "104",
+		"value": "बी"
+	}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+	{
+		"code": "105",
+		"value": "बी+"
+	}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+	{
+		"code": "106",
+		"value": "बी-"
+	}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+	{
+		"code": "107",
+		"value": "एबी"
+	}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+	{
+		"code": "108",
+		"value": "एबी+"
+	}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+	{
+		"code": "109",
+		"value": "एबी-"
+	}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+	{
+		"code": "110",
+		"value": "हे"
+	}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+	{
+		"code": "101",
+		"value": "ಎ"
+	}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+	{
+		"code": "102",
+		"value": "ಎ+"
+	}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+	{
+		"code": "103",
+		"value": "ಎ-"
+	}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+	{
+		"code": "104",
+		"value": "ಬಿ"
+	}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+	{
+		"code": "105",
+		"value": "ಬಿ+"
+	}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+	{
+		"code": "106",
+		"value": "ಬಿ-"
+	}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+	{
+		"code": "107",
+		"value": "ಎಬಿ"
+	}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+	{
+		"code": "108",
+		"value": "ಎಬಿ+"
+	}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+	{
+		"code": "109",
+		"value": "ಎಬಿ-"
+	}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+	{
+		"code": "110",
+		"value": "ಓ"
+	}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+	{
+		"code": "101",
+		"value": "ஏ"
+	}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+	{
+		"code": "102",
+		"value": "ஏ+"
+	}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+	{
+		"code": "103",
+		"value": "ஏ-"
+	}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+	{
+		"code": "104",
+		"value": "பி"
+	}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+	{
+		"code": "105",
+		"value": "பி+"
+	}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+	{
+		"code": "106",
+		"value": "பி-"
+	}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+	{
+		"code": "107",
+		"value": "ஏபி"
+	}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+	{
+		"code": "108",
+		"value": "ஏபி+"
+	}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+	{
+		"code": "109",
+		"value": "ஏபி-"
+	}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+	{
+		"code": "110",
+		"value": "ஓ"
+	}</t>
   </si>
 </sst>
 </file>
@@ -1581,9 +1581,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1621,7 +1621,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -1727,7 +1727,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1869,7 +1869,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1877,26 +1877,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:I239"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A233" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C240" sqref="C240"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11" customWidth="1"/>
-    <col min="2" max="2" width="16.08984375" customWidth="1"/>
-    <col min="3" max="3" width="13.54296875" customWidth="1"/>
-    <col min="4" max="4" width="15.6328125" customWidth="1"/>
-    <col min="5" max="5" width="24.1796875" customWidth="1"/>
-    <col min="6" max="6" width="10.453125" customWidth="1"/>
-    <col min="7" max="7" width="13.08984375" customWidth="1"/>
-    <col min="8" max="8" width="11.54296875" customWidth="1"/>
-    <col min="9" max="9" width="15.453125" customWidth="1"/>
+    <col min="2" max="2" width="16.140625" customWidth="1"/>
+    <col min="3" max="3" width="13.5703125" customWidth="1"/>
+    <col min="4" max="4" width="15.5703125" customWidth="1"/>
+    <col min="5" max="5" width="24.140625" customWidth="1"/>
+    <col min="6" max="6" width="10.42578125" customWidth="1"/>
+    <col min="7" max="7" width="13.140625" customWidth="1"/>
+    <col min="8" max="8" width="11.5703125" customWidth="1"/>
+    <col min="9" max="9" width="15.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1925,7 +1926,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>10001</v>
       </c>
@@ -1939,22 +1940,22 @@
         <v>11</v>
       </c>
       <c r="E2" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="F2" t="s">
         <v>12</v>
       </c>
-      <c r="F2" t="s">
-        <v>13</v>
-      </c>
       <c r="G2" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" ht="72.5" x14ac:dyDescent="0.35">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>10002</v>
       </c>
@@ -1968,22 +1969,22 @@
         <v>11</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>17</v>
+        <v>207</v>
       </c>
       <c r="F3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" ht="72.5" x14ac:dyDescent="0.35">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>10003</v>
       </c>
@@ -1997,22 +1998,22 @@
         <v>11</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>18</v>
+        <v>208</v>
       </c>
       <c r="F4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" ht="72.5" x14ac:dyDescent="0.35">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>10004</v>
       </c>
@@ -2026,22 +2027,22 @@
         <v>11</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>19</v>
+        <v>209</v>
       </c>
       <c r="F5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I5" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" ht="72.5" x14ac:dyDescent="0.35">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>10005</v>
       </c>
@@ -2055,22 +2056,22 @@
         <v>11</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>20</v>
+        <v>210</v>
       </c>
       <c r="F6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I6" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" ht="72.5" x14ac:dyDescent="0.35">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>10006</v>
       </c>
@@ -2084,22 +2085,22 @@
         <v>11</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>21</v>
+        <v>211</v>
       </c>
       <c r="F7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I7" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" ht="72.5" x14ac:dyDescent="0.35">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>10007</v>
       </c>
@@ -2113,22 +2114,22 @@
         <v>11</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>22</v>
+        <v>212</v>
       </c>
       <c r="F8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I8" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" ht="72.5" x14ac:dyDescent="0.35">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>10008</v>
       </c>
@@ -2142,22 +2143,22 @@
         <v>11</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>23</v>
+        <v>213</v>
       </c>
       <c r="F9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I9" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" ht="72.5" x14ac:dyDescent="0.35">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>10009</v>
       </c>
@@ -2171,22 +2172,22 @@
         <v>11</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>24</v>
+        <v>214</v>
       </c>
       <c r="F10" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I10" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" ht="72.5" x14ac:dyDescent="0.35">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10010</v>
       </c>
@@ -2200,22 +2201,22 @@
         <v>11</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>25</v>
+        <v>215</v>
       </c>
       <c r="F11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H11" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I11" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" ht="72.5" x14ac:dyDescent="0.35">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>10011</v>
       </c>
@@ -2229,22 +2230,22 @@
         <v>11</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="F12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H12" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I12" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" ht="72.5" x14ac:dyDescent="0.35">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>10012</v>
       </c>
@@ -2258,22 +2259,22 @@
         <v>11</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="F13" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H13" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I13" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" ht="72.5" x14ac:dyDescent="0.35">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>10013</v>
       </c>
@@ -2287,22 +2288,22 @@
         <v>11</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="F14" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H14" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I14" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" ht="72.5" x14ac:dyDescent="0.35">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="90" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>10014</v>
       </c>
@@ -2316,631 +2317,631 @@
         <v>11</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="F15" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G15" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H15" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I15" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" ht="72.5" x14ac:dyDescent="0.35">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>10103</v>
       </c>
       <c r="B16" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="C16" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="D16" t="s">
         <v>11</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="F16" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H16" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I16" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" ht="72.5" x14ac:dyDescent="0.35">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" ht="75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>10104</v>
       </c>
       <c r="B17" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="C17" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="D17" t="s">
         <v>11</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="F17" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H17" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I17" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" ht="72.5" x14ac:dyDescent="0.35">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>10105</v>
       </c>
       <c r="B18" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="C18" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="D18" t="s">
         <v>11</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="F18" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H18" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I18" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" ht="72.5" x14ac:dyDescent="0.35">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" ht="75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>10106</v>
       </c>
       <c r="B19" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="C19" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="D19" t="s">
         <v>11</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="F19" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G19" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H19" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I19" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" ht="87" x14ac:dyDescent="0.35">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" ht="90" hidden="1" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>10107</v>
       </c>
       <c r="B20" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="C20" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="D20" t="s">
         <v>11</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="F20" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G20" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H20" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I20" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" ht="72.5" x14ac:dyDescent="0.35">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" ht="75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>10108</v>
       </c>
       <c r="B21" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="C21" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="D21" t="s">
         <v>11</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="F21" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G21" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H21" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I21" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" ht="72.5" x14ac:dyDescent="0.35">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" ht="75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>10109</v>
       </c>
       <c r="B22" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="C22" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="D22" t="s">
         <v>11</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="F22" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G22" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H22" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I22" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" ht="101.5" x14ac:dyDescent="0.35">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" ht="105" hidden="1" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>10181</v>
       </c>
       <c r="B23" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="C23" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="D23" t="s">
         <v>11</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="F23" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G23" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H23" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I23" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" ht="101.5" x14ac:dyDescent="0.35">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" ht="105" hidden="1" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>10182</v>
       </c>
       <c r="B24" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="C24" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="D24" t="s">
         <v>11</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="F24" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G24" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H24" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I24" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" ht="72.5" x14ac:dyDescent="0.35">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" ht="75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>10145</v>
       </c>
       <c r="B25" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="C25" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="D25" t="s">
         <v>11</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="F25" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G25" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H25" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I25" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" ht="87" x14ac:dyDescent="0.35">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" ht="90" hidden="1" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>10146</v>
       </c>
       <c r="B26" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="C26" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="D26" t="s">
         <v>11</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="F26" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G26" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H26" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I26" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" ht="87" x14ac:dyDescent="0.35">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" ht="90" hidden="1" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>10147</v>
       </c>
       <c r="B27" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="C27" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="D27" t="s">
         <v>11</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="F27" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G27" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H27" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I27" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" ht="72.5" x14ac:dyDescent="0.35">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" ht="75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>10085</v>
       </c>
       <c r="B28" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="C28" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="D28" t="s">
         <v>11</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="F28" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G28" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H28" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I28" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" ht="72.5" x14ac:dyDescent="0.35">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" ht="75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>10086</v>
       </c>
       <c r="B29" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="C29" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="D29" t="s">
         <v>11</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="F29" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G29" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H29" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I29" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" ht="72.5" x14ac:dyDescent="0.35">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" ht="75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>10087</v>
       </c>
       <c r="B30" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="C30" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="D30" t="s">
         <v>11</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="F30" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G30" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H30" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I30" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" ht="72.5" x14ac:dyDescent="0.35">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" ht="75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>10193</v>
       </c>
       <c r="B31" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="C31" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="D31" t="s">
         <v>11</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="F31" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G31" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H31" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I31" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" ht="72.5" x14ac:dyDescent="0.35">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" ht="90" hidden="1" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>10194</v>
       </c>
       <c r="B32" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="C32" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="D32" t="s">
         <v>11</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="F32" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G32" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H32" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I32" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9" ht="29" x14ac:dyDescent="0.35">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A33" s="2">
         <v>10163</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="D33" s="2" t="s">
         <v>11</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G33" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H33" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I33" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9" ht="29" x14ac:dyDescent="0.35">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A34" s="2">
         <v>10164</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="D34" s="2" t="s">
         <v>11</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G34" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H34" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I34" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9" ht="43.5" x14ac:dyDescent="0.35">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A35" s="2">
         <v>10165</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="D35" s="2" t="s">
         <v>11</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="G35" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H35" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I35" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9" ht="43.5" x14ac:dyDescent="0.35">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A36" s="2">
         <v>10166</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="D36" s="2" t="s">
         <v>11</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="G36" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H36" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I36" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9" ht="72.5" x14ac:dyDescent="0.35">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>10015</v>
       </c>
@@ -2948,28 +2949,28 @@
         <v>9</v>
       </c>
       <c r="C37" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="D37" t="s">
         <v>11</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>12</v>
+        <v>206</v>
       </c>
       <c r="F37" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="G37" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H37" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I37" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9" ht="72.5" x14ac:dyDescent="0.35">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>10016</v>
       </c>
@@ -2977,28 +2978,28 @@
         <v>9</v>
       </c>
       <c r="C38" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="D38" t="s">
         <v>11</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>17</v>
+        <v>207</v>
       </c>
       <c r="F38" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="G38" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H38" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I38" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9" ht="72.5" x14ac:dyDescent="0.35">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>10017</v>
       </c>
@@ -3006,28 +3007,28 @@
         <v>9</v>
       </c>
       <c r="C39" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="D39" t="s">
         <v>11</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>18</v>
+        <v>208</v>
       </c>
       <c r="F39" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="G39" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H39" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I39" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9" ht="72.5" x14ac:dyDescent="0.35">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>10018</v>
       </c>
@@ -3035,28 +3036,28 @@
         <v>9</v>
       </c>
       <c r="C40" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="D40" t="s">
         <v>11</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>19</v>
+        <v>209</v>
       </c>
       <c r="F40" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="G40" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H40" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I40" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9" ht="72.5" x14ac:dyDescent="0.35">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>10019</v>
       </c>
@@ -3064,28 +3065,28 @@
         <v>9</v>
       </c>
       <c r="C41" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="D41" t="s">
         <v>11</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>20</v>
+        <v>210</v>
       </c>
       <c r="F41" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="G41" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H41" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I41" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9" ht="72.5" x14ac:dyDescent="0.35">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>10020</v>
       </c>
@@ -3093,28 +3094,28 @@
         <v>9</v>
       </c>
       <c r="C42" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="D42" t="s">
         <v>11</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>21</v>
+        <v>211</v>
       </c>
       <c r="F42" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="G42" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H42" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I42" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9" ht="72.5" x14ac:dyDescent="0.35">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>10021</v>
       </c>
@@ -3122,28 +3123,28 @@
         <v>9</v>
       </c>
       <c r="C43" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="D43" t="s">
         <v>11</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>22</v>
+        <v>212</v>
       </c>
       <c r="F43" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="G43" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H43" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I43" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9" ht="72.5" x14ac:dyDescent="0.35">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>10022</v>
       </c>
@@ -3151,28 +3152,28 @@
         <v>9</v>
       </c>
       <c r="C44" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="D44" t="s">
         <v>11</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>23</v>
+        <v>213</v>
       </c>
       <c r="F44" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="G44" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H44" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I44" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9" ht="72.5" x14ac:dyDescent="0.35">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>10023</v>
       </c>
@@ -3180,28 +3181,28 @@
         <v>9</v>
       </c>
       <c r="C45" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="D45" t="s">
         <v>11</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>24</v>
+        <v>214</v>
       </c>
       <c r="F45" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="G45" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H45" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I45" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9" ht="72.5" x14ac:dyDescent="0.35">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>10024</v>
       </c>
@@ -3209,28 +3210,28 @@
         <v>9</v>
       </c>
       <c r="C46" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="D46" t="s">
         <v>11</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>25</v>
+        <v>215</v>
       </c>
       <c r="F46" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="G46" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H46" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I46" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9" ht="72.5" x14ac:dyDescent="0.35">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>10025</v>
       </c>
@@ -3238,28 +3239,28 @@
         <v>9</v>
       </c>
       <c r="C47" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="D47" t="s">
         <v>11</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="F47" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="G47" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H47" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I47" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9" ht="72.5" x14ac:dyDescent="0.35">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>10026</v>
       </c>
@@ -3267,28 +3268,28 @@
         <v>9</v>
       </c>
       <c r="C48" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="D48" t="s">
         <v>11</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="F48" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="G48" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H48" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I48" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9" ht="72.5" x14ac:dyDescent="0.35">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" ht="90" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>10027</v>
       </c>
@@ -3296,28 +3297,28 @@
         <v>9</v>
       </c>
       <c r="C49" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="D49" t="s">
         <v>11</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="F49" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="G49" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H49" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I49" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9" ht="87" x14ac:dyDescent="0.35">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" ht="90" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>10028</v>
       </c>
@@ -3325,521 +3326,521 @@
         <v>9</v>
       </c>
       <c r="C50" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="D50" t="s">
         <v>11</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="F50" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="G50" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H50" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I50" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9" ht="72.5" x14ac:dyDescent="0.35">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" ht="75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>10110</v>
       </c>
       <c r="B51" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="C51" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="D51" t="s">
         <v>11</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="F51" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="G51" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H51" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I51" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9" ht="72.5" x14ac:dyDescent="0.35">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" ht="75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>10111</v>
       </c>
       <c r="B52" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="C52" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="D52" t="s">
         <v>11</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
       <c r="F52" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="G52" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H52" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I52" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9" ht="72.5" x14ac:dyDescent="0.35">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" ht="75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>10112</v>
       </c>
       <c r="B53" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="C53" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="D53" t="s">
         <v>11</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="F53" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="G53" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H53" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I53" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="54" spans="1:9" ht="72.5" x14ac:dyDescent="0.35">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" ht="75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>10113</v>
       </c>
       <c r="B54" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="C54" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="D54" t="s">
         <v>11</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="F54" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="G54" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H54" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I54" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="55" spans="1:9" ht="87" x14ac:dyDescent="0.35">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" ht="90" hidden="1" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>10114</v>
       </c>
       <c r="B55" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="C55" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="D55" t="s">
         <v>11</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="F55" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="G55" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H55" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I55" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="56" spans="1:9" ht="72.5" x14ac:dyDescent="0.35">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" ht="75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>10115</v>
       </c>
       <c r="B56" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="C56" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="D56" t="s">
         <v>11</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="F56" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="G56" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H56" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I56" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="57" spans="1:9" ht="72.5" x14ac:dyDescent="0.35">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" ht="75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>10116</v>
       </c>
       <c r="B57" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="C57" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="D57" t="s">
         <v>11</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
       <c r="F57" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="G57" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H57" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I57" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="58" spans="1:9" ht="101.5" x14ac:dyDescent="0.35">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" ht="105" hidden="1" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>10183</v>
       </c>
       <c r="B58" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="C58" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="D58" t="s">
         <v>11</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>74</v>
+        <v>64</v>
       </c>
       <c r="F58" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="G58" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H58" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I58" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="59" spans="1:9" ht="101.5" x14ac:dyDescent="0.35">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" ht="105" hidden="1" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>10184</v>
       </c>
       <c r="B59" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="C59" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="D59" t="s">
         <v>11</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="F59" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="G59" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H59" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I59" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="60" spans="1:9" ht="72.5" x14ac:dyDescent="0.35">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" ht="75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>10148</v>
       </c>
       <c r="B60" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="C60" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="D60" t="s">
         <v>11</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="F60" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="G60" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H60" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I60" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="61" spans="1:9" ht="87" x14ac:dyDescent="0.35">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" ht="90" hidden="1" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>10149</v>
       </c>
       <c r="B61" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="C61" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="D61" t="s">
         <v>11</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="F61" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="G61" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H61" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I61" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="62" spans="1:9" ht="87" x14ac:dyDescent="0.35">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" ht="90" hidden="1" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>10150</v>
       </c>
       <c r="B62" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="C62" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="D62" t="s">
         <v>11</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="F62" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="G62" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H62" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I62" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="63" spans="1:9" ht="72.5" x14ac:dyDescent="0.35">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" ht="75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>10088</v>
       </c>
       <c r="B63" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="C63" t="s">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="D63" t="s">
         <v>11</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>81</v>
+        <v>71</v>
       </c>
       <c r="F63" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="G63" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H63" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I63" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="64" spans="1:9" ht="72.5" x14ac:dyDescent="0.35">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" ht="75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>10089</v>
       </c>
       <c r="B64" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="C64" t="s">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="D64" t="s">
         <v>11</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="F64" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="G64" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H64" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I64" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="65" spans="1:9" ht="72.5" x14ac:dyDescent="0.35">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" ht="75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>10090</v>
       </c>
       <c r="B65" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="C65" t="s">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="D65" t="s">
         <v>11</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="F65" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="G65" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H65" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I65" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="66" spans="1:9" ht="72.5" x14ac:dyDescent="0.35">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" ht="75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>10195</v>
       </c>
       <c r="B66" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="C66" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="D66" t="s">
         <v>11</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="F66" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="G66" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H66" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I66" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="67" spans="1:9" ht="72.5" x14ac:dyDescent="0.35">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" ht="75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>10196</v>
       </c>
       <c r="B67" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="C67" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="D67" t="s">
         <v>11</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="F67" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="G67" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H67" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I67" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="68" spans="1:9" ht="72.5" x14ac:dyDescent="0.35">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>10029</v>
       </c>
@@ -3847,28 +3848,28 @@
         <v>9</v>
       </c>
       <c r="C68" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="D68" t="s">
         <v>11</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>88</v>
+        <v>216</v>
       </c>
       <c r="F68" t="s">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="G68" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H68" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I68" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="69" spans="1:9" ht="72.5" x14ac:dyDescent="0.35">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>10030</v>
       </c>
@@ -3876,28 +3877,28 @@
         <v>9</v>
       </c>
       <c r="C69" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="D69" t="s">
         <v>11</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>90</v>
+        <v>217</v>
       </c>
       <c r="F69" t="s">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="G69" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H69" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I69" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="70" spans="1:9" ht="72.5" x14ac:dyDescent="0.35">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>10031</v>
       </c>
@@ -3905,28 +3906,28 @@
         <v>9</v>
       </c>
       <c r="C70" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="D70" t="s">
         <v>11</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>91</v>
+        <v>218</v>
       </c>
       <c r="F70" t="s">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="G70" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H70" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I70" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="71" spans="1:9" ht="72.5" x14ac:dyDescent="0.35">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>10032</v>
       </c>
@@ -3934,28 +3935,28 @@
         <v>9</v>
       </c>
       <c r="C71" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="D71" t="s">
         <v>11</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>92</v>
+        <v>219</v>
       </c>
       <c r="F71" t="s">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="G71" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H71" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I71" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="72" spans="1:9" ht="72.5" x14ac:dyDescent="0.35">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>10033</v>
       </c>
@@ -3963,28 +3964,28 @@
         <v>9</v>
       </c>
       <c r="C72" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="D72" t="s">
         <v>11</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>93</v>
+        <v>220</v>
       </c>
       <c r="F72" t="s">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="G72" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H72" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I72" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="73" spans="1:9" ht="72.5" x14ac:dyDescent="0.35">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>10034</v>
       </c>
@@ -3992,28 +3993,28 @@
         <v>9</v>
       </c>
       <c r="C73" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="D73" t="s">
         <v>11</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>94</v>
+        <v>221</v>
       </c>
       <c r="F73" t="s">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="G73" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H73" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I73" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="74" spans="1:9" ht="72.5" x14ac:dyDescent="0.35">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>10035</v>
       </c>
@@ -4021,28 +4022,28 @@
         <v>9</v>
       </c>
       <c r="C74" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="D74" t="s">
         <v>11</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>22</v>
+        <v>212</v>
       </c>
       <c r="F74" t="s">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="G74" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H74" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I74" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="75" spans="1:9" ht="72.5" x14ac:dyDescent="0.35">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>10036</v>
       </c>
@@ -4050,28 +4051,28 @@
         <v>9</v>
       </c>
       <c r="C75" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="D75" t="s">
         <v>11</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>23</v>
+        <v>213</v>
       </c>
       <c r="F75" t="s">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="G75" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H75" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I75" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="76" spans="1:9" ht="72.5" x14ac:dyDescent="0.35">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>10037</v>
       </c>
@@ -4079,28 +4080,28 @@
         <v>9</v>
       </c>
       <c r="C76" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="D76" t="s">
         <v>11</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>24</v>
+        <v>214</v>
       </c>
       <c r="F76" t="s">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="G76" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H76" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I76" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="77" spans="1:9" ht="72.5" x14ac:dyDescent="0.35">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>10038</v>
       </c>
@@ -4108,28 +4109,28 @@
         <v>9</v>
       </c>
       <c r="C77" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="D77" t="s">
         <v>11</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>95</v>
+        <v>222</v>
       </c>
       <c r="F77" t="s">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="G77" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H77" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I77" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="78" spans="1:9" ht="72.5" x14ac:dyDescent="0.35">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>10039</v>
       </c>
@@ -4137,28 +4138,28 @@
         <v>9</v>
       </c>
       <c r="C78" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="D78" t="s">
         <v>11</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="F78" t="s">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="G78" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H78" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I78" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="79" spans="1:9" ht="72.5" x14ac:dyDescent="0.35">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>10040</v>
       </c>
@@ -4166,28 +4167,28 @@
         <v>9</v>
       </c>
       <c r="C79" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="D79" t="s">
         <v>11</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>96</v>
+        <v>79</v>
       </c>
       <c r="F79" t="s">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="G79" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H79" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I79" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="80" spans="1:9" ht="72.5" x14ac:dyDescent="0.35">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>10041</v>
       </c>
@@ -4195,28 +4196,28 @@
         <v>9</v>
       </c>
       <c r="C80" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="D80" t="s">
         <v>11</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>97</v>
+        <v>80</v>
       </c>
       <c r="F80" t="s">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="G80" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H80" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I80" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="81" spans="1:9" ht="72.5" x14ac:dyDescent="0.35">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>10042</v>
       </c>
@@ -4224,654 +4225,654 @@
         <v>9</v>
       </c>
       <c r="C81" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="D81" t="s">
         <v>11</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>98</v>
+        <v>81</v>
       </c>
       <c r="F81" t="s">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="G81" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H81" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I81" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="82" spans="1:9" ht="87" x14ac:dyDescent="0.35">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9" ht="90" hidden="1" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>10117</v>
       </c>
       <c r="B82" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="C82" t="s">
-        <v>99</v>
+        <v>82</v>
       </c>
       <c r="D82" t="s">
         <v>11</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>100</v>
+        <v>83</v>
       </c>
       <c r="F82" t="s">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="G82" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H82" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I82" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="83" spans="1:9" ht="72.5" x14ac:dyDescent="0.35">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9" ht="75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>10118</v>
       </c>
       <c r="B83" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="C83" t="s">
-        <v>99</v>
+        <v>82</v>
       </c>
       <c r="D83" t="s">
         <v>11</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>101</v>
+        <v>84</v>
       </c>
       <c r="F83" t="s">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="G83" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H83" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I83" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="84" spans="1:9" ht="72.5" x14ac:dyDescent="0.35">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9" ht="75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>10119</v>
       </c>
       <c r="B84" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="C84" t="s">
-        <v>99</v>
+        <v>82</v>
       </c>
       <c r="D84" t="s">
         <v>11</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>102</v>
+        <v>85</v>
       </c>
       <c r="F84" t="s">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="G84" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H84" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I84" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="85" spans="1:9" ht="72.5" x14ac:dyDescent="0.35">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9" ht="75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>10120</v>
       </c>
       <c r="B85" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="C85" t="s">
-        <v>99</v>
+        <v>82</v>
       </c>
       <c r="D85" t="s">
         <v>11</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>103</v>
+        <v>86</v>
       </c>
       <c r="F85" t="s">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="G85" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H85" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I85" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="86" spans="1:9" ht="101.5" x14ac:dyDescent="0.35">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9" ht="105" hidden="1" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>10121</v>
       </c>
       <c r="B86" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="C86" t="s">
-        <v>99</v>
+        <v>82</v>
       </c>
       <c r="D86" t="s">
         <v>11</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>104</v>
+        <v>87</v>
       </c>
       <c r="F86" t="s">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="G86" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H86" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I86" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="87" spans="1:9" ht="72.5" x14ac:dyDescent="0.35">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9" ht="75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>10122</v>
       </c>
       <c r="B87" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="C87" t="s">
-        <v>99</v>
+        <v>82</v>
       </c>
       <c r="D87" t="s">
         <v>11</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>105</v>
+        <v>88</v>
       </c>
       <c r="F87" t="s">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="G87" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H87" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I87" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="88" spans="1:9" ht="72.5" x14ac:dyDescent="0.35">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9" ht="75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>10123</v>
       </c>
       <c r="B88" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="C88" t="s">
-        <v>99</v>
+        <v>82</v>
       </c>
       <c r="D88" t="s">
         <v>11</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>106</v>
+        <v>89</v>
       </c>
       <c r="F88" t="s">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="G88" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H88" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I88" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="89" spans="1:9" ht="87" x14ac:dyDescent="0.35">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9" ht="90" hidden="1" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>10185</v>
       </c>
       <c r="B89" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="C89" t="s">
-        <v>107</v>
+        <v>90</v>
       </c>
       <c r="D89" t="s">
         <v>11</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>108</v>
+        <v>91</v>
       </c>
       <c r="F89" t="s">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="G89" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H89" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I89" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="90" spans="1:9" ht="87" x14ac:dyDescent="0.35">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9" ht="90" hidden="1" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>10186</v>
       </c>
       <c r="B90" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="C90" t="s">
-        <v>107</v>
+        <v>90</v>
       </c>
       <c r="D90" t="s">
         <v>11</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>109</v>
+        <v>92</v>
       </c>
       <c r="F90" t="s">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="G90" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H90" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I90" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="91" spans="1:9" ht="72.5" x14ac:dyDescent="0.35">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9" ht="75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>10151</v>
       </c>
       <c r="B91" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="C91" t="s">
-        <v>110</v>
+        <v>93</v>
       </c>
       <c r="D91" t="s">
         <v>11</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>111</v>
+        <v>94</v>
       </c>
       <c r="F91" t="s">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="G91" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H91" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I91" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="92" spans="1:9" ht="87" x14ac:dyDescent="0.35">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9" ht="90" hidden="1" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>10152</v>
       </c>
       <c r="B92" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="C92" t="s">
-        <v>110</v>
+        <v>93</v>
       </c>
       <c r="D92" t="s">
         <v>11</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>112</v>
+        <v>95</v>
       </c>
       <c r="F92" t="s">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="G92" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H92" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I92" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="93" spans="1:9" ht="87" x14ac:dyDescent="0.35">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9" ht="90" hidden="1" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>10153</v>
       </c>
       <c r="B93" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="C93" t="s">
-        <v>110</v>
+        <v>93</v>
       </c>
       <c r="D93" t="s">
         <v>11</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>113</v>
+        <v>96</v>
       </c>
       <c r="F93" t="s">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="G93" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H93" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I93" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="94" spans="1:9" ht="72.5" x14ac:dyDescent="0.35">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9" ht="75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>10091</v>
       </c>
       <c r="B94" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="C94" t="s">
-        <v>114</v>
+        <v>97</v>
       </c>
       <c r="D94" t="s">
         <v>11</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>115</v>
+        <v>98</v>
       </c>
       <c r="F94" t="s">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="G94" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H94" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I94" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="95" spans="1:9" ht="72.5" x14ac:dyDescent="0.35">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9" ht="75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>10092</v>
       </c>
       <c r="B95" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="C95" t="s">
-        <v>114</v>
+        <v>97</v>
       </c>
       <c r="D95" t="s">
         <v>11</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>116</v>
+        <v>99</v>
       </c>
       <c r="F95" t="s">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="G95" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H95" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I95" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="96" spans="1:9" ht="72.5" x14ac:dyDescent="0.35">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9" ht="75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>10093</v>
       </c>
       <c r="B96" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="C96" t="s">
-        <v>114</v>
+        <v>97</v>
       </c>
       <c r="D96" t="s">
         <v>11</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>117</v>
+        <v>100</v>
       </c>
       <c r="F96" t="s">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="G96" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H96" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I96" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="97" spans="1:9" ht="72.5" x14ac:dyDescent="0.35">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9" ht="75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>10197</v>
       </c>
       <c r="B97" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="C97" t="s">
-        <v>118</v>
+        <v>101</v>
       </c>
       <c r="D97" t="s">
         <v>11</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>119</v>
+        <v>102</v>
       </c>
       <c r="F97" t="s">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="G97" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H97" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I97" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="98" spans="1:9" ht="72.5" x14ac:dyDescent="0.35">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9" ht="75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>10198</v>
       </c>
       <c r="B98" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="C98" t="s">
-        <v>118</v>
+        <v>101</v>
       </c>
       <c r="D98" t="s">
         <v>11</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>120</v>
+        <v>103</v>
       </c>
       <c r="F98" t="s">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="G98" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H98" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I98" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="99" spans="1:9" ht="29" x14ac:dyDescent="0.35">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A99" s="2">
         <v>10167</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>121</v>
+        <v>104</v>
       </c>
       <c r="D99" s="2" t="s">
         <v>11</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>122</v>
+        <v>105</v>
       </c>
       <c r="F99" s="2" t="s">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="G99" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H99" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I99" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="100" spans="1:9" ht="29" x14ac:dyDescent="0.35">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A100" s="2">
         <v>10168</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>123</v>
+        <v>106</v>
       </c>
       <c r="F100" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G100" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H100" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I100" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="101" spans="1:9" ht="43.5" x14ac:dyDescent="0.35">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A101" s="2">
         <v>10169</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>123</v>
+        <v>106</v>
       </c>
       <c r="F101" s="2" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="G101" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H101" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I101" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="102" spans="1:9" ht="29" x14ac:dyDescent="0.35">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A102" s="2">
         <v>10170</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>121</v>
+        <v>104</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="F102" s="2" t="s">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="G102" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H102" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I102" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="103" spans="1:9" ht="29" x14ac:dyDescent="0.35">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A103" s="2">
         <v>10171</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>121</v>
+        <v>104</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="F103" s="2" t="s">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="G103" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H103" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I103" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="104" spans="1:9" ht="72.5" x14ac:dyDescent="0.35">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="A104">
         <v>10043</v>
       </c>
@@ -4879,28 +4880,28 @@
         <v>9</v>
       </c>
       <c r="C104" t="s">
-        <v>124</v>
+        <v>107</v>
       </c>
       <c r="D104" t="s">
         <v>11</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>125</v>
+        <v>233</v>
       </c>
       <c r="F104" t="s">
-        <v>126</v>
+        <v>108</v>
       </c>
       <c r="G104" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H104" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I104" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="105" spans="1:9" ht="72.5" x14ac:dyDescent="0.35">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="105" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="A105">
         <v>10044</v>
       </c>
@@ -4908,28 +4909,28 @@
         <v>9</v>
       </c>
       <c r="C105" t="s">
-        <v>124</v>
+        <v>107</v>
       </c>
       <c r="D105" t="s">
         <v>11</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>127</v>
+        <v>234</v>
       </c>
       <c r="F105" t="s">
-        <v>126</v>
+        <v>108</v>
       </c>
       <c r="G105" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H105" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I105" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="106" spans="1:9" ht="72.5" x14ac:dyDescent="0.35">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="106" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="A106">
         <v>10045</v>
       </c>
@@ -4937,28 +4938,28 @@
         <v>9</v>
       </c>
       <c r="C106" t="s">
-        <v>124</v>
+        <v>107</v>
       </c>
       <c r="D106" t="s">
         <v>11</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>128</v>
+        <v>235</v>
       </c>
       <c r="F106" t="s">
-        <v>126</v>
+        <v>108</v>
       </c>
       <c r="G106" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H106" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I106" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="107" spans="1:9" ht="72.5" x14ac:dyDescent="0.35">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="107" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="A107">
         <v>10046</v>
       </c>
@@ -4966,28 +4967,28 @@
         <v>9</v>
       </c>
       <c r="C107" t="s">
-        <v>124</v>
+        <v>107</v>
       </c>
       <c r="D107" t="s">
         <v>11</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>129</v>
+        <v>236</v>
       </c>
       <c r="F107" t="s">
-        <v>126</v>
+        <v>108</v>
       </c>
       <c r="G107" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H107" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I107" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="108" spans="1:9" ht="72.5" x14ac:dyDescent="0.35">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="108" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="A108">
         <v>10047</v>
       </c>
@@ -4995,28 +4996,28 @@
         <v>9</v>
       </c>
       <c r="C108" t="s">
-        <v>124</v>
+        <v>107</v>
       </c>
       <c r="D108" t="s">
         <v>11</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>130</v>
+        <v>237</v>
       </c>
       <c r="F108" t="s">
-        <v>126</v>
+        <v>108</v>
       </c>
       <c r="G108" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H108" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I108" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="109" spans="1:9" ht="72.5" x14ac:dyDescent="0.35">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="109" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="A109">
         <v>10048</v>
       </c>
@@ -5024,28 +5025,28 @@
         <v>9</v>
       </c>
       <c r="C109" t="s">
-        <v>124</v>
+        <v>107</v>
       </c>
       <c r="D109" t="s">
         <v>11</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>131</v>
+        <v>238</v>
       </c>
       <c r="F109" t="s">
-        <v>126</v>
+        <v>108</v>
       </c>
       <c r="G109" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H109" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I109" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="110" spans="1:9" ht="72.5" x14ac:dyDescent="0.35">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="110" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="A110">
         <v>10049</v>
       </c>
@@ -5053,28 +5054,28 @@
         <v>9</v>
       </c>
       <c r="C110" t="s">
-        <v>124</v>
+        <v>107</v>
       </c>
       <c r="D110" t="s">
         <v>11</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>132</v>
+        <v>239</v>
       </c>
       <c r="F110" t="s">
-        <v>126</v>
+        <v>108</v>
       </c>
       <c r="G110" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H110" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I110" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="111" spans="1:9" ht="72.5" x14ac:dyDescent="0.35">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="111" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="A111">
         <v>10050</v>
       </c>
@@ -5082,28 +5083,28 @@
         <v>9</v>
       </c>
       <c r="C111" t="s">
-        <v>124</v>
+        <v>107</v>
       </c>
       <c r="D111" t="s">
         <v>11</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>133</v>
+        <v>240</v>
       </c>
       <c r="F111" t="s">
-        <v>126</v>
+        <v>108</v>
       </c>
       <c r="G111" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H111" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I111" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="112" spans="1:9" ht="72.5" x14ac:dyDescent="0.35">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="112" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="A112">
         <v>10051</v>
       </c>
@@ -5111,28 +5112,28 @@
         <v>9</v>
       </c>
       <c r="C112" t="s">
-        <v>124</v>
+        <v>107</v>
       </c>
       <c r="D112" t="s">
         <v>11</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>134</v>
+        <v>241</v>
       </c>
       <c r="F112" t="s">
-        <v>126</v>
+        <v>108</v>
       </c>
       <c r="G112" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H112" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I112" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="113" spans="1:9" ht="72.5" x14ac:dyDescent="0.35">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="113" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="A113">
         <v>10052</v>
       </c>
@@ -5140,28 +5141,28 @@
         <v>9</v>
       </c>
       <c r="C113" t="s">
-        <v>124</v>
+        <v>107</v>
       </c>
       <c r="D113" t="s">
         <v>11</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>135</v>
+        <v>242</v>
       </c>
       <c r="F113" t="s">
-        <v>126</v>
+        <v>108</v>
       </c>
       <c r="G113" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H113" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I113" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="114" spans="1:9" ht="72.5" x14ac:dyDescent="0.35">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="114" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="A114">
         <v>10053</v>
       </c>
@@ -5169,28 +5170,28 @@
         <v>9</v>
       </c>
       <c r="C114" t="s">
-        <v>124</v>
+        <v>107</v>
       </c>
       <c r="D114" t="s">
         <v>11</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>136</v>
+        <v>109</v>
       </c>
       <c r="F114" t="s">
-        <v>126</v>
+        <v>108</v>
       </c>
       <c r="G114" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H114" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I114" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="115" spans="1:9" ht="72.5" x14ac:dyDescent="0.35">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="115" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="A115">
         <v>10054</v>
       </c>
@@ -5198,28 +5199,28 @@
         <v>9</v>
       </c>
       <c r="C115" t="s">
-        <v>124</v>
+        <v>107</v>
       </c>
       <c r="D115" t="s">
         <v>11</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>137</v>
+        <v>110</v>
       </c>
       <c r="F115" t="s">
-        <v>126</v>
+        <v>108</v>
       </c>
       <c r="G115" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H115" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I115" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="116" spans="1:9" ht="72.5" x14ac:dyDescent="0.35">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="116" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="A116">
         <v>10055</v>
       </c>
@@ -5227,28 +5228,28 @@
         <v>9</v>
       </c>
       <c r="C116" t="s">
-        <v>124</v>
+        <v>107</v>
       </c>
       <c r="D116" t="s">
         <v>11</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>138</v>
+        <v>111</v>
       </c>
       <c r="F116" t="s">
-        <v>126</v>
+        <v>108</v>
       </c>
       <c r="G116" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H116" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I116" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="117" spans="1:9" ht="87" x14ac:dyDescent="0.35">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="117" spans="1:9" ht="90" x14ac:dyDescent="0.25">
       <c r="A117">
         <v>10056</v>
       </c>
@@ -5256,605 +5257,605 @@
         <v>9</v>
       </c>
       <c r="C117" t="s">
-        <v>124</v>
+        <v>107</v>
       </c>
       <c r="D117" t="s">
         <v>11</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>139</v>
+        <v>112</v>
       </c>
       <c r="F117" t="s">
-        <v>126</v>
+        <v>108</v>
       </c>
       <c r="G117" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H117" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I117" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="118" spans="1:9" ht="72.5" x14ac:dyDescent="0.35">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="118" spans="1:9" ht="75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A118">
         <v>10124</v>
       </c>
       <c r="B118" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="C118" t="s">
-        <v>140</v>
+        <v>113</v>
       </c>
       <c r="D118" t="s">
         <v>11</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>141</v>
+        <v>114</v>
       </c>
       <c r="F118" t="s">
-        <v>126</v>
+        <v>108</v>
       </c>
       <c r="G118" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H118" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I118" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="119" spans="1:9" ht="72.5" x14ac:dyDescent="0.35">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="119" spans="1:9" ht="75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A119">
         <v>10125</v>
       </c>
       <c r="B119" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="C119" t="s">
-        <v>140</v>
+        <v>113</v>
       </c>
       <c r="D119" t="s">
         <v>11</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>142</v>
+        <v>115</v>
       </c>
       <c r="F119" t="s">
-        <v>126</v>
+        <v>108</v>
       </c>
       <c r="G119" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H119" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I119" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="120" spans="1:9" ht="72.5" x14ac:dyDescent="0.35">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="120" spans="1:9" ht="75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A120">
         <v>10126</v>
       </c>
       <c r="B120" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="C120" t="s">
-        <v>140</v>
+        <v>113</v>
       </c>
       <c r="D120" t="s">
         <v>11</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>143</v>
+        <v>116</v>
       </c>
       <c r="F120" t="s">
-        <v>126</v>
+        <v>108</v>
       </c>
       <c r="G120" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H120" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I120" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="121" spans="1:9" ht="87" x14ac:dyDescent="0.35">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="121" spans="1:9" ht="90" hidden="1" x14ac:dyDescent="0.25">
       <c r="A121">
         <v>10127</v>
       </c>
       <c r="B121" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="C121" t="s">
-        <v>140</v>
+        <v>113</v>
       </c>
       <c r="D121" t="s">
         <v>11</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>144</v>
+        <v>117</v>
       </c>
       <c r="F121" t="s">
-        <v>126</v>
+        <v>108</v>
       </c>
       <c r="G121" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H121" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I121" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="122" spans="1:9" ht="101.5" x14ac:dyDescent="0.35">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="122" spans="1:9" ht="105" hidden="1" x14ac:dyDescent="0.25">
       <c r="A122">
         <v>10128</v>
       </c>
       <c r="B122" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="C122" t="s">
-        <v>140</v>
+        <v>113</v>
       </c>
       <c r="D122" t="s">
         <v>11</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>145</v>
+        <v>118</v>
       </c>
       <c r="F122" t="s">
-        <v>126</v>
+        <v>108</v>
       </c>
       <c r="G122" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H122" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I122" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="123" spans="1:9" ht="87" x14ac:dyDescent="0.35">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="123" spans="1:9" ht="90" hidden="1" x14ac:dyDescent="0.25">
       <c r="A123">
         <v>10129</v>
       </c>
       <c r="B123" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="C123" t="s">
-        <v>140</v>
+        <v>113</v>
       </c>
       <c r="D123" t="s">
         <v>11</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>146</v>
+        <v>119</v>
       </c>
       <c r="F123" t="s">
-        <v>126</v>
+        <v>108</v>
       </c>
       <c r="G123" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H123" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I123" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="124" spans="1:9" ht="87" x14ac:dyDescent="0.35">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="124" spans="1:9" ht="90" hidden="1" x14ac:dyDescent="0.25">
       <c r="A124">
         <v>10130</v>
       </c>
       <c r="B124" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="C124" t="s">
-        <v>140</v>
+        <v>113</v>
       </c>
       <c r="D124" t="s">
         <v>11</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>147</v>
+        <v>120</v>
       </c>
       <c r="F124" t="s">
-        <v>126</v>
+        <v>108</v>
       </c>
       <c r="G124" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H124" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I124" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="125" spans="1:9" ht="101.5" x14ac:dyDescent="0.35">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="125" spans="1:9" ht="105" hidden="1" x14ac:dyDescent="0.25">
       <c r="A125">
         <v>10187</v>
       </c>
       <c r="B125" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="C125" t="s">
-        <v>148</v>
+        <v>121</v>
       </c>
       <c r="D125" t="s">
         <v>11</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>149</v>
+        <v>122</v>
       </c>
       <c r="F125" t="s">
-        <v>126</v>
+        <v>108</v>
       </c>
       <c r="G125" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H125" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I125" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="126" spans="1:9" ht="101.5" x14ac:dyDescent="0.35">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="126" spans="1:9" ht="105" hidden="1" x14ac:dyDescent="0.25">
       <c r="A126">
         <v>10188</v>
       </c>
       <c r="B126" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="C126" t="s">
-        <v>148</v>
+        <v>121</v>
       </c>
       <c r="D126" t="s">
         <v>11</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>150</v>
+        <v>123</v>
       </c>
       <c r="F126" t="s">
-        <v>126</v>
+        <v>108</v>
       </c>
       <c r="G126" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H126" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I126" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="127" spans="1:9" ht="72.5" x14ac:dyDescent="0.35">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="127" spans="1:9" ht="75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A127">
         <v>10154</v>
       </c>
       <c r="B127" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="C127" t="s">
-        <v>151</v>
+        <v>124</v>
       </c>
       <c r="D127" t="s">
         <v>11</v>
       </c>
       <c r="E127" s="2" t="s">
-        <v>152</v>
+        <v>125</v>
       </c>
       <c r="F127" t="s">
-        <v>126</v>
+        <v>108</v>
       </c>
       <c r="G127" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H127" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I127" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="128" spans="1:9" ht="87" x14ac:dyDescent="0.35">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="128" spans="1:9" ht="105" hidden="1" x14ac:dyDescent="0.25">
       <c r="A128">
         <v>10155</v>
       </c>
       <c r="B128" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="C128" t="s">
-        <v>151</v>
+        <v>124</v>
       </c>
       <c r="D128" t="s">
         <v>11</v>
       </c>
       <c r="E128" s="2" t="s">
-        <v>153</v>
+        <v>126</v>
       </c>
       <c r="F128" t="s">
-        <v>126</v>
+        <v>108</v>
       </c>
       <c r="G128" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H128" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I128" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="129" spans="1:9" ht="87" x14ac:dyDescent="0.35">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="129" spans="1:9" ht="105" hidden="1" x14ac:dyDescent="0.25">
       <c r="A129">
         <v>10156</v>
       </c>
       <c r="B129" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="C129" t="s">
-        <v>151</v>
+        <v>124</v>
       </c>
       <c r="D129" t="s">
         <v>11</v>
       </c>
       <c r="E129" s="2" t="s">
-        <v>154</v>
+        <v>127</v>
       </c>
       <c r="F129" t="s">
-        <v>126</v>
+        <v>108</v>
       </c>
       <c r="G129" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H129" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I129" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="130" spans="1:9" ht="72.5" x14ac:dyDescent="0.35">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="130" spans="1:9" ht="75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A130">
         <v>10094</v>
       </c>
       <c r="B130" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="C130" t="s">
-        <v>155</v>
+        <v>128</v>
       </c>
       <c r="D130" t="s">
         <v>11</v>
       </c>
       <c r="E130" s="2" t="s">
-        <v>156</v>
+        <v>129</v>
       </c>
       <c r="F130" t="s">
-        <v>126</v>
+        <v>108</v>
       </c>
       <c r="G130" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H130" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I130" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="131" spans="1:9" ht="72.5" x14ac:dyDescent="0.35">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="131" spans="1:9" ht="75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A131">
         <v>10095</v>
       </c>
       <c r="B131" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="C131" t="s">
-        <v>155</v>
+        <v>128</v>
       </c>
       <c r="D131" t="s">
         <v>11</v>
       </c>
       <c r="E131" s="2" t="s">
-        <v>157</v>
+        <v>130</v>
       </c>
       <c r="F131" t="s">
-        <v>126</v>
+        <v>108</v>
       </c>
       <c r="G131" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H131" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I131" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="132" spans="1:9" ht="72.5" x14ac:dyDescent="0.35">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="132" spans="1:9" ht="75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A132">
         <v>10096</v>
       </c>
       <c r="B132" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="C132" t="s">
-        <v>155</v>
+        <v>128</v>
       </c>
       <c r="D132" t="s">
         <v>11</v>
       </c>
       <c r="E132" s="2" t="s">
-        <v>158</v>
+        <v>131</v>
       </c>
       <c r="F132" t="s">
-        <v>126</v>
+        <v>108</v>
       </c>
       <c r="G132" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H132" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I132" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="133" spans="1:9" ht="72.5" x14ac:dyDescent="0.35">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="133" spans="1:9" ht="75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A133">
         <v>10199</v>
       </c>
       <c r="B133" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="C133" t="s">
-        <v>159</v>
+        <v>132</v>
       </c>
       <c r="D133" t="s">
         <v>11</v>
       </c>
       <c r="E133" s="2" t="s">
-        <v>160</v>
+        <v>133</v>
       </c>
       <c r="F133" t="s">
-        <v>126</v>
+        <v>108</v>
       </c>
       <c r="G133" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H133" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I133" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="134" spans="1:9" ht="87" x14ac:dyDescent="0.35">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="134" spans="1:9" ht="90" hidden="1" x14ac:dyDescent="0.25">
       <c r="A134">
         <v>10200</v>
       </c>
       <c r="B134" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="C134" t="s">
-        <v>159</v>
+        <v>132</v>
       </c>
       <c r="D134" t="s">
         <v>11</v>
       </c>
       <c r="E134" s="2" t="s">
-        <v>161</v>
+        <v>134</v>
       </c>
       <c r="F134" t="s">
-        <v>126</v>
+        <v>108</v>
       </c>
       <c r="G134" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H134" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I134" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="135" spans="1:9" ht="43.5" x14ac:dyDescent="0.35">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="135" spans="1:9" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A135" s="2">
         <v>10172</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="C135" s="2" t="s">
-        <v>162</v>
+        <v>135</v>
       </c>
       <c r="D135" s="2" t="s">
         <v>11</v>
       </c>
       <c r="E135" s="2" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="F135" t="s">
-        <v>126</v>
+        <v>108</v>
       </c>
       <c r="G135" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H135" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I135" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="136" spans="1:9" ht="43.5" x14ac:dyDescent="0.35">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="136" spans="1:9" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A136" s="2">
         <v>10173</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="C136" s="2" t="s">
-        <v>162</v>
+        <v>135</v>
       </c>
       <c r="D136" s="2" t="s">
         <v>11</v>
       </c>
       <c r="E136" s="2" t="s">
-        <v>163</v>
+        <v>136</v>
       </c>
       <c r="F136" t="s">
-        <v>126</v>
+        <v>108</v>
       </c>
       <c r="G136" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H136" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I136" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="137" spans="1:9" ht="43.5" x14ac:dyDescent="0.35">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="137" spans="1:9" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A137" s="2">
         <v>10174</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="C137" s="2" t="s">
-        <v>162</v>
+        <v>135</v>
       </c>
       <c r="E137" s="2" t="s">
-        <v>123</v>
+        <v>106</v>
       </c>
       <c r="F137" t="s">
-        <v>126</v>
+        <v>108</v>
       </c>
       <c r="G137" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H137" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I137" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="138" spans="1:9" ht="72.5" x14ac:dyDescent="0.35">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="138" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="A138">
         <v>10057</v>
       </c>
@@ -5862,28 +5863,28 @@
         <v>9</v>
       </c>
       <c r="C138" t="s">
-        <v>164</v>
+        <v>137</v>
       </c>
       <c r="D138" t="s">
         <v>11</v>
       </c>
       <c r="E138" s="2" t="s">
-        <v>165</v>
+        <v>223</v>
       </c>
       <c r="F138" t="s">
-        <v>166</v>
+        <v>138</v>
       </c>
       <c r="G138" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H138" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I138" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="139" spans="1:9" ht="72.5" x14ac:dyDescent="0.35">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="139" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="A139">
         <v>10058</v>
       </c>
@@ -5891,28 +5892,28 @@
         <v>9</v>
       </c>
       <c r="C139" t="s">
-        <v>164</v>
+        <v>137</v>
       </c>
       <c r="D139" t="s">
         <v>11</v>
       </c>
       <c r="E139" s="2" t="s">
-        <v>167</v>
+        <v>224</v>
       </c>
       <c r="F139" t="s">
-        <v>166</v>
+        <v>138</v>
       </c>
       <c r="G139" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H139" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I139" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="140" spans="1:9" ht="72.5" x14ac:dyDescent="0.35">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="140" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="A140">
         <v>10059</v>
       </c>
@@ -5920,28 +5921,28 @@
         <v>9</v>
       </c>
       <c r="C140" t="s">
-        <v>164</v>
+        <v>137</v>
       </c>
       <c r="D140" t="s">
         <v>11</v>
       </c>
       <c r="E140" s="2" t="s">
-        <v>168</v>
+        <v>225</v>
       </c>
       <c r="F140" t="s">
-        <v>166</v>
+        <v>138</v>
       </c>
       <c r="G140" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H140" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I140" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="141" spans="1:9" ht="72.5" x14ac:dyDescent="0.35">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="141" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="A141">
         <v>10060</v>
       </c>
@@ -5949,28 +5950,28 @@
         <v>9</v>
       </c>
       <c r="C141" t="s">
-        <v>164</v>
+        <v>137</v>
       </c>
       <c r="D141" t="s">
         <v>11</v>
       </c>
       <c r="E141" s="2" t="s">
-        <v>169</v>
+        <v>226</v>
       </c>
       <c r="F141" t="s">
-        <v>166</v>
+        <v>138</v>
       </c>
       <c r="G141" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H141" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I141" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="142" spans="1:9" ht="72.5" x14ac:dyDescent="0.35">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="142" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="A142">
         <v>10061</v>
       </c>
@@ -5978,28 +5979,28 @@
         <v>9</v>
       </c>
       <c r="C142" t="s">
-        <v>164</v>
+        <v>137</v>
       </c>
       <c r="D142" t="s">
         <v>11</v>
       </c>
       <c r="E142" s="2" t="s">
-        <v>170</v>
+        <v>227</v>
       </c>
       <c r="F142" t="s">
-        <v>166</v>
+        <v>138</v>
       </c>
       <c r="G142" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H142" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I142" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="143" spans="1:9" ht="72.5" x14ac:dyDescent="0.35">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="143" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="A143">
         <v>10062</v>
       </c>
@@ -6007,28 +6008,28 @@
         <v>9</v>
       </c>
       <c r="C143" t="s">
-        <v>164</v>
+        <v>137</v>
       </c>
       <c r="D143" t="s">
         <v>11</v>
       </c>
       <c r="E143" s="2" t="s">
-        <v>171</v>
+        <v>228</v>
       </c>
       <c r="F143" t="s">
-        <v>166</v>
+        <v>138</v>
       </c>
       <c r="G143" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H143" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I143" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="144" spans="1:9" ht="72.5" x14ac:dyDescent="0.35">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="144" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="A144">
         <v>10063</v>
       </c>
@@ -6036,28 +6037,28 @@
         <v>9</v>
       </c>
       <c r="C144" t="s">
-        <v>164</v>
+        <v>137</v>
       </c>
       <c r="D144" t="s">
         <v>11</v>
       </c>
       <c r="E144" s="2" t="s">
-        <v>172</v>
+        <v>229</v>
       </c>
       <c r="F144" t="s">
-        <v>166</v>
+        <v>138</v>
       </c>
       <c r="G144" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H144" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I144" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="145" spans="1:9" ht="72.5" x14ac:dyDescent="0.35">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="145" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="A145">
         <v>10064</v>
       </c>
@@ -6065,28 +6066,28 @@
         <v>9</v>
       </c>
       <c r="C145" t="s">
-        <v>164</v>
+        <v>137</v>
       </c>
       <c r="D145" t="s">
         <v>11</v>
       </c>
       <c r="E145" s="2" t="s">
-        <v>173</v>
+        <v>230</v>
       </c>
       <c r="F145" t="s">
-        <v>166</v>
+        <v>138</v>
       </c>
       <c r="G145" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H145" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I145" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="146" spans="1:9" ht="72.5" x14ac:dyDescent="0.35">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="146" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="A146">
         <v>10065</v>
       </c>
@@ -6094,28 +6095,28 @@
         <v>9</v>
       </c>
       <c r="C146" t="s">
-        <v>164</v>
+        <v>137</v>
       </c>
       <c r="D146" t="s">
         <v>11</v>
       </c>
       <c r="E146" s="2" t="s">
-        <v>174</v>
+        <v>231</v>
       </c>
       <c r="F146" t="s">
-        <v>166</v>
+        <v>138</v>
       </c>
       <c r="G146" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H146" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I146" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="147" spans="1:9" ht="72.5" x14ac:dyDescent="0.35">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="147" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="A147">
         <v>10066</v>
       </c>
@@ -6123,28 +6124,28 @@
         <v>9</v>
       </c>
       <c r="C147" t="s">
-        <v>164</v>
+        <v>137</v>
       </c>
       <c r="D147" t="s">
         <v>11</v>
       </c>
       <c r="E147" s="2" t="s">
-        <v>175</v>
+        <v>232</v>
       </c>
       <c r="F147" t="s">
-        <v>166</v>
+        <v>138</v>
       </c>
       <c r="G147" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H147" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I147" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="148" spans="1:9" ht="72.5" x14ac:dyDescent="0.35">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="148" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="A148">
         <v>10067</v>
       </c>
@@ -6152,28 +6153,28 @@
         <v>9</v>
       </c>
       <c r="C148" t="s">
-        <v>164</v>
+        <v>137</v>
       </c>
       <c r="D148" t="s">
         <v>11</v>
       </c>
       <c r="E148" s="2" t="s">
-        <v>176</v>
+        <v>139</v>
       </c>
       <c r="F148" t="s">
-        <v>166</v>
+        <v>138</v>
       </c>
       <c r="G148" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H148" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I148" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="149" spans="1:9" ht="72.5" x14ac:dyDescent="0.35">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="149" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="A149">
         <v>10068</v>
       </c>
@@ -6181,28 +6182,28 @@
         <v>9</v>
       </c>
       <c r="C149" t="s">
-        <v>164</v>
+        <v>137</v>
       </c>
       <c r="D149" t="s">
         <v>11</v>
       </c>
       <c r="E149" s="2" t="s">
-        <v>177</v>
+        <v>140</v>
       </c>
       <c r="F149" t="s">
-        <v>166</v>
+        <v>138</v>
       </c>
       <c r="G149" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H149" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I149" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="150" spans="1:9" ht="72.5" x14ac:dyDescent="0.35">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="150" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="A150">
         <v>10069</v>
       </c>
@@ -6210,28 +6211,28 @@
         <v>9</v>
       </c>
       <c r="C150" t="s">
-        <v>164</v>
+        <v>137</v>
       </c>
       <c r="D150" t="s">
         <v>11</v>
       </c>
       <c r="E150" s="2" t="s">
-        <v>178</v>
+        <v>141</v>
       </c>
       <c r="F150" t="s">
-        <v>166</v>
+        <v>138</v>
       </c>
       <c r="G150" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H150" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I150" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="151" spans="1:9" ht="72.5" x14ac:dyDescent="0.35">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="151" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="A151">
         <v>10070</v>
       </c>
@@ -6239,605 +6240,605 @@
         <v>9</v>
       </c>
       <c r="C151" t="s">
-        <v>164</v>
+        <v>137</v>
       </c>
       <c r="D151" t="s">
         <v>11</v>
       </c>
       <c r="E151" s="2" t="s">
-        <v>179</v>
+        <v>142</v>
       </c>
       <c r="F151" t="s">
-        <v>166</v>
+        <v>138</v>
       </c>
       <c r="G151" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H151" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I151" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="152" spans="1:9" ht="72.5" x14ac:dyDescent="0.35">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="152" spans="1:9" ht="75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A152">
         <v>10131</v>
       </c>
       <c r="B152" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="C152" t="s">
-        <v>180</v>
+        <v>143</v>
       </c>
       <c r="D152" t="s">
         <v>11</v>
       </c>
       <c r="E152" s="2" t="s">
-        <v>181</v>
+        <v>144</v>
       </c>
       <c r="F152" t="s">
-        <v>166</v>
+        <v>138</v>
       </c>
       <c r="G152" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H152" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I152" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="153" spans="1:9" ht="72.5" x14ac:dyDescent="0.35">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="153" spans="1:9" ht="75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A153">
         <v>10132</v>
       </c>
       <c r="B153" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="C153" t="s">
-        <v>180</v>
+        <v>143</v>
       </c>
       <c r="D153" t="s">
         <v>11</v>
       </c>
       <c r="E153" s="2" t="s">
-        <v>182</v>
+        <v>145</v>
       </c>
       <c r="F153" t="s">
-        <v>166</v>
+        <v>138</v>
       </c>
       <c r="G153" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H153" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I153" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="154" spans="1:9" ht="72.5" x14ac:dyDescent="0.35">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="154" spans="1:9" ht="75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A154">
         <v>10133</v>
       </c>
       <c r="B154" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="C154" t="s">
-        <v>180</v>
+        <v>143</v>
       </c>
       <c r="D154" t="s">
         <v>11</v>
       </c>
       <c r="E154" s="2" t="s">
-        <v>183</v>
+        <v>146</v>
       </c>
       <c r="F154" t="s">
-        <v>166</v>
+        <v>138</v>
       </c>
       <c r="G154" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H154" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I154" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="155" spans="1:9" ht="72.5" x14ac:dyDescent="0.35">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="155" spans="1:9" ht="75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A155">
         <v>10134</v>
       </c>
       <c r="B155" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="C155" t="s">
-        <v>180</v>
+        <v>143</v>
       </c>
       <c r="D155" t="s">
         <v>11</v>
       </c>
       <c r="E155" s="2" t="s">
-        <v>184</v>
+        <v>147</v>
       </c>
       <c r="F155" t="s">
-        <v>166</v>
+        <v>138</v>
       </c>
       <c r="G155" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H155" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I155" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="156" spans="1:9" ht="87" x14ac:dyDescent="0.35">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="156" spans="1:9" ht="90" hidden="1" x14ac:dyDescent="0.25">
       <c r="A156">
         <v>10135</v>
       </c>
       <c r="B156" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="C156" t="s">
-        <v>180</v>
+        <v>143</v>
       </c>
       <c r="D156" t="s">
         <v>11</v>
       </c>
       <c r="E156" s="2" t="s">
-        <v>185</v>
+        <v>148</v>
       </c>
       <c r="F156" t="s">
-        <v>166</v>
+        <v>138</v>
       </c>
       <c r="G156" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H156" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I156" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="157" spans="1:9" ht="72.5" x14ac:dyDescent="0.35">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="157" spans="1:9" ht="75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A157">
         <v>10136</v>
       </c>
       <c r="B157" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="C157" t="s">
-        <v>180</v>
+        <v>143</v>
       </c>
       <c r="D157" t="s">
         <v>11</v>
       </c>
       <c r="E157" s="2" t="s">
-        <v>186</v>
+        <v>149</v>
       </c>
       <c r="F157" t="s">
-        <v>166</v>
+        <v>138</v>
       </c>
       <c r="G157" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H157" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I157" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="158" spans="1:9" ht="72.5" x14ac:dyDescent="0.35">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="158" spans="1:9" ht="75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A158">
         <v>10137</v>
       </c>
       <c r="B158" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="C158" t="s">
-        <v>180</v>
+        <v>143</v>
       </c>
       <c r="D158" t="s">
         <v>11</v>
       </c>
       <c r="E158" s="2" t="s">
-        <v>187</v>
+        <v>150</v>
       </c>
       <c r="F158" t="s">
-        <v>166</v>
+        <v>138</v>
       </c>
       <c r="G158" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H158" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I158" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="159" spans="1:9" ht="101.5" x14ac:dyDescent="0.35">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="159" spans="1:9" ht="105" hidden="1" x14ac:dyDescent="0.25">
       <c r="A159">
         <v>10189</v>
       </c>
       <c r="B159" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="C159" t="s">
-        <v>188</v>
+        <v>151</v>
       </c>
       <c r="D159" t="s">
         <v>11</v>
       </c>
       <c r="E159" s="2" t="s">
-        <v>189</v>
+        <v>152</v>
       </c>
       <c r="F159" t="s">
-        <v>166</v>
+        <v>138</v>
       </c>
       <c r="G159" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H159" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I159" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="160" spans="1:9" ht="87" x14ac:dyDescent="0.35">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="160" spans="1:9" ht="90" hidden="1" x14ac:dyDescent="0.25">
       <c r="A160">
         <v>10190</v>
       </c>
       <c r="B160" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="C160" t="s">
-        <v>188</v>
+        <v>151</v>
       </c>
       <c r="D160" t="s">
         <v>11</v>
       </c>
       <c r="E160" s="2" t="s">
-        <v>190</v>
+        <v>153</v>
       </c>
       <c r="F160" t="s">
-        <v>166</v>
+        <v>138</v>
       </c>
       <c r="G160" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H160" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I160" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="161" spans="1:9" ht="72.5" x14ac:dyDescent="0.35">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="161" spans="1:9" ht="75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A161">
         <v>10157</v>
       </c>
       <c r="B161" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="C161" t="s">
-        <v>191</v>
+        <v>154</v>
       </c>
       <c r="D161" t="s">
         <v>11</v>
       </c>
       <c r="E161" s="2" t="s">
-        <v>192</v>
+        <v>155</v>
       </c>
       <c r="F161" t="s">
-        <v>166</v>
+        <v>138</v>
       </c>
       <c r="G161" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H161" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I161" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="162" spans="1:9" ht="87" x14ac:dyDescent="0.35">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="162" spans="1:9" ht="90" hidden="1" x14ac:dyDescent="0.25">
       <c r="A162">
         <v>10158</v>
       </c>
       <c r="B162" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="C162" t="s">
-        <v>191</v>
+        <v>154</v>
       </c>
       <c r="D162" t="s">
         <v>11</v>
       </c>
       <c r="E162" s="2" t="s">
-        <v>193</v>
+        <v>156</v>
       </c>
       <c r="F162" t="s">
-        <v>166</v>
+        <v>138</v>
       </c>
       <c r="G162" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H162" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I162" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="163" spans="1:9" ht="87" x14ac:dyDescent="0.35">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="163" spans="1:9" ht="90" hidden="1" x14ac:dyDescent="0.25">
       <c r="A163">
         <v>10159</v>
       </c>
       <c r="B163" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="C163" t="s">
-        <v>191</v>
+        <v>154</v>
       </c>
       <c r="D163" t="s">
         <v>11</v>
       </c>
       <c r="E163" s="2" t="s">
-        <v>194</v>
+        <v>157</v>
       </c>
       <c r="F163" t="s">
-        <v>166</v>
+        <v>138</v>
       </c>
       <c r="G163" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H163" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I163" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="164" spans="1:9" ht="72.5" x14ac:dyDescent="0.35">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="164" spans="1:9" ht="75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A164">
         <v>10097</v>
       </c>
       <c r="B164" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="C164" t="s">
-        <v>195</v>
+        <v>158</v>
       </c>
       <c r="D164" t="s">
         <v>11</v>
       </c>
       <c r="E164" s="2" t="s">
-        <v>196</v>
+        <v>159</v>
       </c>
       <c r="F164" t="s">
-        <v>166</v>
+        <v>138</v>
       </c>
       <c r="G164" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H164" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I164" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="165" spans="1:9" ht="72.5" x14ac:dyDescent="0.35">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="165" spans="1:9" ht="75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A165">
         <v>10098</v>
       </c>
       <c r="B165" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="C165" t="s">
-        <v>195</v>
+        <v>158</v>
       </c>
       <c r="D165" t="s">
         <v>11</v>
       </c>
       <c r="E165" s="2" t="s">
-        <v>197</v>
+        <v>160</v>
       </c>
       <c r="F165" t="s">
-        <v>166</v>
+        <v>138</v>
       </c>
       <c r="G165" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H165" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I165" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="166" spans="1:9" ht="72.5" x14ac:dyDescent="0.35">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="166" spans="1:9" ht="75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A166">
         <v>10099</v>
       </c>
       <c r="B166" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="C166" t="s">
-        <v>195</v>
+        <v>158</v>
       </c>
       <c r="D166" t="s">
         <v>11</v>
       </c>
       <c r="E166" s="2" t="s">
-        <v>198</v>
+        <v>161</v>
       </c>
       <c r="F166" t="s">
-        <v>166</v>
+        <v>138</v>
       </c>
       <c r="G166" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H166" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I166" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="167" spans="1:9" ht="72.5" x14ac:dyDescent="0.35">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="167" spans="1:9" ht="75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A167">
         <v>10201</v>
       </c>
       <c r="B167" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="C167" t="s">
-        <v>199</v>
+        <v>162</v>
       </c>
       <c r="D167" t="s">
         <v>11</v>
       </c>
       <c r="E167" s="2" t="s">
-        <v>200</v>
+        <v>163</v>
       </c>
       <c r="F167" t="s">
-        <v>166</v>
+        <v>138</v>
       </c>
       <c r="G167" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H167" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I167" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="168" spans="1:9" ht="72.5" x14ac:dyDescent="0.35">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="168" spans="1:9" ht="75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A168">
         <v>10202</v>
       </c>
       <c r="B168" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="C168" t="s">
-        <v>199</v>
+        <v>162</v>
       </c>
       <c r="D168" t="s">
         <v>11</v>
       </c>
       <c r="E168" s="2" t="s">
-        <v>201</v>
+        <v>164</v>
       </c>
       <c r="F168" t="s">
-        <v>166</v>
+        <v>138</v>
       </c>
       <c r="G168" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H168" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I168" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="169" spans="1:9" ht="29" x14ac:dyDescent="0.35">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="169" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A169" s="2">
         <v>10175</v>
       </c>
       <c r="B169" s="2" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="C169" s="2" t="s">
-        <v>202</v>
+        <v>165</v>
       </c>
       <c r="D169" s="2" t="s">
         <v>11</v>
       </c>
       <c r="E169" s="2" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="F169" t="s">
-        <v>166</v>
+        <v>138</v>
       </c>
       <c r="G169" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H169" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I169" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="170" spans="1:9" ht="29" x14ac:dyDescent="0.35">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="170" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A170" s="2">
         <v>10176</v>
       </c>
       <c r="B170" s="2" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="C170" s="2" t="s">
-        <v>202</v>
+        <v>165</v>
       </c>
       <c r="D170" s="2" t="s">
         <v>11</v>
       </c>
       <c r="E170" s="2" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="F170" t="s">
-        <v>166</v>
+        <v>138</v>
       </c>
       <c r="G170" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H170" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I170" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="171" spans="1:9" ht="29" x14ac:dyDescent="0.35">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="171" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A171" s="2">
         <v>10177</v>
       </c>
       <c r="B171" s="2" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="C171" s="2" t="s">
-        <v>202</v>
+        <v>165</v>
       </c>
       <c r="E171" s="2" t="s">
-        <v>123</v>
+        <v>106</v>
       </c>
       <c r="F171" t="s">
-        <v>166</v>
+        <v>138</v>
       </c>
       <c r="G171" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H171" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I171" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="172" spans="1:9" ht="72.5" x14ac:dyDescent="0.35">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="172" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="A172">
         <v>10071</v>
       </c>
@@ -6845,28 +6846,28 @@
         <v>9</v>
       </c>
       <c r="C172" t="s">
-        <v>203</v>
+        <v>166</v>
       </c>
       <c r="D172" t="s">
         <v>11</v>
       </c>
       <c r="E172" s="2" t="s">
-        <v>204</v>
+        <v>243</v>
       </c>
       <c r="F172" t="s">
-        <v>205</v>
+        <v>167</v>
       </c>
       <c r="G172" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H172" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I172" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="173" spans="1:9" ht="72.5" x14ac:dyDescent="0.35">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="173" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="A173">
         <v>10072</v>
       </c>
@@ -6874,28 +6875,28 @@
         <v>9</v>
       </c>
       <c r="C173" t="s">
-        <v>203</v>
+        <v>166</v>
       </c>
       <c r="D173" t="s">
         <v>11</v>
       </c>
       <c r="E173" s="2" t="s">
-        <v>206</v>
+        <v>244</v>
       </c>
       <c r="F173" t="s">
-        <v>205</v>
+        <v>167</v>
       </c>
       <c r="G173" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H173" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I173" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="174" spans="1:9" ht="72.5" x14ac:dyDescent="0.35">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="174" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="A174">
         <v>10073</v>
       </c>
@@ -6903,28 +6904,28 @@
         <v>9</v>
       </c>
       <c r="C174" t="s">
-        <v>203</v>
+        <v>166</v>
       </c>
       <c r="D174" t="s">
         <v>11</v>
       </c>
       <c r="E174" s="2" t="s">
-        <v>207</v>
+        <v>245</v>
       </c>
       <c r="F174" t="s">
-        <v>205</v>
+        <v>167</v>
       </c>
       <c r="G174" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H174" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I174" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="175" spans="1:9" ht="72.5" x14ac:dyDescent="0.35">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="175" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="A175">
         <v>10074</v>
       </c>
@@ -6932,28 +6933,28 @@
         <v>9</v>
       </c>
       <c r="C175" t="s">
-        <v>203</v>
+        <v>166</v>
       </c>
       <c r="D175" t="s">
         <v>11</v>
       </c>
       <c r="E175" s="2" t="s">
-        <v>208</v>
+        <v>246</v>
       </c>
       <c r="F175" t="s">
-        <v>205</v>
+        <v>167</v>
       </c>
       <c r="G175" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H175" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I175" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="176" spans="1:9" ht="72.5" x14ac:dyDescent="0.35">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="176" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="A176">
         <v>10075</v>
       </c>
@@ -6961,28 +6962,28 @@
         <v>9</v>
       </c>
       <c r="C176" t="s">
-        <v>203</v>
+        <v>166</v>
       </c>
       <c r="D176" t="s">
         <v>11</v>
       </c>
       <c r="E176" s="2" t="s">
-        <v>209</v>
+        <v>247</v>
       </c>
       <c r="F176" t="s">
-        <v>205</v>
+        <v>167</v>
       </c>
       <c r="G176" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H176" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I176" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="177" spans="1:9" ht="72.5" x14ac:dyDescent="0.35">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="177" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="A177">
         <v>10076</v>
       </c>
@@ -6990,28 +6991,28 @@
         <v>9</v>
       </c>
       <c r="C177" t="s">
-        <v>203</v>
+        <v>166</v>
       </c>
       <c r="D177" t="s">
         <v>11</v>
       </c>
       <c r="E177" s="2" t="s">
-        <v>210</v>
+        <v>248</v>
       </c>
       <c r="F177" t="s">
-        <v>205</v>
+        <v>167</v>
       </c>
       <c r="G177" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H177" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I177" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="178" spans="1:9" ht="72.5" x14ac:dyDescent="0.35">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="178" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="A178">
         <v>10077</v>
       </c>
@@ -7019,28 +7020,28 @@
         <v>9</v>
       </c>
       <c r="C178" t="s">
-        <v>203</v>
+        <v>166</v>
       </c>
       <c r="D178" t="s">
         <v>11</v>
       </c>
       <c r="E178" s="2" t="s">
-        <v>211</v>
+        <v>249</v>
       </c>
       <c r="F178" t="s">
-        <v>205</v>
+        <v>167</v>
       </c>
       <c r="G178" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H178" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I178" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="179" spans="1:9" ht="72.5" x14ac:dyDescent="0.35">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="179" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="A179">
         <v>10078</v>
       </c>
@@ -7048,28 +7049,28 @@
         <v>9</v>
       </c>
       <c r="C179" t="s">
-        <v>203</v>
+        <v>166</v>
       </c>
       <c r="D179" t="s">
         <v>11</v>
       </c>
       <c r="E179" s="2" t="s">
-        <v>212</v>
+        <v>250</v>
       </c>
       <c r="F179" t="s">
-        <v>205</v>
+        <v>167</v>
       </c>
       <c r="G179" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H179" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I179" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="180" spans="1:9" ht="72.5" x14ac:dyDescent="0.35">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="180" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="A180">
         <v>10079</v>
       </c>
@@ -7077,28 +7078,28 @@
         <v>9</v>
       </c>
       <c r="C180" t="s">
-        <v>203</v>
+        <v>166</v>
       </c>
       <c r="D180" t="s">
         <v>11</v>
       </c>
       <c r="E180" s="2" t="s">
-        <v>213</v>
+        <v>251</v>
       </c>
       <c r="F180" t="s">
-        <v>205</v>
+        <v>167</v>
       </c>
       <c r="G180" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H180" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I180" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="181" spans="1:9" ht="72.5" x14ac:dyDescent="0.35">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="181" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="A181">
         <v>10080</v>
       </c>
@@ -7106,28 +7107,28 @@
         <v>9</v>
       </c>
       <c r="C181" t="s">
-        <v>203</v>
+        <v>166</v>
       </c>
       <c r="D181" t="s">
         <v>11</v>
       </c>
       <c r="E181" s="2" t="s">
-        <v>214</v>
+        <v>252</v>
       </c>
       <c r="F181" t="s">
-        <v>205</v>
+        <v>167</v>
       </c>
       <c r="G181" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H181" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I181" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="182" spans="1:9" ht="72.5" x14ac:dyDescent="0.35">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="182" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="A182">
         <v>10081</v>
       </c>
@@ -7135,28 +7136,28 @@
         <v>9</v>
       </c>
       <c r="C182" t="s">
-        <v>203</v>
+        <v>166</v>
       </c>
       <c r="D182" t="s">
         <v>11</v>
       </c>
       <c r="E182" s="2" t="s">
-        <v>215</v>
+        <v>168</v>
       </c>
       <c r="F182" t="s">
-        <v>205</v>
+        <v>167</v>
       </c>
       <c r="G182" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H182" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I182" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="183" spans="1:9" ht="72.5" x14ac:dyDescent="0.35">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="183" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="A183">
         <v>10082</v>
       </c>
@@ -7164,28 +7165,28 @@
         <v>9</v>
       </c>
       <c r="C183" t="s">
-        <v>216</v>
+        <v>169</v>
       </c>
       <c r="D183" t="s">
         <v>11</v>
       </c>
       <c r="E183" s="2" t="s">
-        <v>217</v>
+        <v>170</v>
       </c>
       <c r="F183" t="s">
-        <v>205</v>
+        <v>167</v>
       </c>
       <c r="G183" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H183" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I183" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="184" spans="1:9" ht="72.5" x14ac:dyDescent="0.35">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="184" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="A184">
         <v>10083</v>
       </c>
@@ -7193,28 +7194,28 @@
         <v>9</v>
       </c>
       <c r="C184" t="s">
-        <v>203</v>
+        <v>166</v>
       </c>
       <c r="D184" t="s">
         <v>11</v>
       </c>
       <c r="E184" s="2" t="s">
-        <v>218</v>
+        <v>171</v>
       </c>
       <c r="F184" t="s">
-        <v>205</v>
+        <v>167</v>
       </c>
       <c r="G184" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H184" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I184" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="185" spans="1:9" ht="72.5" x14ac:dyDescent="0.35">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="185" spans="1:9" ht="90" x14ac:dyDescent="0.25">
       <c r="A185">
         <v>10084</v>
       </c>
@@ -7222,1616 +7223,1622 @@
         <v>9</v>
       </c>
       <c r="C185" t="s">
-        <v>203</v>
+        <v>166</v>
       </c>
       <c r="D185" t="s">
         <v>11</v>
       </c>
       <c r="E185" s="2" t="s">
-        <v>219</v>
+        <v>172</v>
       </c>
       <c r="F185" t="s">
-        <v>205</v>
+        <v>167</v>
       </c>
       <c r="G185" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H185" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I185" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="186" spans="1:9" ht="72.5" x14ac:dyDescent="0.35">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="186" spans="1:9" ht="75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A186">
         <v>10138</v>
       </c>
       <c r="B186" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="C186" t="s">
-        <v>220</v>
+        <v>173</v>
       </c>
       <c r="D186" t="s">
         <v>11</v>
       </c>
       <c r="E186" s="2" t="s">
-        <v>221</v>
+        <v>174</v>
       </c>
       <c r="F186" t="s">
-        <v>205</v>
+        <v>167</v>
       </c>
       <c r="G186" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H186" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I186" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="187" spans="1:9" ht="87" x14ac:dyDescent="0.35">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="187" spans="1:9" ht="90" hidden="1" x14ac:dyDescent="0.25">
       <c r="A187">
         <v>10139</v>
       </c>
       <c r="B187" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="C187" t="s">
-        <v>220</v>
+        <v>173</v>
       </c>
       <c r="D187" t="s">
         <v>11</v>
       </c>
       <c r="E187" s="2" t="s">
-        <v>222</v>
+        <v>175</v>
       </c>
       <c r="F187" t="s">
-        <v>205</v>
+        <v>167</v>
       </c>
       <c r="G187" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H187" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I187" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="188" spans="1:9" ht="72.5" x14ac:dyDescent="0.35">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="188" spans="1:9" ht="75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A188">
         <v>10140</v>
       </c>
       <c r="B188" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="C188" t="s">
-        <v>220</v>
+        <v>173</v>
       </c>
       <c r="D188" t="s">
         <v>11</v>
       </c>
       <c r="E188" s="2" t="s">
-        <v>223</v>
+        <v>176</v>
       </c>
       <c r="F188" t="s">
-        <v>205</v>
+        <v>167</v>
       </c>
       <c r="G188" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H188" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I188" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="189" spans="1:9" ht="72.5" x14ac:dyDescent="0.35">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="189" spans="1:9" ht="90" hidden="1" x14ac:dyDescent="0.25">
       <c r="A189">
         <v>10141</v>
       </c>
       <c r="B189" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="C189" t="s">
-        <v>220</v>
+        <v>173</v>
       </c>
       <c r="D189" t="s">
         <v>11</v>
       </c>
       <c r="E189" s="2" t="s">
-        <v>224</v>
+        <v>177</v>
       </c>
       <c r="F189" t="s">
-        <v>205</v>
+        <v>167</v>
       </c>
       <c r="G189" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H189" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I189" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="190" spans="1:9" ht="87" x14ac:dyDescent="0.35">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="190" spans="1:9" ht="105" hidden="1" x14ac:dyDescent="0.25">
       <c r="A190">
         <v>10142</v>
       </c>
       <c r="B190" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="C190" t="s">
-        <v>220</v>
+        <v>173</v>
       </c>
       <c r="D190" t="s">
         <v>11</v>
       </c>
       <c r="E190" s="2" t="s">
-        <v>225</v>
+        <v>178</v>
       </c>
       <c r="F190" t="s">
-        <v>205</v>
+        <v>167</v>
       </c>
       <c r="G190" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H190" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I190" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="191" spans="1:9" ht="101.5" x14ac:dyDescent="0.35">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="191" spans="1:9" ht="105" hidden="1" x14ac:dyDescent="0.25">
       <c r="A191">
         <v>10143</v>
       </c>
       <c r="B191" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="C191" t="s">
-        <v>220</v>
+        <v>173</v>
       </c>
       <c r="D191" t="s">
         <v>11</v>
       </c>
       <c r="E191" s="2" t="s">
-        <v>226</v>
+        <v>179</v>
       </c>
       <c r="F191" t="s">
-        <v>205</v>
+        <v>167</v>
       </c>
       <c r="G191" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H191" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I191" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="192" spans="1:9" ht="101.5" x14ac:dyDescent="0.35">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="192" spans="1:9" ht="105" hidden="1" x14ac:dyDescent="0.25">
       <c r="A192">
         <v>10144</v>
       </c>
       <c r="B192" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="C192" t="s">
-        <v>220</v>
+        <v>173</v>
       </c>
       <c r="D192" t="s">
         <v>11</v>
       </c>
       <c r="E192" s="2" t="s">
-        <v>227</v>
+        <v>180</v>
       </c>
       <c r="F192" t="s">
-        <v>205</v>
+        <v>167</v>
       </c>
       <c r="G192" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H192" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I192" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="193" spans="1:9" ht="101.5" x14ac:dyDescent="0.35">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="193" spans="1:9" ht="105" hidden="1" x14ac:dyDescent="0.25">
       <c r="A193">
         <v>10191</v>
       </c>
       <c r="B193" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="C193" t="s">
-        <v>228</v>
+        <v>181</v>
       </c>
       <c r="D193" t="s">
         <v>11</v>
       </c>
       <c r="E193" s="2" t="s">
-        <v>229</v>
+        <v>182</v>
       </c>
       <c r="F193" t="s">
-        <v>205</v>
+        <v>167</v>
       </c>
       <c r="G193" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H193" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I193" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="194" spans="1:9" ht="101.5" x14ac:dyDescent="0.35">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="194" spans="1:9" ht="105" hidden="1" x14ac:dyDescent="0.25">
       <c r="A194">
         <v>10192</v>
       </c>
       <c r="B194" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="C194" t="s">
-        <v>228</v>
+        <v>181</v>
       </c>
       <c r="D194" t="s">
         <v>11</v>
       </c>
       <c r="E194" s="2" t="s">
-        <v>230</v>
+        <v>183</v>
       </c>
       <c r="F194" t="s">
-        <v>205</v>
+        <v>167</v>
       </c>
       <c r="G194" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H194" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I194" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="195" spans="1:9" ht="72.5" x14ac:dyDescent="0.35">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="195" spans="1:9" ht="75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A195">
         <v>10160</v>
       </c>
       <c r="B195" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="C195" t="s">
-        <v>231</v>
+        <v>184</v>
       </c>
       <c r="D195" t="s">
         <v>11</v>
       </c>
       <c r="E195" s="2" t="s">
-        <v>232</v>
+        <v>185</v>
       </c>
       <c r="F195" t="s">
-        <v>205</v>
+        <v>167</v>
       </c>
       <c r="G195" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H195" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I195" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="196" spans="1:9" ht="101.5" x14ac:dyDescent="0.35">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="196" spans="1:9" ht="105" hidden="1" x14ac:dyDescent="0.25">
       <c r="A196">
         <v>10161</v>
       </c>
       <c r="B196" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="C196" t="s">
-        <v>231</v>
+        <v>184</v>
       </c>
       <c r="D196" t="s">
         <v>11</v>
       </c>
       <c r="E196" s="2" t="s">
-        <v>233</v>
+        <v>186</v>
       </c>
       <c r="F196" t="s">
-        <v>205</v>
+        <v>167</v>
       </c>
       <c r="G196" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H196" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I196" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="197" spans="1:9" ht="101.5" x14ac:dyDescent="0.35">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="197" spans="1:9" ht="120" hidden="1" x14ac:dyDescent="0.25">
       <c r="A197">
         <v>10162</v>
       </c>
       <c r="B197" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="C197" t="s">
-        <v>231</v>
+        <v>184</v>
       </c>
       <c r="D197" t="s">
         <v>11</v>
       </c>
       <c r="E197" s="2" t="s">
-        <v>234</v>
+        <v>187</v>
       </c>
       <c r="F197" t="s">
-        <v>205</v>
+        <v>167</v>
       </c>
       <c r="G197" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H197" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I197" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="198" spans="1:9" ht="72.5" x14ac:dyDescent="0.35">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="198" spans="1:9" ht="75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A198">
         <v>10100</v>
       </c>
       <c r="B198" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="C198" t="s">
-        <v>235</v>
+        <v>188</v>
       </c>
       <c r="D198" t="s">
         <v>11</v>
       </c>
       <c r="E198" s="2" t="s">
-        <v>236</v>
+        <v>189</v>
       </c>
       <c r="F198" t="s">
-        <v>205</v>
+        <v>167</v>
       </c>
       <c r="G198" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H198" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I198" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="199" spans="1:9" ht="72.5" x14ac:dyDescent="0.35">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="199" spans="1:9" ht="75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A199">
         <v>10101</v>
       </c>
       <c r="B199" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="C199" t="s">
-        <v>235</v>
+        <v>188</v>
       </c>
       <c r="D199" t="s">
         <v>11</v>
       </c>
       <c r="E199" s="2" t="s">
-        <v>237</v>
+        <v>190</v>
       </c>
       <c r="F199" t="s">
-        <v>205</v>
+        <v>167</v>
       </c>
       <c r="G199" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H199" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I199" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="200" spans="1:9" ht="72.5" x14ac:dyDescent="0.35">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="200" spans="1:9" ht="90" hidden="1" x14ac:dyDescent="0.25">
       <c r="A200">
         <v>10102</v>
       </c>
       <c r="B200" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="C200" t="s">
-        <v>235</v>
+        <v>188</v>
       </c>
       <c r="D200" t="s">
         <v>11</v>
       </c>
       <c r="E200" s="2" t="s">
-        <v>238</v>
+        <v>191</v>
       </c>
       <c r="F200" t="s">
-        <v>205</v>
+        <v>167</v>
       </c>
       <c r="G200" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H200" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I200" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="201" spans="1:9" ht="87" x14ac:dyDescent="0.35">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="201" spans="1:9" ht="90" hidden="1" x14ac:dyDescent="0.25">
       <c r="A201">
         <v>10203</v>
       </c>
       <c r="B201" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="C201" t="s">
-        <v>239</v>
+        <v>192</v>
       </c>
       <c r="D201" t="s">
         <v>11</v>
       </c>
       <c r="E201" s="2" t="s">
-        <v>240</v>
+        <v>193</v>
       </c>
       <c r="F201" t="s">
-        <v>205</v>
+        <v>167</v>
       </c>
       <c r="G201" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H201" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I201" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="202" spans="1:9" ht="101.5" x14ac:dyDescent="0.35">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="202" spans="1:9" ht="105" hidden="1" x14ac:dyDescent="0.25">
       <c r="A202">
         <v>10204</v>
       </c>
       <c r="B202" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="C202" t="s">
-        <v>239</v>
+        <v>192</v>
       </c>
       <c r="D202" t="s">
         <v>11</v>
       </c>
       <c r="E202" s="2" t="s">
-        <v>241</v>
+        <v>194</v>
       </c>
       <c r="F202" t="s">
-        <v>205</v>
+        <v>167</v>
       </c>
       <c r="G202" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H202" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I202" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="203" spans="1:9" ht="43.5" x14ac:dyDescent="0.35">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="203" spans="1:9" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A203" s="2">
         <v>10178</v>
       </c>
       <c r="B203" s="2" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="C203" s="2" t="s">
-        <v>242</v>
+        <v>195</v>
       </c>
       <c r="D203" s="2" t="s">
         <v>11</v>
       </c>
       <c r="E203" s="2" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="F203" t="s">
-        <v>205</v>
+        <v>167</v>
       </c>
       <c r="G203" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H203" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I203" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="204" spans="1:9" ht="43.5" x14ac:dyDescent="0.35">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="204" spans="1:9" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A204" s="2">
         <v>10179</v>
       </c>
       <c r="B204" s="2" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="C204" s="2" t="s">
-        <v>242</v>
+        <v>195</v>
       </c>
       <c r="D204" s="2" t="s">
         <v>11</v>
       </c>
       <c r="E204" s="2" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="F204" t="s">
-        <v>205</v>
+        <v>167</v>
       </c>
       <c r="G204" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H204" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I204" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="205" spans="1:9" ht="43.5" x14ac:dyDescent="0.35">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="205" spans="1:9" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A205" s="2">
         <v>10180</v>
       </c>
       <c r="B205" s="2" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="C205" s="2" t="s">
-        <v>242</v>
+        <v>195</v>
       </c>
       <c r="E205" s="2" t="s">
-        <v>123</v>
+        <v>106</v>
       </c>
       <c r="F205" t="s">
-        <v>205</v>
+        <v>167</v>
       </c>
       <c r="G205" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H205" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I205" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="206" spans="1:9" ht="72.5" x14ac:dyDescent="0.35">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="206" spans="1:9" ht="75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A206" s="2">
         <v>10205</v>
       </c>
       <c r="B206" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="C206" t="s">
-        <v>244</v>
+        <v>197</v>
       </c>
       <c r="D206" t="s">
         <v>11</v>
       </c>
       <c r="E206" s="2" t="s">
-        <v>245</v>
+        <v>198</v>
       </c>
       <c r="F206" t="s">
-        <v>243</v>
+        <v>196</v>
       </c>
       <c r="G206" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H206" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I206" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="207" spans="1:9" ht="72.5" x14ac:dyDescent="0.35">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="207" spans="1:9" ht="75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A207" s="2">
         <v>10206</v>
       </c>
       <c r="B207" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="C207" t="s">
-        <v>244</v>
+        <v>197</v>
       </c>
       <c r="D207" t="s">
         <v>11</v>
       </c>
       <c r="E207" s="2" t="s">
-        <v>246</v>
+        <v>199</v>
       </c>
       <c r="F207" t="s">
-        <v>243</v>
+        <v>196</v>
       </c>
       <c r="G207" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H207" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I207" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="208" spans="1:9" ht="72.5" x14ac:dyDescent="0.35">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="208" spans="1:9" ht="75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A208" s="2">
         <v>10207</v>
       </c>
       <c r="B208" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="C208" t="s">
-        <v>244</v>
+        <v>197</v>
       </c>
       <c r="D208" t="s">
         <v>11</v>
       </c>
       <c r="E208" s="2" t="s">
-        <v>247</v>
+        <v>200</v>
       </c>
       <c r="F208" t="s">
-        <v>243</v>
+        <v>196</v>
       </c>
       <c r="G208" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H208" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I208" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="209" spans="1:9" ht="43.5" x14ac:dyDescent="0.35">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="209" spans="1:9" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A209" s="2">
         <v>10208</v>
       </c>
       <c r="B209" s="2" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="C209" s="2" t="s">
-        <v>248</v>
+        <v>201</v>
       </c>
       <c r="D209" s="2" t="s">
         <v>11</v>
       </c>
       <c r="E209" s="2" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="F209" t="s">
-        <v>243</v>
+        <v>196</v>
       </c>
       <c r="G209" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H209" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I209" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="210" spans="1:9" ht="43.5" x14ac:dyDescent="0.35">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="210" spans="1:9" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A210" s="2">
         <v>10209</v>
       </c>
       <c r="B210" s="2" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="C210" s="2" t="s">
-        <v>248</v>
+        <v>201</v>
       </c>
       <c r="D210" s="2" t="s">
         <v>11</v>
       </c>
       <c r="E210" s="2" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="F210" t="s">
-        <v>243</v>
+        <v>196</v>
       </c>
       <c r="G210" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H210" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I210" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="211" spans="1:9" ht="43.5" x14ac:dyDescent="0.35">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="211" spans="1:9" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A211" s="2">
         <v>10210</v>
       </c>
       <c r="B211" s="2" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="C211" s="2" t="s">
-        <v>248</v>
+        <v>201</v>
       </c>
       <c r="E211" s="2" t="s">
-        <v>123</v>
+        <v>106</v>
       </c>
       <c r="F211" t="s">
-        <v>243</v>
+        <v>196</v>
       </c>
       <c r="G211" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H211" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I211" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="212" spans="1:9" ht="43.5" x14ac:dyDescent="0.35">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="212" spans="1:9" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A212" s="2">
         <v>10211</v>
       </c>
       <c r="B212" s="2" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="C212" s="2" t="s">
-        <v>248</v>
+        <v>201</v>
       </c>
       <c r="D212" t="s">
         <v>11</v>
       </c>
       <c r="E212" s="2" t="s">
-        <v>249</v>
+        <v>202</v>
       </c>
       <c r="F212" t="s">
-        <v>243</v>
+        <v>196</v>
       </c>
       <c r="G212" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H212" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I212" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="213" spans="1:9" x14ac:dyDescent="0.35">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="213" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A213" s="2">
         <f>SUM(A212,1)</f>
         <v>10212</v>
       </c>
       <c r="B213" s="2" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="C213" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="D213" t="s">
         <v>11</v>
       </c>
       <c r="E213" t="s">
-        <v>249</v>
+        <v>202</v>
       </c>
       <c r="F213" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G213" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H213" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I213" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="214" spans="1:9" ht="29" x14ac:dyDescent="0.35">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="214" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A214" s="2">
         <f t="shared" ref="A214:A239" si="0">SUM(A213,1)</f>
         <v>10213</v>
       </c>
       <c r="B214" s="2" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="C214" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="D214" t="s">
         <v>11</v>
       </c>
       <c r="E214" s="2" t="s">
-        <v>250</v>
+        <v>203</v>
       </c>
       <c r="F214" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G214" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H214" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I214" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="215" spans="1:9" ht="29" x14ac:dyDescent="0.35">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="215" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A215" s="2">
         <f t="shared" si="0"/>
         <v>10214</v>
       </c>
       <c r="B215" s="2" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="C215" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="D215" t="s">
         <v>11</v>
       </c>
       <c r="E215" s="2" t="s">
-        <v>251</v>
+        <v>204</v>
       </c>
       <c r="F215" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G215" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H215" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I215" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="216" spans="1:9" ht="29" x14ac:dyDescent="0.35">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="216" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A216" s="2">
         <f t="shared" si="0"/>
         <v>10215</v>
       </c>
       <c r="B216" s="2" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="C216" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="D216" t="s">
         <v>11</v>
       </c>
       <c r="E216" s="2" t="s">
-        <v>252</v>
+        <v>205</v>
       </c>
       <c r="F216" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G216" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H216" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I216" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="217" spans="1:9" x14ac:dyDescent="0.35">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="217" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A217" s="2">
         <f t="shared" si="0"/>
         <v>10216</v>
       </c>
       <c r="B217" s="2" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="C217" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="D217" t="s">
         <v>11</v>
       </c>
       <c r="E217" t="s">
-        <v>249</v>
+        <v>202</v>
       </c>
       <c r="F217" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="G217" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H217" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I217" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="218" spans="1:9" ht="29" x14ac:dyDescent="0.35">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="218" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A218" s="2">
         <f t="shared" si="0"/>
         <v>10217</v>
       </c>
       <c r="B218" s="2" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="C218" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="D218" t="s">
         <v>11</v>
       </c>
       <c r="E218" s="2" t="s">
-        <v>250</v>
+        <v>203</v>
       </c>
       <c r="F218" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="G218" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H218" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I218" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="219" spans="1:9" ht="29" x14ac:dyDescent="0.35">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="219" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A219" s="2">
         <f t="shared" si="0"/>
         <v>10218</v>
       </c>
       <c r="B219" s="2" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="C219" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="D219" t="s">
         <v>11</v>
       </c>
       <c r="E219" s="2" t="s">
-        <v>251</v>
+        <v>204</v>
       </c>
       <c r="F219" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="G219" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H219" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I219" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="220" spans="1:9" ht="29" x14ac:dyDescent="0.35">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="220" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A220" s="2">
         <f t="shared" si="0"/>
         <v>10219</v>
       </c>
       <c r="B220" s="2" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="C220" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="D220" t="s">
         <v>11</v>
       </c>
       <c r="E220" s="2" t="s">
-        <v>252</v>
+        <v>205</v>
       </c>
       <c r="F220" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="G220" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H220" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I220" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="221" spans="1:9" x14ac:dyDescent="0.35">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="221" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A221" s="2">
         <f t="shared" si="0"/>
         <v>10220</v>
       </c>
       <c r="B221" s="2" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="C221" t="s">
-        <v>121</v>
+        <v>104</v>
       </c>
       <c r="D221" t="s">
         <v>11</v>
       </c>
       <c r="E221" t="s">
-        <v>249</v>
+        <v>202</v>
       </c>
       <c r="F221" t="s">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="G221" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H221" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I221" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="222" spans="1:9" ht="29" x14ac:dyDescent="0.35">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="222" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A222" s="2">
         <f t="shared" si="0"/>
         <v>10221</v>
       </c>
       <c r="B222" s="2" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="C222" t="s">
-        <v>121</v>
+        <v>104</v>
       </c>
       <c r="D222" t="s">
         <v>11</v>
       </c>
       <c r="E222" s="2" t="s">
-        <v>250</v>
+        <v>203</v>
       </c>
       <c r="F222" t="s">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="G222" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H222" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I222" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="223" spans="1:9" ht="29" x14ac:dyDescent="0.35">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="223" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A223" s="2">
         <f t="shared" si="0"/>
         <v>10222</v>
       </c>
       <c r="B223" s="2" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="C223" t="s">
-        <v>121</v>
+        <v>104</v>
       </c>
       <c r="D223" t="s">
         <v>11</v>
       </c>
       <c r="E223" s="2" t="s">
-        <v>251</v>
+        <v>204</v>
       </c>
       <c r="F223" t="s">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="G223" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H223" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I223" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="224" spans="1:9" ht="29" x14ac:dyDescent="0.35">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="224" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A224" s="2">
         <f t="shared" si="0"/>
         <v>10223</v>
       </c>
       <c r="B224" s="2" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="C224" t="s">
-        <v>121</v>
+        <v>104</v>
       </c>
       <c r="D224" t="s">
         <v>11</v>
       </c>
       <c r="E224" s="2" t="s">
-        <v>252</v>
+        <v>205</v>
       </c>
       <c r="F224" t="s">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="G224" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H224" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I224" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="225" spans="1:9" ht="29" x14ac:dyDescent="0.35">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="225" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A225" s="2">
         <f t="shared" si="0"/>
         <v>10224</v>
       </c>
       <c r="B225" s="2" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="C225" t="s">
-        <v>248</v>
+        <v>201</v>
       </c>
       <c r="D225" t="s">
         <v>11</v>
       </c>
       <c r="E225" s="2" t="s">
-        <v>250</v>
+        <v>203</v>
       </c>
       <c r="F225" t="s">
-        <v>243</v>
+        <v>196</v>
       </c>
       <c r="G225" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H225" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I225" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="226" spans="1:9" ht="29" x14ac:dyDescent="0.35">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="226" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A226" s="2">
         <f t="shared" si="0"/>
         <v>10225</v>
       </c>
       <c r="B226" s="2" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="C226" t="s">
-        <v>248</v>
+        <v>201</v>
       </c>
       <c r="D226" t="s">
         <v>11</v>
       </c>
       <c r="E226" s="2" t="s">
-        <v>251</v>
+        <v>204</v>
       </c>
       <c r="F226" t="s">
-        <v>243</v>
+        <v>196</v>
       </c>
       <c r="G226" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H226" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I226" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="227" spans="1:9" ht="29" x14ac:dyDescent="0.35">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="227" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A227" s="2">
         <f t="shared" si="0"/>
         <v>10226</v>
       </c>
       <c r="B227" s="2" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="C227" t="s">
-        <v>248</v>
+        <v>201</v>
       </c>
       <c r="D227" t="s">
         <v>11</v>
       </c>
       <c r="E227" s="2" t="s">
-        <v>252</v>
+        <v>205</v>
       </c>
       <c r="F227" t="s">
-        <v>243</v>
+        <v>196</v>
       </c>
       <c r="G227" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H227" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I227" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="228" spans="1:9" x14ac:dyDescent="0.35">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="228" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A228" s="2">
         <f t="shared" si="0"/>
         <v>10227</v>
       </c>
       <c r="B228" s="2" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="C228" t="s">
-        <v>162</v>
+        <v>135</v>
       </c>
       <c r="D228" t="s">
         <v>11</v>
       </c>
       <c r="E228" t="s">
-        <v>249</v>
+        <v>202</v>
       </c>
       <c r="F228" t="s">
-        <v>126</v>
+        <v>108</v>
       </c>
       <c r="G228" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H228" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I228" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="229" spans="1:9" ht="29" x14ac:dyDescent="0.35">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="229" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A229" s="2">
         <f t="shared" si="0"/>
         <v>10228</v>
       </c>
       <c r="B229" s="2" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="C229" t="s">
-        <v>162</v>
+        <v>135</v>
       </c>
       <c r="D229" t="s">
         <v>11</v>
       </c>
       <c r="E229" s="2" t="s">
-        <v>250</v>
+        <v>203</v>
       </c>
       <c r="F229" t="s">
-        <v>126</v>
+        <v>108</v>
       </c>
       <c r="G229" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H229" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I229" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="230" spans="1:9" ht="29" x14ac:dyDescent="0.35">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="230" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A230" s="2">
         <f t="shared" si="0"/>
         <v>10229</v>
       </c>
       <c r="B230" s="2" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="C230" t="s">
-        <v>162</v>
+        <v>135</v>
       </c>
       <c r="D230" t="s">
         <v>11</v>
       </c>
       <c r="E230" s="2" t="s">
-        <v>251</v>
+        <v>204</v>
       </c>
       <c r="F230" t="s">
-        <v>126</v>
+        <v>108</v>
       </c>
       <c r="G230" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H230" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I230" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="231" spans="1:9" ht="29" x14ac:dyDescent="0.35">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="231" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A231" s="2">
         <f t="shared" si="0"/>
         <v>10230</v>
       </c>
       <c r="B231" s="2" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="C231" t="s">
-        <v>162</v>
+        <v>135</v>
       </c>
       <c r="D231" t="s">
         <v>11</v>
       </c>
       <c r="E231" s="2" t="s">
-        <v>252</v>
+        <v>205</v>
       </c>
       <c r="F231" t="s">
-        <v>126</v>
+        <v>108</v>
       </c>
       <c r="G231" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H231" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I231" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="232" spans="1:9" x14ac:dyDescent="0.35">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="232" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A232" s="2">
         <f t="shared" si="0"/>
         <v>10231</v>
       </c>
       <c r="B232" s="2" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="C232" t="s">
+        <v>165</v>
+      </c>
+      <c r="D232" t="s">
+        <v>11</v>
+      </c>
+      <c r="E232" t="s">
         <v>202</v>
       </c>
-      <c r="D232" t="s">
-        <v>11</v>
-      </c>
-      <c r="E232" t="s">
-        <v>249</v>
-      </c>
       <c r="F232" t="s">
-        <v>166</v>
+        <v>138</v>
       </c>
       <c r="G232" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H232" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I232" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="233" spans="1:9" ht="29" x14ac:dyDescent="0.35">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="233" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A233" s="2">
         <f t="shared" si="0"/>
         <v>10232</v>
       </c>
       <c r="B233" s="2" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="C233" t="s">
-        <v>202</v>
+        <v>165</v>
       </c>
       <c r="D233" t="s">
         <v>11</v>
       </c>
       <c r="E233" s="2" t="s">
-        <v>250</v>
+        <v>203</v>
       </c>
       <c r="F233" t="s">
-        <v>166</v>
+        <v>138</v>
       </c>
       <c r="G233" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H233" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I233" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="234" spans="1:9" ht="29" x14ac:dyDescent="0.35">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="234" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A234" s="2">
         <f t="shared" si="0"/>
         <v>10233</v>
       </c>
       <c r="B234" s="2" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="C234" t="s">
-        <v>202</v>
+        <v>165</v>
       </c>
       <c r="D234" t="s">
         <v>11</v>
       </c>
       <c r="E234" s="2" t="s">
-        <v>251</v>
+        <v>204</v>
       </c>
       <c r="F234" t="s">
-        <v>166</v>
+        <v>138</v>
       </c>
       <c r="G234" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H234" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I234" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="235" spans="1:9" ht="29" x14ac:dyDescent="0.35">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="235" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A235" s="2">
         <f t="shared" si="0"/>
         <v>10234</v>
       </c>
       <c r="B235" s="2" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="C235" t="s">
-        <v>202</v>
+        <v>165</v>
       </c>
       <c r="D235" t="s">
         <v>11</v>
       </c>
       <c r="E235" s="2" t="s">
-        <v>252</v>
+        <v>205</v>
       </c>
       <c r="F235" t="s">
-        <v>166</v>
+        <v>138</v>
       </c>
       <c r="G235" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H235" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I235" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="236" spans="1:9" x14ac:dyDescent="0.35">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="236" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A236" s="2">
         <f t="shared" si="0"/>
         <v>10235</v>
       </c>
       <c r="B236" s="2" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="C236" t="s">
-        <v>242</v>
+        <v>195</v>
       </c>
       <c r="D236" t="s">
         <v>11</v>
       </c>
       <c r="E236" t="s">
-        <v>249</v>
+        <v>202</v>
       </c>
       <c r="F236" t="s">
-        <v>205</v>
+        <v>167</v>
       </c>
       <c r="G236" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H236" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I236" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="237" spans="1:9" ht="29" x14ac:dyDescent="0.35">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="237" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A237" s="2">
         <f t="shared" si="0"/>
         <v>10236</v>
       </c>
       <c r="B237" s="2" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="C237" t="s">
-        <v>242</v>
+        <v>195</v>
       </c>
       <c r="D237" t="s">
         <v>11</v>
       </c>
       <c r="E237" s="2" t="s">
-        <v>250</v>
+        <v>203</v>
       </c>
       <c r="F237" t="s">
-        <v>205</v>
+        <v>167</v>
       </c>
       <c r="G237" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H237" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I237" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="238" spans="1:9" ht="29" x14ac:dyDescent="0.35">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="238" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A238" s="2">
         <f t="shared" si="0"/>
         <v>10237</v>
       </c>
       <c r="B238" s="2" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="C238" t="s">
-        <v>242</v>
+        <v>195</v>
       </c>
       <c r="D238" t="s">
         <v>11</v>
       </c>
       <c r="E238" s="2" t="s">
-        <v>251</v>
+        <v>204</v>
       </c>
       <c r="F238" t="s">
-        <v>205</v>
+        <v>167</v>
       </c>
       <c r="G238" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H238" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I238" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="239" spans="1:9" ht="29" x14ac:dyDescent="0.35">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="239" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A239" s="2">
         <f t="shared" si="0"/>
         <v>10238</v>
       </c>
       <c r="B239" s="2" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="C239" t="s">
-        <v>242</v>
+        <v>195</v>
       </c>
       <c r="D239" t="s">
         <v>11</v>
       </c>
       <c r="E239" s="2" t="s">
-        <v>252</v>
+        <v>205</v>
       </c>
       <c r="F239" t="s">
-        <v>205</v>
+        <v>167</v>
       </c>
       <c r="G239" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H239" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I239" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:I205" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:I239" xr:uid="{00000000-0009-0000-0000-000000000000}">
+    <filterColumn colId="1">
+      <filters>
+        <filter val="bloodType"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
